--- a/docs/Mapping_casi_uso/matrimoni/Matr_007.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_007.xlsx
@@ -819,7 +819,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -827,34 +827,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F333"/>
+  <dimension ref="A1:G333"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="52.27734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="94.66796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="68.6484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="94.6640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="68.64453125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="32.48828125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6214,7 +6215,7 @@
         <v>87</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="269">
@@ -6234,7 +6235,7 @@
         <v>89</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="270">
@@ -6274,7 +6275,7 @@
         <v>93</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="272">
@@ -6674,7 +6675,7 @@
         <v>182</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="292">
@@ -7520,273 +7521,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8419C617-7E40-430F-9891-197579E48A56}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01B40036-D1FB-4775-B009-A3DAE06BE05E}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F77B3390-51A4-4857-825F-C437FD813F60}"/>
 </file>
--- a/docs/Mapping_casi_uso/matrimoni/Matr_007.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="260">
   <si>
     <t>Sezione</t>
   </si>
@@ -83,6 +83,9 @@
     <t>62</t>
   </si>
   <si>
+    <t>62-bis</t>
+  </si>
+  <si>
     <t>184</t>
   </si>
   <si>
@@ -633,6 +636,9 @@
   </si>
   <si>
     <t>legge</t>
+  </si>
+  <si>
+    <t>62-bis,184</t>
   </si>
   <si>
     <t>Regime patrimoniale - Atto Notarile</t>
@@ -844,7 +850,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G333"/>
+  <dimension ref="A1:G334"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1366,73 +1372,73 @@
         <v>34</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="C27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="D29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>9</v>
@@ -1440,19 +1446,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="D30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>9</v>
@@ -1460,19 +1466,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="D31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>9</v>
@@ -1480,19 +1486,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>9</v>
@@ -1500,19 +1506,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>9</v>
@@ -1520,19 +1526,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>9</v>
@@ -1540,19 +1546,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>9</v>
@@ -1560,19 +1566,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -1580,19 +1586,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -1600,19 +1606,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>9</v>
@@ -1620,19 +1626,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
@@ -1640,19 +1646,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
@@ -1660,19 +1666,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
@@ -1680,19 +1686,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>9</v>
@@ -1700,19 +1706,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
@@ -1720,19 +1726,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -1740,19 +1746,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>9</v>
@@ -1760,19 +1766,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>9</v>
@@ -1780,19 +1786,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>9</v>
@@ -1800,19 +1806,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>9</v>
@@ -1820,19 +1826,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>9</v>
@@ -1840,59 +1846,59 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F50" s="2" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E51" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>9</v>
@@ -1900,19 +1906,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>9</v>
@@ -1920,19 +1926,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>9</v>
@@ -1940,19 +1946,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>9</v>
@@ -1960,19 +1966,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>9</v>
@@ -1980,19 +1986,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>9</v>
@@ -2000,19 +2006,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>9</v>
@@ -2020,19 +2026,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -2040,19 +2046,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -2060,19 +2066,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>9</v>
@@ -2080,19 +2086,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -2100,19 +2106,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>9</v>
@@ -2120,19 +2126,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
@@ -2140,19 +2146,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>9</v>
@@ -2160,19 +2166,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>9</v>
@@ -2180,19 +2186,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>9</v>
@@ -2200,19 +2206,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>9</v>
@@ -2220,19 +2226,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>9</v>
@@ -2240,19 +2246,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>9</v>
@@ -2260,19 +2266,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>9</v>
@@ -2280,59 +2286,59 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E73" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>9</v>
@@ -2340,19 +2346,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>9</v>
@@ -2360,19 +2366,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>9</v>
@@ -2380,19 +2386,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -2400,19 +2406,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>9</v>
@@ -2420,19 +2426,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>9</v>
@@ -2440,19 +2446,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>9</v>
@@ -2460,19 +2466,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -2480,19 +2486,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>9</v>
@@ -2500,19 +2506,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>9</v>
@@ -2520,19 +2526,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>9</v>
@@ -2540,19 +2546,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>9</v>
@@ -2560,19 +2566,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>9</v>
@@ -2580,19 +2586,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>9</v>
@@ -2600,19 +2606,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>9</v>
@@ -2620,19 +2626,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>9</v>
@@ -2640,19 +2646,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>9</v>
@@ -2660,19 +2666,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>9</v>
@@ -2680,19 +2686,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>9</v>
@@ -2700,19 +2706,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>9</v>
@@ -2720,19 +2726,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E94" s="2" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>9</v>
@@ -2740,19 +2746,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>9</v>
@@ -2760,19 +2766,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>9</v>
@@ -2780,19 +2786,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>9</v>
@@ -2800,19 +2806,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>9</v>
@@ -2820,19 +2826,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>9</v>
@@ -2840,19 +2846,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>9</v>
@@ -2860,19 +2866,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>9</v>
@@ -2880,19 +2886,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>9</v>
@@ -2900,19 +2906,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>9</v>
@@ -2920,19 +2926,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>9</v>
@@ -2940,19 +2946,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>9</v>
@@ -2960,19 +2966,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>9</v>
@@ -2980,19 +2986,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>9</v>
@@ -3000,19 +3006,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>9</v>
@@ -3020,19 +3026,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>9</v>
@@ -3040,19 +3046,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>9</v>
@@ -3060,19 +3066,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>9</v>
@@ -3080,19 +3086,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>9</v>
@@ -3100,19 +3106,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>9</v>
@@ -3120,19 +3126,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>9</v>
@@ -3140,19 +3146,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>9</v>
@@ -3160,19 +3166,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="E116" s="2" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>9</v>
@@ -3180,19 +3186,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>9</v>
@@ -3200,19 +3206,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>9</v>
@@ -3220,19 +3226,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>9</v>
@@ -3240,19 +3246,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>9</v>
@@ -3260,19 +3266,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>9</v>
@@ -3280,19 +3286,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>9</v>
@@ -3300,19 +3306,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>9</v>
@@ -3320,19 +3326,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>9</v>
@@ -3340,19 +3346,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>9</v>
@@ -3360,19 +3366,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>9</v>
@@ -3380,19 +3386,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>9</v>
@@ -3400,19 +3406,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>9</v>
@@ -3420,19 +3426,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>9</v>
@@ -3440,19 +3446,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>9</v>
@@ -3460,19 +3466,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>9</v>
@@ -3480,19 +3486,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>9</v>
@@ -3500,19 +3506,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>9</v>
@@ -3520,19 +3526,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>9</v>
@@ -3540,19 +3546,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>9</v>
@@ -3560,19 +3566,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>9</v>
@@ -3580,19 +3586,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>9</v>
@@ -3600,19 +3606,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="E138" s="2" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>9</v>
@@ -3620,19 +3626,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>9</v>
@@ -3640,19 +3646,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>9</v>
@@ -3660,19 +3666,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>9</v>
@@ -3680,19 +3686,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>9</v>
@@ -3700,19 +3706,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>9</v>
@@ -3720,19 +3726,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>9</v>
@@ -3740,19 +3746,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>9</v>
@@ -3760,19 +3766,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>9</v>
@@ -3780,19 +3786,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>9</v>
@@ -3800,19 +3806,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>9</v>
@@ -3820,19 +3826,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>9</v>
@@ -3840,19 +3846,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>9</v>
@@ -3860,19 +3866,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>9</v>
@@ -3880,19 +3886,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>9</v>
@@ -3900,19 +3906,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>9</v>
@@ -3920,19 +3926,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>9</v>
@@ -3940,19 +3946,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>9</v>
@@ -3960,19 +3966,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E156" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>9</v>
@@ -3980,19 +3986,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>9</v>
@@ -4000,19 +4006,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>9</v>
@@ -4020,19 +4026,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>9</v>
@@ -4040,19 +4046,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E160" s="2" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>9</v>
@@ -4060,19 +4066,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>9</v>
@@ -4080,19 +4086,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B162" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>9</v>
@@ -4100,19 +4106,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B163" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E163" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>9</v>
@@ -4120,19 +4126,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B164" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E164" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>9</v>
@@ -4140,19 +4146,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>9</v>
@@ -4160,19 +4166,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>9</v>
@@ -4180,19 +4186,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E167" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>9</v>
@@ -4200,19 +4206,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E168" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>9</v>
@@ -4220,19 +4226,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>9</v>
@@ -4240,19 +4246,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>9</v>
@@ -4260,19 +4266,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B171" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E171" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>9</v>
@@ -4280,19 +4286,19 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>9</v>
@@ -4300,19 +4306,19 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>9</v>
@@ -4320,19 +4326,19 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E174" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>9</v>
@@ -4340,19 +4346,19 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>9</v>
@@ -4360,19 +4366,19 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>9</v>
@@ -4380,19 +4386,19 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B177" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E177" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>9</v>
@@ -4400,19 +4406,19 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E178" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>9</v>
@@ -4420,19 +4426,19 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B179" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E179" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>9</v>
@@ -4440,19 +4446,19 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B180" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E180" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>9</v>
@@ -4460,19 +4466,19 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B181" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E181" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>9</v>
@@ -4480,19 +4486,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D182" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E182" s="2" t="s">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>9</v>
@@ -4500,19 +4506,19 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E183" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>9</v>
@@ -4520,19 +4526,19 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>9</v>
@@ -4540,19 +4546,19 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B185" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E185" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>9</v>
@@ -4560,19 +4566,19 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B186" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E186" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>9</v>
@@ -4580,19 +4586,19 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E187" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>9</v>
@@ -4600,19 +4606,19 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E188" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>9</v>
@@ -4620,19 +4626,19 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B189" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E189" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>9</v>
@@ -4640,19 +4646,19 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B190" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E190" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>9</v>
@@ -4660,19 +4666,19 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>9</v>
@@ -4680,39 +4686,39 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B192" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E192" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="F192" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B193" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E193" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>16</v>
@@ -4720,19 +4726,19 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B194" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E194" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>16</v>
@@ -4740,39 +4746,39 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D195" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B195" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="E195" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E196" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>9</v>
@@ -4780,19 +4786,19 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E197" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>9</v>
@@ -4800,19 +4806,19 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B198" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E198" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>9</v>
@@ -4820,19 +4826,19 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B199" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E199" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>9</v>
@@ -4840,19 +4846,19 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B200" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E200" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>9</v>
@@ -4860,19 +4866,19 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B201" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E201" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>9</v>
@@ -4880,7 +4886,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>168</v>
@@ -4889,10 +4895,10 @@
         <v>8</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>9</v>
@@ -4900,19 +4906,19 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B203" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E203" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>9</v>
@@ -4920,7 +4926,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>171</v>
@@ -4929,10 +4935,10 @@
         <v>8</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>9</v>
@@ -4940,19 +4946,19 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B205" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E205" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>9</v>
@@ -4960,19 +4966,19 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B206" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E206" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>9</v>
@@ -4980,39 +4986,39 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E207" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B207" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="F207" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B208" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E208" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>17</v>
@@ -5020,39 +5026,39 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B209" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E209" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C209" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="F209" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B210" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E210" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>9</v>
@@ -5060,99 +5066,99 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B211" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E211" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C211" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="F211" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E212" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C212" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="F212" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B213" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E213" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C213" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="F213" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E214" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B214" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="F214" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B215" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E215" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>9</v>
@@ -5160,19 +5166,19 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B216" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E216" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>9</v>
@@ -5180,19 +5186,19 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B217" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E217" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>9</v>
@@ -5200,19 +5206,19 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B218" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E218" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>9</v>
@@ -5220,19 +5226,19 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B219" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E219" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>9</v>
@@ -5240,19 +5246,19 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B220" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E220" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>9</v>
@@ -5260,7 +5266,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>168</v>
@@ -5269,10 +5275,10 @@
         <v>8</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>9</v>
@@ -5280,19 +5286,19 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B222" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E222" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>9</v>
@@ -5300,7 +5306,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>171</v>
@@ -5309,10 +5315,10 @@
         <v>8</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>9</v>
@@ -5320,19 +5326,19 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B224" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E224" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>9</v>
@@ -5340,19 +5346,19 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B225" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E225" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>9</v>
@@ -5360,39 +5366,39 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D226" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B226" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="E226" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B227" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E227" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>18</v>
@@ -5400,19 +5406,19 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B228" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E228" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>18</v>
@@ -5420,39 +5426,39 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B229" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E229" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C229" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="F229" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B230" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E230" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>9</v>
@@ -5460,19 +5466,19 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B231" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E231" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>9</v>
@@ -5480,19 +5486,19 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B232" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E232" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>9</v>
@@ -5500,39 +5506,39 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D233" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B233" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="E233" s="2" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D234" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B234" s="2" t="s">
+      <c r="E234" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>18</v>
@@ -5540,19 +5546,19 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D235" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="E235" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>18</v>
@@ -5560,39 +5566,39 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D236" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B236" s="2" t="s">
+      <c r="E236" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C236" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="F236" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D237" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="E237" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>9</v>
@@ -5600,19 +5606,19 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D238" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="E238" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>9</v>
@@ -5620,19 +5626,19 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D239" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="E239" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>9</v>
@@ -5643,36 +5649,36 @@
         <v>198</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B241" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E241" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>19</v>
@@ -5680,19 +5686,19 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B242" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E242" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>19</v>
@@ -5700,39 +5706,39 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B243" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E243" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C243" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="F243" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B244" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E244" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>9</v>
@@ -5740,19 +5746,19 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B245" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E245" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E245" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>9</v>
@@ -5760,19 +5766,19 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B246" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E246" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E246" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>9</v>
@@ -5780,39 +5786,39 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D247" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B247" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="E247" s="2" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B248" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E248" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D248" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E248" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>20</v>
@@ -5820,19 +5826,19 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B249" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E249" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E249" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>20</v>
@@ -5840,39 +5846,39 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B250" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E250" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C250" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E250" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="F250" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B251" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E251" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E251" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>9</v>
@@ -5880,19 +5886,19 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B252" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E252" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E252" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>9</v>
@@ -5900,19 +5906,19 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B253" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E253" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E253" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>9</v>
@@ -5920,39 +5926,39 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D254" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B254" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>203</v>
-      </c>
       <c r="E254" s="2" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B255" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E255" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D255" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E255" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>21</v>
@@ -5960,19 +5966,19 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B256" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E256" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D256" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E256" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>21</v>
@@ -5980,39 +5986,39 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B257" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E257" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C257" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D257" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E257" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="F257" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B258" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E258" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E258" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>9</v>
@@ -6020,19 +6026,19 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B259" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E259" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D259" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E259" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>9</v>
@@ -6040,19 +6046,19 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B260" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E260" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E260" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>9</v>
@@ -6060,47 +6066,47 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D261" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B261" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>205</v>
-      </c>
       <c r="E261" s="2" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E262" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B262" s="2" t="s">
+      <c r="F262" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D262" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E262" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F262" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>210</v>
@@ -6109,18 +6115,18 @@
         <v>8</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E263" s="2" t="s">
         <v>211</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>212</v>
@@ -6129,18 +6135,18 @@
         <v>8</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E264" s="2" t="s">
         <v>213</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>214</v>
@@ -6149,30 +6155,30 @@
         <v>8</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E265" s="2" t="s">
         <v>215</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B266" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B266" s="2" t="s">
+      <c r="C266" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E266" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D266" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E266" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>9</v>
@@ -6180,7 +6186,7 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>219</v>
@@ -6189,7 +6195,7 @@
         <v>8</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E267" s="2" t="s">
         <v>220</v>
@@ -6200,19 +6206,19 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>81</v>
+        <v>221</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>87</v>
+        <v>222</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>9</v>
@@ -6220,59 +6226,59 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B270" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E270" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C270" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E270" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F270" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B271" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E271" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E271" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>9</v>
@@ -6280,39 +6286,39 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B272" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E272" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C272" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D272" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E272" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F272" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B273" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E273" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E273" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>9</v>
@@ -6320,19 +6326,19 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B274" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E274" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E274" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>9</v>
@@ -6340,19 +6346,19 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B275" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E275" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D275" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E275" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>9</v>
@@ -6360,19 +6366,19 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B276" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E276" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D276" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E276" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>9</v>
@@ -6380,19 +6386,19 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B277" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E277" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E277" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>9</v>
@@ -6400,19 +6406,19 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B278" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E278" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D278" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E278" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>9</v>
@@ -6420,19 +6426,19 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B279" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E279" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D279" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E279" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>9</v>
@@ -6440,19 +6446,19 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B280" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E280" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D280" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E280" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>9</v>
@@ -6460,19 +6466,19 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B281" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E281" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D281" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E281" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>9</v>
@@ -6480,19 +6486,19 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B282" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E282" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D282" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E282" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>9</v>
@@ -6500,19 +6506,19 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B283" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E283" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D283" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E283" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>9</v>
@@ -6520,19 +6526,19 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B284" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E284" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D284" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E284" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>9</v>
@@ -6540,19 +6546,19 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B285" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E285" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D285" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E285" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>9</v>
@@ -6560,19 +6566,19 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B286" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E286" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D286" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E286" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>9</v>
@@ -6580,19 +6586,19 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B287" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E287" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D287" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E287" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>9</v>
@@ -6600,19 +6606,19 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B288" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E288" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C288" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D288" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E288" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>9</v>
@@ -6620,19 +6626,19 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B289" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E289" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C289" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D289" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E289" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>9</v>
@@ -6640,19 +6646,19 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>9</v>
@@ -6660,19 +6666,19 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B291" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E291" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="C291" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D291" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E291" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>9</v>
@@ -6680,39 +6686,39 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B292" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E292" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C292" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D292" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E292" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="F292" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B293" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E293" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="C293" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D293" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E293" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>9</v>
@@ -6720,19 +6726,19 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B294" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E294" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="C294" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D294" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E294" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>9</v>
@@ -6740,19 +6746,19 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B295" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E295" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="C295" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D295" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E295" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="F295" s="2" t="s">
         <v>9</v>
@@ -6760,19 +6766,19 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B296" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E296" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="C296" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D296" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E296" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>9</v>
@@ -6780,10 +6786,10 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>8</v>
@@ -6792,107 +6798,107 @@
         <v>224</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>87</v>
+        <v>193</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>225</v>
+        <v>9</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B299" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E299" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C299" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D299" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E299" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F299" s="2" t="s">
-        <v>9</v>
+        <v>227</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B300" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E300" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C300" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D300" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E300" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F300" s="2" t="s">
-        <v>225</v>
+        <v>9</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B301" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E301" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C301" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D301" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E301" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F301" s="2" t="s">
-        <v>9</v>
+        <v>227</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B302" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E302" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D302" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E302" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F302" s="2" t="s">
         <v>9</v>
@@ -6900,19 +6906,19 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B303" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E303" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C303" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D303" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E303" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F303" s="2" t="s">
         <v>9</v>
@@ -6920,19 +6926,19 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B304" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E304" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C304" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D304" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E304" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F304" s="2" t="s">
         <v>9</v>
@@ -6940,19 +6946,19 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B305" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E305" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C305" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D305" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E305" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="F305" s="2" t="s">
         <v>9</v>
@@ -6960,99 +6966,99 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B306" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E306" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C306" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D306" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E306" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F306" s="2" t="s">
-        <v>225</v>
+        <v>9</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B307" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E307" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C307" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D307" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E307" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F307" s="2" t="s">
-        <v>9</v>
+        <v>227</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B308" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E308" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C308" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D308" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E308" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F308" s="2" t="s">
-        <v>225</v>
+        <v>9</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B309" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E309" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C309" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D309" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E309" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F309" s="2" t="s">
-        <v>9</v>
+        <v>227</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B310" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E310" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C310" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D310" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E310" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="F310" s="2" t="s">
         <v>9</v>
@@ -7060,19 +7066,19 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B311" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E311" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C311" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D311" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E311" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F311" s="2" t="s">
         <v>9</v>
@@ -7080,19 +7086,19 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B312" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E312" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C312" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D312" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E312" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="F312" s="2" t="s">
         <v>9</v>
@@ -7100,19 +7106,19 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B313" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E313" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C313" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D313" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E313" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F313" s="2" t="s">
         <v>9</v>
@@ -7120,59 +7126,59 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B314" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E314" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C314" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D314" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E314" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F314" s="2" t="s">
-        <v>225</v>
+        <v>9</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B315" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E315" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C315" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D315" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E315" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="F315" s="2" t="s">
-        <v>9</v>
+        <v>227</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B316" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E316" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C316" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D316" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E316" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F316" s="2" t="s">
         <v>9</v>
@@ -7180,19 +7186,19 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B317" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E317" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C317" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D317" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E317" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="F317" s="2" t="s">
         <v>9</v>
@@ -7200,19 +7206,19 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B318" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E318" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C318" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D318" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E318" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="F318" s="2" t="s">
         <v>9</v>
@@ -7220,19 +7226,19 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D319" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B319" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C319" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D319" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="E319" s="2" t="s">
-        <v>228</v>
+        <v>130</v>
       </c>
       <c r="F319" s="2" t="s">
         <v>9</v>
@@ -7240,56 +7246,56 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>229</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E320" s="2" t="s">
         <v>230</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>231</v>
+        <v>9</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B321" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E321" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C321" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D321" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E321" s="2" t="s">
+      <c r="F321" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="F321" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>234</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E322" s="2" t="s">
         <v>235</v>
@@ -7300,16 +7306,16 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>236</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="E323" s="2" t="s">
         <v>237</v>
@@ -7320,16 +7326,16 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>238</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="E324" s="2" t="s">
         <v>239</v>
@@ -7340,16 +7346,16 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>240</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E325" s="2" t="s">
         <v>241</v>
@@ -7360,16 +7366,16 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>242</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E326" s="2" t="s">
         <v>243</v>
@@ -7380,16 +7386,16 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>244</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E327" s="2" t="s">
         <v>245</v>
@@ -7400,16 +7406,16 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>246</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E328" s="2" t="s">
         <v>247</v>
@@ -7420,16 +7426,16 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>248</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E329" s="2" t="s">
         <v>249</v>
@@ -7440,16 +7446,16 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>250</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E330" s="2" t="s">
         <v>251</v>
@@ -7460,16 +7466,16 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>252</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E331" s="2" t="s">
         <v>253</v>
@@ -7480,16 +7486,16 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>254</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>205</v>
+        <v>68</v>
       </c>
       <c r="E332" s="2" t="s">
         <v>255</v>
@@ -7500,21 +7506,41 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>256</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E333" s="2" t="s">
         <v>257</v>
       </c>
       <c r="F333" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E334" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F334" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_007.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_007.xlsx
@@ -6341,7 +6341,7 @@
         <v>98</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="275">
@@ -6381,7 +6381,7 @@
         <v>102</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="277">
@@ -6421,7 +6421,7 @@
         <v>106</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="279">

--- a/docs/Mapping_casi_uso/matrimoni/Matr_007.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="236">
   <si>
     <t>Sezione</t>
   </si>
@@ -413,30 +413,6 @@
     <t>evento.intestatari[1]</t>
   </si>
   <si>
-    <t>Testimone 1</t>
-  </si>
-  <si>
-    <t>evento.datiEventoMatrimonio.testimone1</t>
-  </si>
-  <si>
-    <t>Testimone 2</t>
-  </si>
-  <si>
-    <t>evento.datiEventoMatrimonio.testimone2</t>
-  </si>
-  <si>
-    <t>Testimone 3</t>
-  </si>
-  <si>
-    <t>evento.datiEventoMatrimonio.testimone3</t>
-  </si>
-  <si>
-    <t>Testimone 4</t>
-  </si>
-  <si>
-    <t>evento.datiEventoMatrimonio.testimone4</t>
-  </si>
-  <si>
     <t>Pubblicazioni</t>
   </si>
   <si>
@@ -689,55 +665,7 @@
     <t>evento.datiEventoMatrimonio.regimePatrimoniale.nominaAssistenteLegale</t>
   </si>
   <si>
-    <t>Interprete</t>
-  </si>
-  <si>
-    <t>evento.interprete</t>
-  </si>
-  <si>
-    <t>66,68,70,71,72,64</t>
-  </si>
-  <si>
     <t>Dettagli evento</t>
-  </si>
-  <si>
-    <t>Comprensione sposo</t>
-  </si>
-  <si>
-    <t>comprensioneSposo</t>
-  </si>
-  <si>
-    <t>Motivo impedimento scrittura sposo</t>
-  </si>
-  <si>
-    <t>motivoImpedimentoScritturaSposo</t>
-  </si>
-  <si>
-    <t>68,64</t>
-  </si>
-  <si>
-    <t>Comprensione sposa</t>
-  </si>
-  <si>
-    <t>comprensioneSposa</t>
-  </si>
-  <si>
-    <t>Motivo impedimento scrittura sposa</t>
-  </si>
-  <si>
-    <t>motivoImpedimentoScritturaSposa</t>
-  </si>
-  <si>
-    <t>Presenza interprete</t>
-  </si>
-  <si>
-    <t>ausilioInterprete</t>
-  </si>
-  <si>
-    <t>Numero di testimoni</t>
-  </si>
-  <si>
-    <t>numeroTestimoni</t>
   </si>
   <si>
     <t>Pubblicazioni avvenute su più comuni</t>
@@ -850,7 +778,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G334"/>
+  <dimension ref="A1:G218"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -860,7 +788,7 @@
     <col min="2" max="2" width="94.6640625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="68.64453125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="32.48828125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="29.8515625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -2749,16 +2677,16 @@
         <v>133</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>9</v>
@@ -2769,16 +2697,16 @@
         <v>133</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>9</v>
@@ -2789,16 +2717,16 @@
         <v>133</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>9</v>
@@ -2809,16 +2737,16 @@
         <v>133</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>9</v>
@@ -2829,16 +2757,16 @@
         <v>133</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>9</v>
@@ -2849,16 +2777,16 @@
         <v>133</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>9</v>
@@ -2866,19 +2794,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>9</v>
@@ -2886,19 +2814,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>9</v>
@@ -2906,19 +2834,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>9</v>
@@ -2926,19 +2854,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>9</v>
@@ -2946,79 +2874,79 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>9</v>
@@ -3026,19 +2954,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>9</v>
@@ -3046,19 +2974,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>9</v>
@@ -3066,19 +2994,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>9</v>
@@ -3086,19 +3014,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>9</v>
@@ -3106,19 +3034,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>9</v>
@@ -3126,19 +3054,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>9</v>
@@ -3146,19 +3074,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>9</v>
@@ -3166,19 +3094,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>9</v>
@@ -3186,19 +3114,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>88</v>
+        <v>165</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>9</v>
@@ -3206,19 +3134,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>9</v>
@@ -3226,19 +3154,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>91</v>
+        <v>168</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>9</v>
@@ -3246,59 +3174,59 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>93</v>
+        <v>171</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>94</v>
+        <v>173</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>96</v>
+        <v>175</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>9</v>
@@ -3306,19 +3234,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>99</v>
+        <v>178</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>100</v>
+        <v>179</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>9</v>
@@ -3326,39 +3254,39 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>101</v>
+        <v>180</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>102</v>
+        <v>181</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>104</v>
+        <v>183</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>9</v>
@@ -3366,39 +3294,39 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>106</v>
+        <v>185</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>9</v>
@@ -3406,19 +3334,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>9</v>
@@ -3426,19 +3354,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>9</v>
@@ -3446,19 +3374,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>9</v>
@@ -3466,19 +3394,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>9</v>
@@ -3486,19 +3414,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>9</v>
@@ -3506,19 +3434,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>9</v>
@@ -3526,19 +3454,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>9</v>
@@ -3546,19 +3474,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>9</v>
@@ -3566,19 +3494,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>9</v>
@@ -3586,19 +3514,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>9</v>
@@ -3606,19 +3534,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>9</v>
@@ -3626,79 +3554,79 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>82</v>
+        <v>171</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>138</v>
+        <v>189</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>138</v>
+        <v>189</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>138</v>
+        <v>189</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>92</v>
+        <v>177</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>93</v>
+        <v>178</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>138</v>
+        <v>189</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>94</v>
+        <v>179</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>9</v>
@@ -3706,19 +3634,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>138</v>
+        <v>189</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>96</v>
+        <v>181</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>9</v>
@@ -3726,19 +3654,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>97</v>
+        <v>182</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>138</v>
+        <v>189</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>98</v>
+        <v>183</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>9</v>
@@ -3746,19 +3674,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>138</v>
+        <v>189</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>9</v>
@@ -3766,79 +3694,79 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>137</v>
+        <v>190</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>101</v>
+        <v>171</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>138</v>
+        <v>189</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>102</v>
+        <v>173</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>137</v>
+        <v>190</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>103</v>
+        <v>174</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>138</v>
+        <v>189</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>104</v>
+        <v>175</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>137</v>
+        <v>190</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>138</v>
+        <v>189</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>137</v>
+        <v>190</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>138</v>
+        <v>189</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>108</v>
+        <v>179</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>9</v>
@@ -3846,19 +3774,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>137</v>
+        <v>190</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>109</v>
+        <v>180</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>138</v>
+        <v>189</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>110</v>
+        <v>181</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>9</v>
@@ -3866,19 +3794,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>137</v>
+        <v>190</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>111</v>
+        <v>182</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>138</v>
+        <v>189</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>9</v>
@@ -3886,19 +3814,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>137</v>
+        <v>190</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>113</v>
+        <v>184</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>138</v>
+        <v>189</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>114</v>
+        <v>185</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>9</v>
@@ -3906,79 +3834,79 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>118</v>
+        <v>175</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>9</v>
@@ -3986,19 +3914,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>124</v>
+        <v>181</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>9</v>
@@ -4006,19 +3934,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>125</v>
+        <v>182</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>126</v>
+        <v>183</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>9</v>
@@ -4026,19 +3954,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>127</v>
+        <v>184</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>128</v>
+        <v>185</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>9</v>
@@ -4046,79 +3974,79 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>88</v>
+        <v>175</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>84</v>
+        <v>176</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>90</v>
+        <v>177</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>92</v>
+        <v>179</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>9</v>
@@ -4126,19 +4054,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>93</v>
+        <v>180</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>9</v>
@@ -4146,19 +4074,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>95</v>
+        <v>182</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>96</v>
+        <v>183</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>9</v>
@@ -4166,19 +4094,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>98</v>
+        <v>185</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>9</v>
@@ -4186,79 +4114,79 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>140</v>
+        <v>196</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>140</v>
+        <v>196</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>102</v>
+        <v>175</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>103</v>
+        <v>176</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>140</v>
+        <v>196</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>104</v>
+        <v>177</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>105</v>
+        <v>178</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>140</v>
+        <v>196</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>9</v>
@@ -4266,19 +4194,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>140</v>
+        <v>196</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>108</v>
+        <v>181</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>9</v>
@@ -4286,19 +4214,19 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>140</v>
+        <v>196</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>110</v>
+        <v>183</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>9</v>
@@ -4306,19 +4234,19 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>140</v>
+        <v>196</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>112</v>
+        <v>185</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>9</v>
@@ -4326,99 +4254,99 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>139</v>
+        <v>197</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>113</v>
+        <v>197</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>114</v>
+        <v>199</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>9</v>
+        <v>200</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>139</v>
+        <v>201</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>115</v>
+        <v>202</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>116</v>
+        <v>203</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>139</v>
+        <v>201</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>117</v>
+        <v>204</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>118</v>
+        <v>205</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>139</v>
+        <v>201</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>119</v>
+        <v>206</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>120</v>
+        <v>207</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>139</v>
+        <v>201</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>121</v>
+        <v>208</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>122</v>
+        <v>209</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>9</v>
@@ -4426,19 +4354,19 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>139</v>
+        <v>210</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>123</v>
+        <v>211</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>124</v>
+        <v>212</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>9</v>
@@ -4446,19 +4374,19 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>139</v>
+        <v>210</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>125</v>
+        <v>213</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>126</v>
+        <v>214</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>9</v>
@@ -4466,59 +4394,59 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>139</v>
+        <v>210</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>139</v>
+        <v>210</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>141</v>
+        <v>210</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>142</v>
+        <v>215</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>9</v>
@@ -4526,39 +4454,39 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>141</v>
+        <v>210</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>142</v>
+        <v>215</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>141</v>
+        <v>210</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>142</v>
+        <v>215</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>9</v>
@@ -4566,39 +4494,39 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>141</v>
+        <v>210</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>142</v>
+        <v>215</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>141</v>
+        <v>210</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>142</v>
+        <v>215</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>9</v>
@@ -4606,39 +4534,39 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>141</v>
+        <v>210</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>142</v>
+        <v>215</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>68</v>
+        <v>215</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>9</v>
@@ -4646,39 +4574,39 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>153</v>
+        <v>215</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>153</v>
+        <v>215</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>9</v>
@@ -4686,19 +4614,19 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>153</v>
+        <v>215</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>9</v>
@@ -4706,79 +4634,79 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>153</v>
+        <v>215</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>153</v>
+        <v>215</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>153</v>
+        <v>215</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>156</v>
+        <v>215</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>9</v>
@@ -4786,19 +4714,19 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>156</v>
+        <v>215</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>9</v>
@@ -4806,19 +4734,19 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>156</v>
+        <v>215</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>9</v>
@@ -4826,19 +4754,19 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>156</v>
+        <v>215</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>9</v>
@@ -4846,19 +4774,19 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>156</v>
+        <v>215</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>9</v>
@@ -4866,19 +4794,19 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>156</v>
+        <v>215</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>9</v>
@@ -4886,19 +4814,19 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>156</v>
+        <v>215</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>9</v>
@@ -4906,19 +4834,19 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>9</v>
@@ -4926,39 +4854,39 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>42</v>
+        <v>175</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>9</v>
@@ -4966,19 +4894,19 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>9</v>
@@ -4986,19 +4914,19 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>9</v>
@@ -5006,59 +4934,59 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>180</v>
+        <v>68</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>9</v>
@@ -5066,19 +4994,19 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>180</v>
+        <v>68</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>9</v>
@@ -5086,39 +5014,39 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>180</v>
+        <v>68</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>180</v>
+        <v>68</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>9</v>
@@ -5126,39 +5054,39 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>180</v>
+        <v>68</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>155</v>
+        <v>228</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>195</v>
+        <v>68</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>157</v>
+        <v>229</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>9</v>
@@ -5166,19 +5094,19 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>158</v>
+        <v>230</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>195</v>
+        <v>68</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>159</v>
+        <v>231</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>9</v>
@@ -5186,19 +5114,19 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>160</v>
+        <v>232</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>161</v>
+        <v>233</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>9</v>
@@ -5206,2341 +5134,21 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>162</v>
+        <v>234</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>163</v>
+        <v>235</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F221" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F222" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F223" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F224" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F226" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F227" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F229" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F231" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F232" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F233" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F234" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F235" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F236" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F237" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F238" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F239" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F240" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F241" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F242" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F243" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F244" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E245" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F245" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E246" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F246" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E247" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F247" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D248" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E248" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F248" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E249" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F249" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E250" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F250" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E251" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F251" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E252" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F252" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E253" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F253" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E254" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F254" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D255" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E255" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F255" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D256" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E256" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F256" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D257" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E257" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F257" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E258" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F258" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D259" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E259" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F259" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E260" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F260" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E261" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F261" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D262" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E262" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F262" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D263" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E263" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F263" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D264" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E264" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F264" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D265" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E265" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F265" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D266" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E266" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F266" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D267" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E267" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F267" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E268" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F268" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E269" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F269" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E270" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F270" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E271" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F271" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D272" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E272" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F272" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E273" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F273" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E274" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F274" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D275" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E275" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F275" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D276" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E276" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F276" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E277" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F277" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D278" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E278" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F278" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D279" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E279" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F279" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B280" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D280" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E280" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F280" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D281" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E281" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F281" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D282" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E282" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F282" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D283" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E283" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F283" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B284" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D284" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E284" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F284" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B285" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D285" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E285" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F285" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D286" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E286" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F286" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D287" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E287" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F287" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B288" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C288" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D288" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E288" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F288" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B289" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C289" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D289" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E289" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F289" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B290" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C290" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D290" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E290" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F290" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B291" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C291" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D291" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E291" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F291" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B292" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C292" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D292" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E292" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F292" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B293" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C293" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D293" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E293" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F293" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C294" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D294" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E294" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F294" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B295" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C295" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D295" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E295" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F295" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C296" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D296" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E296" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F296" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D297" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E297" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F297" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B298" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C298" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D298" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E298" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F298" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C299" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D299" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E299" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F299" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C300" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D300" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E300" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F300" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C301" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D301" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E301" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F301" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D302" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E302" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F302" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C303" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D303" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E303" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F303" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B304" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C304" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D304" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E304" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F304" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B305" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C305" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D305" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E305" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F305" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B306" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C306" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D306" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E306" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F306" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B307" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D307" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E307" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F307" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B308" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C308" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D308" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E308" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F308" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B309" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C309" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D309" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E309" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F309" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B310" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C310" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D310" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E310" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F310" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B311" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C311" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D311" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E311" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F311" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B312" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C312" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D312" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E312" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F312" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B313" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C313" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D313" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E313" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F313" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B314" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C314" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D314" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E314" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F314" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B315" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C315" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D315" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E315" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F315" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B316" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C316" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D316" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E316" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F316" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B317" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C317" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D317" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E317" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F317" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B318" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C318" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D318" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E318" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F318" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B319" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C319" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D319" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E319" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F319" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B320" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C320" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D320" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E320" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F320" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B321" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C321" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D321" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E321" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F321" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B322" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C322" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D322" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E322" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F322" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B323" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C323" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D323" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E323" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="F323" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B324" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C324" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D324" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E324" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="F324" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B325" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C325" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D325" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E325" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F325" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B326" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C326" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D326" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E326" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F326" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B327" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C327" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D327" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E327" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F327" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B328" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C328" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D328" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E328" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="F328" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B329" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C329" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D329" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E329" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F329" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B330" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D330" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E330" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="F330" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B331" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C331" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D331" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E331" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="F331" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B332" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C332" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D332" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E332" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="F332" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B333" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C333" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D333" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E333" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="F333" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B334" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C334" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D334" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E334" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F334" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_007.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="249">
   <si>
     <t>Sezione</t>
   </si>
@@ -59,6 +59,27 @@
     <t>Decreto del tribunale per autorizzazione nonostante impedimento di divieto temporaneo di nuove nozze</t>
   </si>
   <si>
+    <t>Copia interale atto di nascita degli sposi</t>
+  </si>
+  <si>
+    <t>Autocertificazione cumulativa stato libero, residenza, cittadinanza</t>
+  </si>
+  <si>
+    <t>Certificato di eseguita pubblicazione</t>
+  </si>
+  <si>
+    <t>Atto di pubblicazione</t>
+  </si>
+  <si>
+    <t>Richiesta rilascio atto di delega</t>
+  </si>
+  <si>
+    <t>Atto di delegazione</t>
+  </si>
+  <si>
+    <t>Copia atto di matrimonio trascritto</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -720,6 +741,24 @@
   </si>
   <si>
     <t>attoNotarile</t>
+  </si>
+  <si>
+    <t>Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>Tipo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>evento.datiAnnotazione</t>
+  </si>
+  <si>
+    <t>tipoAnnotazione</t>
+  </si>
+  <si>
+    <t>Testo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>testoAnnotazione</t>
   </si>
 </sst>
 </file>
@@ -778,7 +817,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G218"/>
+  <dimension ref="A1:G227"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -934,10 +973,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>8</v>
@@ -954,10 +993,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>8</v>
@@ -974,10 +1013,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
@@ -994,10 +1033,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>8</v>
@@ -1014,10 +1053,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
@@ -1034,10 +1073,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
@@ -1054,10 +1093,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>8</v>
@@ -1074,7 +1113,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>23</v>
@@ -1094,7 +1133,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>24</v>
@@ -1114,7 +1153,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>25</v>
@@ -1134,7 +1173,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>26</v>
@@ -1154,7 +1193,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>27</v>
@@ -1174,7 +1213,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>28</v>
@@ -1194,7 +1233,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>29</v>
@@ -1214,7 +1253,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>30</v>
@@ -1234,7 +1273,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>31</v>
@@ -1254,7 +1293,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>32</v>
@@ -1274,7 +1313,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>33</v>
@@ -1294,7 +1333,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>34</v>
@@ -1314,59 +1353,59 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>5</v>
+      <c r="C28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C29" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>9</v>
@@ -1374,19 +1413,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>9</v>
@@ -1394,19 +1433,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>9</v>
@@ -1414,19 +1453,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>9</v>
@@ -1434,19 +1473,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>9</v>
@@ -1454,59 +1493,59 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>9</v>
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -1514,19 +1553,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -1534,19 +1573,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>9</v>
@@ -1554,19 +1593,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
@@ -1574,19 +1613,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
@@ -1594,19 +1633,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
@@ -1614,19 +1653,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>9</v>
@@ -1634,19 +1673,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
@@ -1654,19 +1693,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -1674,19 +1713,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>9</v>
@@ -1694,19 +1733,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>9</v>
@@ -1714,19 +1753,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>9</v>
@@ -1734,19 +1773,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>9</v>
@@ -1754,19 +1793,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>9</v>
@@ -1774,19 +1813,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>9</v>
@@ -1794,39 +1833,39 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>9</v>
@@ -1834,19 +1873,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>9</v>
@@ -1854,19 +1893,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>9</v>
@@ -1874,19 +1913,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>9</v>
@@ -1894,19 +1933,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>9</v>
@@ -1914,19 +1953,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>9</v>
@@ -1934,39 +1973,39 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -1974,19 +2013,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -1994,19 +2033,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>9</v>
@@ -2014,19 +2053,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -2034,19 +2073,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>9</v>
@@ -2054,19 +2093,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
@@ -2074,19 +2113,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>9</v>
@@ -2094,19 +2133,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>9</v>
@@ -2114,19 +2153,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>9</v>
@@ -2134,19 +2173,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>9</v>
@@ -2154,19 +2193,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>9</v>
@@ -2174,19 +2213,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>9</v>
@@ -2194,19 +2233,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>9</v>
@@ -2214,19 +2253,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>9</v>
@@ -2234,39 +2273,39 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>9</v>
@@ -2274,19 +2313,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>9</v>
@@ -2294,19 +2333,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>9</v>
@@ -2314,19 +2353,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -2334,19 +2373,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>9</v>
@@ -2354,19 +2393,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>9</v>
@@ -2374,39 +2413,39 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -2414,19 +2453,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>9</v>
@@ -2434,19 +2473,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>9</v>
@@ -2454,19 +2493,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>9</v>
@@ -2474,19 +2513,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>9</v>
@@ -2494,19 +2533,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>9</v>
@@ -2514,19 +2553,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>9</v>
@@ -2534,19 +2573,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>9</v>
@@ -2554,19 +2593,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>9</v>
@@ -2574,19 +2613,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>9</v>
@@ -2594,19 +2633,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>9</v>
@@ -2614,19 +2653,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>9</v>
@@ -2634,19 +2673,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>9</v>
@@ -2654,19 +2693,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>9</v>
@@ -2674,19 +2713,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>9</v>
@@ -2694,19 +2733,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>9</v>
@@ -2714,19 +2753,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>9</v>
@@ -2734,19 +2773,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>9</v>
@@ -2754,19 +2793,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>9</v>
@@ -2774,19 +2813,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="E100" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>9</v>
@@ -2794,19 +2833,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>9</v>
@@ -2814,19 +2853,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="E102" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>9</v>
@@ -2834,19 +2873,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="E103" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>9</v>
@@ -2854,19 +2893,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="E104" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>9</v>
@@ -2874,79 +2913,79 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="E105" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" s="2" t="s">
+      <c r="E106" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E106" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="F106" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="E107" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>9</v>
@@ -2954,19 +2993,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>9</v>
@@ -2974,19 +3013,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="E110" s="2" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>9</v>
@@ -2994,19 +3033,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>154</v>
+        <v>66</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>155</v>
+        <v>67</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>9</v>
@@ -3014,79 +3053,79 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>156</v>
+        <v>68</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="C114" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>9</v>
@@ -3094,19 +3133,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>9</v>
@@ -3114,19 +3153,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>9</v>
@@ -3134,19 +3173,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>9</v>
@@ -3154,19 +3193,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>9</v>
@@ -3174,59 +3213,59 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>175</v>
+        <v>47</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>9</v>
@@ -3234,19 +3273,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="C123" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>179</v>
+        <v>49</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>9</v>
@@ -3254,39 +3293,39 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="F124" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>9</v>
@@ -3294,79 +3333,79 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>9</v>
@@ -3374,19 +3413,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>9</v>
@@ -3394,39 +3433,39 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>9</v>
@@ -3434,39 +3473,39 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>40</v>
+        <v>192</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>9</v>
@@ -3474,19 +3513,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>9</v>
@@ -3494,19 +3533,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>9</v>
@@ -3514,19 +3553,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>9</v>
@@ -3534,19 +3573,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>9</v>
@@ -3554,79 +3593,79 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>175</v>
+        <v>47</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>179</v>
+        <v>49</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>9</v>
@@ -3634,19 +3673,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>9</v>
@@ -3654,19 +3693,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>9</v>
@@ -3674,19 +3713,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>9</v>
@@ -3694,79 +3733,79 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>9</v>
@@ -3774,19 +3813,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>9</v>
@@ -3794,19 +3833,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>9</v>
@@ -3814,19 +3853,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>9</v>
@@ -3834,79 +3873,79 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>9</v>
@@ -3914,19 +3953,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>9</v>
@@ -3934,19 +3973,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>9</v>
@@ -3954,19 +3993,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="C159" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D159" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>9</v>
@@ -3974,79 +4013,79 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>9</v>
@@ -4054,19 +4093,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>9</v>
@@ -4074,19 +4113,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>9</v>
@@ -4094,19 +4133,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>9</v>
@@ -4114,79 +4153,79 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>9</v>
@@ -4194,19 +4233,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>9</v>
@@ -4214,19 +4253,19 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>9</v>
@@ -4234,19 +4273,19 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>9</v>
@@ -4254,99 +4293,99 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>200</v>
+        <v>28</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>9</v>
@@ -4354,19 +4393,19 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>9</v>
@@ -4374,19 +4413,19 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>9</v>
@@ -4394,99 +4433,99 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>82</v>
+        <v>204</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>88</v>
+        <v>206</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>22</v>
+        <v>207</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E182" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F182" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>93</v>
+        <v>213</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>94</v>
+        <v>214</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>95</v>
+        <v>215</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>96</v>
+        <v>216</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>9</v>
@@ -4494,39 +4533,39 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>97</v>
+        <v>218</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>98</v>
+        <v>219</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>99</v>
+        <v>220</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>100</v>
+        <v>221</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>9</v>
@@ -4534,99 +4573,99 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>9</v>
@@ -4634,39 +4673,39 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>9</v>
@@ -4674,39 +4713,39 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>9</v>
@@ -4714,39 +4753,39 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>9</v>
@@ -4754,19 +4793,19 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>9</v>
@@ -4774,19 +4813,19 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>9</v>
@@ -4794,19 +4833,19 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>9</v>
@@ -4814,19 +4853,19 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>9</v>
@@ -4834,19 +4873,19 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>173</v>
+        <v>125</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>9</v>
@@ -4854,39 +4893,39 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>175</v>
+        <v>127</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>177</v>
+        <v>129</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>9</v>
@@ -4894,19 +4933,19 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>9</v>
@@ -4914,19 +4953,19 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>9</v>
@@ -4934,19 +4973,19 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>9</v>
@@ -4954,19 +4993,19 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>9</v>
@@ -4977,16 +5016,16 @@
         <v>217</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>218</v>
+        <v>178</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>68</v>
+        <v>223</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>9</v>
@@ -4997,19 +5036,19 @@
         <v>217</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>68</v>
+        <v>223</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="212">
@@ -5017,16 +5056,16 @@
         <v>217</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>68</v>
+        <v>223</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>9</v>
@@ -5037,16 +5076,16 @@
         <v>217</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>68</v>
+        <v>223</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>9</v>
@@ -5057,16 +5096,16 @@
         <v>217</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>68</v>
+        <v>223</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>9</v>
@@ -5077,16 +5116,16 @@
         <v>217</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>68</v>
+        <v>223</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>9</v>
@@ -5097,16 +5136,16 @@
         <v>217</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>68</v>
+        <v>223</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>9</v>
@@ -5114,19 +5153,19 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>198</v>
+        <v>75</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>9</v>
@@ -5134,21 +5173,201 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B218" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E221" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C218" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E218" s="2" t="s">
+      <c r="F221" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B222" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="F218" s="2" t="s">
+      <c r="C222" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F227" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_007.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_007.xlsx
@@ -59,7 +59,7 @@
     <t>Decreto del tribunale per autorizzazione nonostante impedimento di divieto temporaneo di nuove nozze</t>
   </si>
   <si>
-    <t>Copia interale atto di nascita degli sposi</t>
+    <t>Copia integrale atto di nascita degli sposi</t>
   </si>
   <si>
     <t>Autocertificazione cumulativa stato libero, residenza, cittadinanza</t>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_007.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_007.xlsx
@@ -2859,7 +2859,7 @@
         <v>62</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>141</v>
@@ -2879,7 +2879,7 @@
         <v>64</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>141</v>
@@ -2899,7 +2899,7 @@
         <v>66</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>141</v>
@@ -2919,7 +2919,7 @@
         <v>68</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>141</v>
@@ -2928,7 +2928,7 @@
         <v>143</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106">
@@ -2939,7 +2939,7 @@
         <v>144</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>141</v>
@@ -2948,7 +2948,7 @@
         <v>145</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107">
@@ -2959,7 +2959,7 @@
         <v>146</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>141</v>
@@ -2968,7 +2968,7 @@
         <v>147</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108">

--- a/docs/Mapping_casi_uso/matrimoni/Matr_007.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="250">
   <si>
     <t>Sezione</t>
   </si>
@@ -278,6 +278,9 @@
     <t>Officiante</t>
   </si>
   <si>
+    <t>Ufficiale di stato civile delegato a celebrare il matrimonio</t>
+  </si>
+  <si>
     <t>officiante</t>
   </si>
   <si>
@@ -545,7 +548,7 @@
     <t>serie</t>
   </si>
   <si>
-    <t>Pubblicazioni - Omissione di pubblicazione</t>
+    <t>Autorizzazione - omissioni pubblicazioni</t>
   </si>
   <si>
     <t>Data formazione documento</t>
@@ -1916,7 +1919,7 @@
         <v>87</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>43</v>
@@ -1925,7 +1928,7 @@
         <v>75</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>9</v>
@@ -1936,7 +1939,7 @@
         <v>87</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>8</v>
@@ -1945,7 +1948,7 @@
         <v>75</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>9</v>
@@ -1956,7 +1959,7 @@
         <v>87</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>43</v>
@@ -1965,7 +1968,7 @@
         <v>75</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>9</v>
@@ -1973,39 +1976,39 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -2013,19 +2016,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -2033,19 +2036,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>9</v>
@@ -2053,19 +2056,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -2073,19 +2076,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>9</v>
@@ -2093,19 +2096,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
@@ -2113,19 +2116,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>9</v>
@@ -2133,19 +2136,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>9</v>
@@ -2153,19 +2156,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>9</v>
@@ -2173,19 +2176,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>9</v>
@@ -2193,19 +2196,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>9</v>
@@ -2213,19 +2216,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>9</v>
@@ -2233,19 +2236,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>9</v>
@@ -2253,19 +2256,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>9</v>
@@ -2273,19 +2276,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>9</v>
@@ -2293,19 +2296,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>9</v>
@@ -2313,19 +2316,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>9</v>
@@ -2333,19 +2336,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>9</v>
@@ -2353,19 +2356,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -2373,19 +2376,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>9</v>
@@ -2393,19 +2396,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>9</v>
@@ -2413,39 +2416,39 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -2453,19 +2456,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>9</v>
@@ -2473,19 +2476,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>9</v>
@@ -2493,19 +2496,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>9</v>
@@ -2513,19 +2516,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>9</v>
@@ -2533,19 +2536,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>9</v>
@@ -2553,19 +2556,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>9</v>
@@ -2573,19 +2576,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>9</v>
@@ -2593,19 +2596,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>9</v>
@@ -2613,19 +2616,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>9</v>
@@ -2633,19 +2636,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>9</v>
@@ -2653,19 +2656,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>9</v>
@@ -2673,19 +2676,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>9</v>
@@ -2693,19 +2696,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>9</v>
@@ -2713,19 +2716,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>9</v>
@@ -2733,19 +2736,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>9</v>
@@ -2753,19 +2756,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>9</v>
@@ -2773,19 +2776,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>9</v>
@@ -2793,19 +2796,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>9</v>
@@ -2813,19 +2816,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>9</v>
@@ -2833,19 +2836,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>9</v>
@@ -2853,7 +2856,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>62</v>
@@ -2862,7 +2865,7 @@
         <v>8</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>63</v>
@@ -2873,7 +2876,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>64</v>
@@ -2882,10 +2885,10 @@
         <v>8</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>9</v>
@@ -2893,7 +2896,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>66</v>
@@ -2902,7 +2905,7 @@
         <v>8</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>67</v>
@@ -2913,7 +2916,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>68</v>
@@ -2922,10 +2925,10 @@
         <v>8</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>23</v>
@@ -2933,19 +2936,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>23</v>
@@ -2953,19 +2956,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>23</v>
@@ -2973,10 +2976,10 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>8</v>
@@ -2985,7 +2988,7 @@
         <v>75</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>9</v>
@@ -2993,16 +2996,16 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>63</v>
@@ -3013,7 +3016,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>64</v>
@@ -3022,10 +3025,10 @@
         <v>8</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>9</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>66</v>
@@ -3042,7 +3045,7 @@
         <v>8</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>67</v>
@@ -3053,7 +3056,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>68</v>
@@ -3062,10 +3065,10 @@
         <v>8</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>23</v>
@@ -3073,19 +3076,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>23</v>
@@ -3093,19 +3096,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>23</v>
@@ -3113,19 +3116,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>9</v>
@@ -3133,19 +3136,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>9</v>
@@ -3153,19 +3156,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>9</v>
@@ -3173,19 +3176,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>9</v>
@@ -3193,19 +3196,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>9</v>
@@ -3213,19 +3216,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>9</v>
@@ -3233,16 +3236,16 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>47</v>
@@ -3253,19 +3256,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>9</v>
@@ -3273,16 +3276,16 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>49</v>
@@ -3293,19 +3296,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>9</v>
@@ -3313,19 +3316,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>9</v>
@@ -3333,19 +3336,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>9</v>
@@ -3353,19 +3356,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>24</v>
@@ -3373,19 +3376,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>24</v>
@@ -3393,19 +3396,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>9</v>
@@ -3413,19 +3416,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>9</v>
@@ -3433,19 +3436,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>24</v>
@@ -3453,19 +3456,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>9</v>
@@ -3473,19 +3476,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>24</v>
@@ -3493,19 +3496,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>9</v>
@@ -3513,19 +3516,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>9</v>
@@ -3533,19 +3536,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>9</v>
@@ -3553,19 +3556,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>9</v>
@@ -3573,19 +3576,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>9</v>
@@ -3593,19 +3596,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>9</v>
@@ -3613,16 +3616,16 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>47</v>
@@ -3633,19 +3636,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>9</v>
@@ -3653,16 +3656,16 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>49</v>
@@ -3673,19 +3676,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>9</v>
@@ -3693,19 +3696,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>9</v>
@@ -3713,19 +3716,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>9</v>
@@ -3733,19 +3736,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>25</v>
@@ -3753,19 +3756,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>25</v>
@@ -3773,19 +3776,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>25</v>
@@ -3793,19 +3796,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>9</v>
@@ -3813,19 +3816,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>9</v>
@@ -3833,19 +3836,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>9</v>
@@ -3853,19 +3856,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>9</v>
@@ -3873,19 +3876,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="E153" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>25</v>
@@ -3893,19 +3896,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="E154" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>25</v>
@@ -3913,19 +3916,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="E155" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>25</v>
@@ -3933,19 +3936,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="E156" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>9</v>
@@ -3953,19 +3956,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B157" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="E157" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>9</v>
@@ -3973,19 +3976,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="E158" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>9</v>
@@ -3993,19 +3996,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="E159" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>9</v>
@@ -4013,19 +4016,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>26</v>
@@ -4033,19 +4036,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>26</v>
@@ -4053,19 +4056,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>26</v>
@@ -4073,19 +4076,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>9</v>
@@ -4093,19 +4096,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>9</v>
@@ -4113,19 +4116,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>9</v>
@@ -4133,19 +4136,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>9</v>
@@ -4153,19 +4156,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>27</v>
@@ -4173,19 +4176,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>27</v>
@@ -4193,19 +4196,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>27</v>
@@ -4213,19 +4216,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>9</v>
@@ -4233,19 +4236,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>9</v>
@@ -4253,19 +4256,19 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>9</v>
@@ -4273,19 +4276,19 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>9</v>
@@ -4293,19 +4296,19 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>28</v>
@@ -4313,19 +4316,19 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>28</v>
@@ -4333,19 +4336,19 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>28</v>
@@ -4353,19 +4356,19 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>9</v>
@@ -4373,19 +4376,19 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>9</v>
@@ -4393,19 +4396,19 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>9</v>
@@ -4413,19 +4416,19 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>9</v>
@@ -4433,39 +4436,39 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>31</v>
@@ -4473,19 +4476,19 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>31</v>
@@ -4493,19 +4496,19 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>31</v>
@@ -4513,19 +4516,19 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>9</v>
@@ -4533,19 +4536,19 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>9</v>
@@ -4553,19 +4556,19 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>9</v>
@@ -4573,19 +4576,19 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>29</v>
@@ -4593,19 +4596,19 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>29</v>
@@ -4613,19 +4616,19 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>9</v>
@@ -4633,19 +4636,19 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>29</v>
@@ -4653,19 +4656,19 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>9</v>
@@ -4673,19 +4676,19 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>29</v>
@@ -4693,19 +4696,19 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>9</v>
@@ -4713,19 +4716,19 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>29</v>
@@ -4733,19 +4736,19 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>9</v>
@@ -4753,19 +4756,19 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>29</v>
@@ -4773,19 +4776,19 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>9</v>
@@ -4793,19 +4796,19 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>9</v>
@@ -4813,19 +4816,19 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>9</v>
@@ -4833,19 +4836,19 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>9</v>
@@ -4853,19 +4856,19 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>9</v>
@@ -4873,19 +4876,19 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>9</v>
@@ -4893,19 +4896,19 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>9</v>
@@ -4913,19 +4916,19 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>9</v>
@@ -4933,19 +4936,19 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>9</v>
@@ -4953,19 +4956,19 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>9</v>
@@ -4973,19 +4976,19 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>9</v>
@@ -4993,19 +4996,19 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>9</v>
@@ -5013,19 +5016,19 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>9</v>
@@ -5033,19 +5036,19 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>29</v>
@@ -5053,19 +5056,19 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>9</v>
@@ -5073,19 +5076,19 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>9</v>
@@ -5093,19 +5096,19 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>9</v>
@@ -5113,19 +5116,19 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>9</v>
@@ -5133,19 +5136,19 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>9</v>
@@ -5153,10 +5156,10 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>43</v>
@@ -5165,7 +5168,7 @@
         <v>75</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>9</v>
@@ -5173,10 +5176,10 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>43</v>
@@ -5185,7 +5188,7 @@
         <v>75</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>9</v>
@@ -5193,10 +5196,10 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>43</v>
@@ -5205,7 +5208,7 @@
         <v>75</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>9</v>
@@ -5213,10 +5216,10 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>43</v>
@@ -5225,7 +5228,7 @@
         <v>75</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>9</v>
@@ -5233,10 +5236,10 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>43</v>
@@ -5245,7 +5248,7 @@
         <v>75</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>9</v>
@@ -5253,10 +5256,10 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>43</v>
@@ -5265,7 +5268,7 @@
         <v>75</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>9</v>
@@ -5273,10 +5276,10 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>43</v>
@@ -5285,7 +5288,7 @@
         <v>75</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>9</v>
@@ -5293,19 +5296,19 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>9</v>
@@ -5313,19 +5316,19 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>9</v>
@@ -5333,19 +5336,19 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>9</v>
@@ -5353,19 +5356,19 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>9</v>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_007.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2316" uniqueCount="260">
   <si>
     <t>Sezione</t>
   </si>
@@ -188,18 +188,6 @@
     <t>luogo</t>
   </si>
   <si>
-    <t>Stato</t>
-  </si>
-  <si>
-    <t>idStato</t>
-  </si>
-  <si>
-    <t>Stato - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStato</t>
-  </si>
-  <si>
     <t>Provincia</t>
   </si>
   <si>
@@ -668,25 +656,52 @@
     <t>dataAttoNotarile</t>
   </si>
   <si>
-    <t>Regime patrimoniale - Generalità assistente legale minori</t>
-  </si>
-  <si>
-    <t>Presenza minori</t>
-  </si>
-  <si>
-    <t>presenzaMinori</t>
-  </si>
-  <si>
-    <t>Assistenza minori</t>
-  </si>
-  <si>
-    <t>assistenzaMinori</t>
-  </si>
-  <si>
-    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenteLegale</t>
-  </si>
-  <si>
-    <t>evento.datiEventoMatrimonio.regimePatrimoniale.nominaAssistenteLegale</t>
+    <t>Padre Sposo</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].assistente[0]</t>
+  </si>
+  <si>
+    <t>Padre Sposa</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[1].assistente[0]</t>
+  </si>
+  <si>
+    <t>Madre Sposo</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].assistente[1]</t>
+  </si>
+  <si>
+    <t>Madre Sposa</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[1].assistente[1]</t>
+  </si>
+  <si>
+    <t>Tutore Sposo</t>
+  </si>
+  <si>
+    <t>Curatore Sposo</t>
+  </si>
+  <si>
+    <t>Nomina Legale Sposo</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].nominaAssistenteLegale</t>
+  </si>
+  <si>
+    <t>Tutore Sposa</t>
+  </si>
+  <si>
+    <t>Curatore Sposa</t>
+  </si>
+  <si>
+    <t>Nomina Legale Sposa</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[1].nominaAssistenteLegale</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -744,6 +759,21 @@
   </si>
   <si>
     <t>attoNotarile</t>
+  </si>
+  <si>
+    <t>Assistenza minore Sposo</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0]</t>
+  </si>
+  <si>
+    <t>tipoAssistente</t>
+  </si>
+  <si>
+    <t>Assistenza minore Sposa</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[1]</t>
   </si>
   <si>
     <t>Annotazione Contestuale</t>
@@ -820,16 +850,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G227"/>
+  <dimension ref="A1:G386"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.27734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.65625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="94.6640625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="68.64453125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="86.69140625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="29.8515625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
@@ -1682,7 +1712,7 @@
         <v>62</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>56</v>
@@ -1702,7 +1732,7 @@
         <v>64</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>56</v>
@@ -1722,7 +1752,7 @@
         <v>66</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>56</v>
@@ -1742,7 +1772,7 @@
         <v>68</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>56</v>
@@ -1762,13 +1792,13 @@
         <v>70</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>9</v>
@@ -1779,16 +1809,16 @@
         <v>54</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>9</v>
@@ -1799,13 +1829,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>76</v>
@@ -1825,7 +1855,7 @@
         <v>43</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>78</v>
@@ -1845,7 +1875,7 @@
         <v>43</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>80</v>
@@ -1865,7 +1895,7 @@
         <v>43</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>82</v>
@@ -1876,19 +1906,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>9</v>
@@ -1896,19 +1926,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>9</v>
@@ -1916,7 +1946,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>88</v>
@@ -1925,7 +1955,7 @@
         <v>43</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>89</v>
@@ -1936,39 +1966,39 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>9</v>
@@ -1976,36 +2006,36 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>98</v>
@@ -2016,7 +2046,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>99</v>
@@ -2025,7 +2055,7 @@
         <v>43</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>100</v>
@@ -2036,7 +2066,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>101</v>
@@ -2045,7 +2075,7 @@
         <v>43</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>102</v>
@@ -2056,16 +2086,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>104</v>
@@ -2076,16 +2106,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>106</v>
@@ -2096,7 +2126,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>107</v>
@@ -2105,7 +2135,7 @@
         <v>8</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>108</v>
@@ -2116,7 +2146,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>109</v>
@@ -2125,7 +2155,7 @@
         <v>8</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>110</v>
@@ -2136,16 +2166,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>112</v>
@@ -2156,16 +2186,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>114</v>
@@ -2176,7 +2206,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>115</v>
@@ -2185,7 +2215,7 @@
         <v>43</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>116</v>
@@ -2196,7 +2226,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>117</v>
@@ -2205,7 +2235,7 @@
         <v>43</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>118</v>
@@ -2216,16 +2246,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>120</v>
@@ -2236,16 +2266,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>122</v>
@@ -2256,7 +2286,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>123</v>
@@ -2265,7 +2295,7 @@
         <v>8</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>124</v>
@@ -2276,7 +2306,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>125</v>
@@ -2285,7 +2315,7 @@
         <v>8</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>126</v>
@@ -2296,7 +2326,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>127</v>
@@ -2305,7 +2335,7 @@
         <v>8</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>128</v>
@@ -2316,16 +2346,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>130</v>
@@ -2336,16 +2366,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>132</v>
@@ -2356,7 +2386,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>133</v>
@@ -2365,7 +2395,7 @@
         <v>43</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>134</v>
@@ -2376,39 +2406,39 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>137</v>
+        <v>88</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>9</v>
@@ -2416,36 +2446,36 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>98</v>
@@ -2456,7 +2486,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>99</v>
@@ -2465,7 +2495,7 @@
         <v>43</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>100</v>
@@ -2476,7 +2506,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>101</v>
@@ -2485,7 +2515,7 @@
         <v>43</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>102</v>
@@ -2496,16 +2526,16 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>104</v>
@@ -2516,16 +2546,16 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>106</v>
@@ -2536,7 +2566,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>107</v>
@@ -2545,7 +2575,7 @@
         <v>8</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>108</v>
@@ -2556,7 +2586,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>109</v>
@@ -2565,7 +2595,7 @@
         <v>8</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>110</v>
@@ -2576,16 +2606,16 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>112</v>
@@ -2596,16 +2626,16 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>114</v>
@@ -2616,7 +2646,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>115</v>
@@ -2625,7 +2655,7 @@
         <v>43</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>116</v>
@@ -2636,7 +2666,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>117</v>
@@ -2645,7 +2675,7 @@
         <v>43</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>118</v>
@@ -2656,16 +2686,16 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>120</v>
@@ -2676,16 +2706,16 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>122</v>
@@ -2696,7 +2726,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>123</v>
@@ -2705,7 +2735,7 @@
         <v>8</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>124</v>
@@ -2716,7 +2746,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>125</v>
@@ -2725,7 +2755,7 @@
         <v>8</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>126</v>
@@ -2736,7 +2766,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>127</v>
@@ -2745,7 +2775,7 @@
         <v>8</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>128</v>
@@ -2756,16 +2786,16 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>130</v>
@@ -2776,16 +2806,16 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>132</v>
@@ -2796,7 +2826,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>133</v>
@@ -2805,7 +2835,7 @@
         <v>43</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>134</v>
@@ -2816,19 +2846,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>136</v>
+        <v>59</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>9</v>
@@ -2836,19 +2866,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>9</v>
@@ -2856,7 +2886,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>62</v>
@@ -2865,7 +2895,7 @@
         <v>8</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>63</v>
@@ -2876,7 +2906,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>64</v>
@@ -2885,47 +2915,47 @@
         <v>8</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="C104" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>144</v>
@@ -2936,59 +2966,59 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="E108" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>9</v>
@@ -2996,16 +3026,16 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>63</v>
@@ -3016,7 +3046,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>64</v>
@@ -3025,47 +3055,47 @@
         <v>8</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="E111" s="2" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>144</v>
@@ -3076,56 +3106,56 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D113" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E113" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="F113" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>157</v>
@@ -3136,7 +3166,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>158</v>
@@ -3145,7 +3175,7 @@
         <v>8</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>159</v>
@@ -3156,7 +3186,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>160</v>
@@ -3165,7 +3195,7 @@
         <v>8</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>161</v>
@@ -3176,7 +3206,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>162</v>
@@ -3185,7 +3215,7 @@
         <v>8</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>163</v>
@@ -3196,7 +3226,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>164</v>
@@ -3205,10 +3235,10 @@
         <v>8</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>165</v>
+        <v>47</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>9</v>
@@ -3216,19 +3246,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>9</v>
@@ -3236,19 +3266,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>9</v>
@@ -3256,19 +3286,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>9</v>
@@ -3276,19 +3306,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>9</v>
@@ -3296,7 +3326,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>172</v>
@@ -3305,7 +3335,7 @@
         <v>8</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>173</v>
@@ -3316,67 +3346,67 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="E126" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>181</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>182</v>
@@ -3385,18 +3415,18 @@
         <v>8</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>183</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>184</v>
@@ -3405,18 +3435,18 @@
         <v>8</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>185</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>186</v>
@@ -3425,7 +3455,7 @@
         <v>8</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>187</v>
@@ -3436,7 +3466,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>188</v>
@@ -3445,7 +3475,7 @@
         <v>8</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>189</v>
@@ -3456,19 +3486,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>9</v>
@@ -3476,36 +3506,36 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>157</v>
@@ -3516,7 +3546,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>158</v>
@@ -3525,7 +3555,7 @@
         <v>8</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>159</v>
@@ -3536,7 +3566,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>160</v>
@@ -3545,7 +3575,7 @@
         <v>8</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>161</v>
@@ -3556,7 +3586,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>162</v>
@@ -3565,7 +3595,7 @@
         <v>8</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>163</v>
@@ -3576,7 +3606,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>164</v>
@@ -3585,10 +3615,10 @@
         <v>8</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>165</v>
+        <v>47</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>9</v>
@@ -3596,19 +3626,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>9</v>
@@ -3616,19 +3646,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>9</v>
@@ -3636,19 +3666,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>9</v>
@@ -3656,19 +3686,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>9</v>
@@ -3676,7 +3706,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>172</v>
@@ -3685,7 +3715,7 @@
         <v>8</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>173</v>
@@ -3696,56 +3726,56 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>181</v>
@@ -3756,7 +3786,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>182</v>
@@ -3765,18 +3795,18 @@
         <v>8</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>183</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>184</v>
@@ -3785,18 +3815,18 @@
         <v>8</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>185</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>186</v>
@@ -3805,7 +3835,7 @@
         <v>8</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>187</v>
@@ -3816,7 +3846,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>188</v>
@@ -3825,7 +3855,7 @@
         <v>8</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>189</v>
@@ -3836,56 +3866,56 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>181</v>
@@ -3896,7 +3926,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>182</v>
@@ -3905,18 +3935,18 @@
         <v>8</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>183</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>184</v>
@@ -3925,18 +3955,18 @@
         <v>8</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>185</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>186</v>
@@ -3945,7 +3975,7 @@
         <v>8</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>187</v>
@@ -3956,7 +3986,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>188</v>
@@ -3965,7 +3995,7 @@
         <v>8</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>189</v>
@@ -3976,56 +4006,56 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>181</v>
@@ -4036,7 +4066,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>182</v>
@@ -4045,18 +4075,18 @@
         <v>8</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>183</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>184</v>
@@ -4065,18 +4095,18 @@
         <v>8</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>185</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>186</v>
@@ -4085,7 +4115,7 @@
         <v>8</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>187</v>
@@ -4096,7 +4126,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>188</v>
@@ -4105,7 +4135,7 @@
         <v>8</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>189</v>
@@ -4116,56 +4146,56 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>181</v>
@@ -4176,7 +4206,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>182</v>
@@ -4185,18 +4215,18 @@
         <v>8</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>183</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>184</v>
@@ -4205,18 +4235,18 @@
         <v>8</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>185</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>186</v>
@@ -4225,7 +4255,7 @@
         <v>8</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>187</v>
@@ -4236,7 +4266,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>188</v>
@@ -4245,7 +4275,7 @@
         <v>8</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>189</v>
@@ -4256,56 +4286,56 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>181</v>
@@ -4316,7 +4346,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>182</v>
@@ -4325,18 +4355,18 @@
         <v>8</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>183</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>184</v>
@@ -4345,18 +4375,18 @@
         <v>8</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>185</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>186</v>
@@ -4365,7 +4395,7 @@
         <v>8</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>187</v>
@@ -4376,7 +4406,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>188</v>
@@ -4385,7 +4415,7 @@
         <v>8</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>189</v>
@@ -4396,42 +4426,42 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E179" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D179" s="2" t="s">
+      <c r="F179" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="181">
@@ -4439,24 +4469,24 @@
         <v>205</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>208</v>
+        <v>31</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>210</v>
@@ -4465,7 +4495,7 @@
         <v>8</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>211</v>
@@ -4476,7 +4506,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>212</v>
@@ -4485,50 +4515,50 @@
         <v>8</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>213</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>214</v>
+        <v>86</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>215</v>
+        <v>92</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>216</v>
+        <v>88</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>217</v>
+        <v>94</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>9</v>
@@ -4536,19 +4566,19 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>219</v>
+        <v>95</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>220</v>
+        <v>96</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>9</v>
@@ -4556,19 +4586,19 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>221</v>
+        <v>97</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>222</v>
+        <v>98</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>9</v>
@@ -4576,59 +4606,59 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>9</v>
@@ -4636,39 +4666,39 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>9</v>
@@ -4676,39 +4706,39 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>9</v>
@@ -4716,39 +4746,39 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>9</v>
@@ -4756,39 +4786,39 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>9</v>
@@ -4796,19 +4826,19 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>9</v>
@@ -4816,19 +4846,19 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>9</v>
@@ -4836,19 +4866,19 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>9</v>
@@ -4856,19 +4886,19 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>9</v>
@@ -4876,19 +4906,19 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>9</v>
@@ -4896,19 +4926,19 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>9</v>
@@ -4916,19 +4946,19 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>9</v>
@@ -4936,19 +4966,19 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>9</v>
@@ -4956,19 +4986,19 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>9</v>
@@ -4976,19 +5006,19 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>9</v>
@@ -4996,19 +5026,19 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>9</v>
@@ -5016,19 +5046,19 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>179</v>
+        <v>99</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>181</v>
+        <v>100</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>9</v>
@@ -5036,39 +5066,39 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>182</v>
+        <v>101</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>184</v>
+        <v>103</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>9</v>
@@ -5076,19 +5106,19 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>187</v>
+        <v>106</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>9</v>
@@ -5096,19 +5126,19 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>188</v>
+        <v>107</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>189</v>
+        <v>108</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>9</v>
@@ -5116,19 +5146,19 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>191</v>
+        <v>110</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>9</v>
@@ -5136,19 +5166,19 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>192</v>
+        <v>111</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>9</v>
@@ -5156,19 +5186,19 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>226</v>
+        <v>113</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>227</v>
+        <v>114</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>9</v>
@@ -5176,19 +5206,19 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>228</v>
+        <v>115</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>229</v>
+        <v>116</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>9</v>
@@ -5196,19 +5226,19 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>230</v>
+        <v>117</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>231</v>
+        <v>118</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>9</v>
@@ -5216,19 +5246,19 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>232</v>
+        <v>119</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>233</v>
+        <v>120</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>9</v>
@@ -5236,19 +5266,19 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>234</v>
+        <v>121</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>235</v>
+        <v>122</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>9</v>
@@ -5256,19 +5286,19 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>236</v>
+        <v>123</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>237</v>
+        <v>124</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>9</v>
@@ -5276,19 +5306,19 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>238</v>
+        <v>125</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>239</v>
+        <v>126</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>9</v>
@@ -5296,19 +5326,19 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>240</v>
+        <v>127</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>241</v>
+        <v>128</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>9</v>
@@ -5316,19 +5346,19 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>242</v>
+        <v>129</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>243</v>
+        <v>130</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>9</v>
@@ -5336,19 +5366,19 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>245</v>
+        <v>131</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>247</v>
+        <v>132</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>9</v>
@@ -5356,21 +5386,3201 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F250" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F251" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F252" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F253" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F254" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F255" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F256" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F257" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F258" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F259" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F260" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F261" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F262" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F263" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F264" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E265" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F265" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E266" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F266" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F267" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E268" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F268" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E269" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F269" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F270" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F271" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F272" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F273" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F274" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E275" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F275" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F276" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F277" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F278" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F279" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E280" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F280" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F281" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E282" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F282" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E283" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F283" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F284" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E285" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F285" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E286" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F286" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E287" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F287" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E288" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F288" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F289" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E290" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F290" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E291" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F291" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E292" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F292" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E293" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F293" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E294" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F294" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F295" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F296" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E297" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F297" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F298" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F299" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F300" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F301" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F302" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E303" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F303" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E304" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F304" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E305" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F305" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E306" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F306" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E307" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F307" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E308" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F308" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E309" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F309" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E310" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F310" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E311" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F311" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E312" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F312" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E313" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F313" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E314" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F314" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E315" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F315" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E316" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F316" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E317" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F317" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E318" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F318" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E319" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F319" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E320" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F320" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E321" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F321" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E322" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F322" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E323" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F323" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E324" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F324" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E325" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F325" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E326" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F326" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E327" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F327" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E328" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F328" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E329" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F329" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E330" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F330" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E331" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F331" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E332" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F332" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E333" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F333" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E334" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F334" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E335" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F335" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E336" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F336" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E337" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F337" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E338" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F338" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E339" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F339" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E340" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F340" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E341" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F341" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E342" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F342" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E343" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F343" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E344" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F344" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E345" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F345" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D346" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E346" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F346" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E347" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F347" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E348" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F348" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E349" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F349" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E350" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F350" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E351" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F351" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D352" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E352" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F352" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D353" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E353" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F353" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E354" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F354" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D355" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E355" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F355" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D356" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E356" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F356" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E357" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F357" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D358" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E358" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F358" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D359" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E359" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F359" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D360" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E360" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F360" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D361" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E361" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F361" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D362" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E362" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F362" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D363" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E363" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F363" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D364" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E364" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F364" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D365" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E365" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F365" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D366" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E366" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F366" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D367" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E367" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F367" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D368" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E368" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F368" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D369" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E369" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F369" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D370" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E370" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F370" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D371" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E371" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F371" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D372" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E372" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F372" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D373" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E373" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F373" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D374" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E374" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F374" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D375" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E375" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F375" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D376" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E376" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F376" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D377" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E377" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F377" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D378" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E378" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F378" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D379" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E379" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F379" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D380" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E380" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="F380" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D381" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E381" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F381" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D382" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E382" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C227" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E227" s="2" t="s">
+      <c r="F382" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B383" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="F227" s="2" t="s">
+      <c r="C383" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D383" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E383" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F383" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D384" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E384" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F384" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D385" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E385" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F385" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D386" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E386" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F386" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_007.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2660" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2807" uniqueCount="283">
   <si>
     <t>Sezione</t>
   </si>
@@ -278,13 +278,136 @@
     <t>Cognome</t>
   </si>
   <si>
-    <t>cognomeOfficiante</t>
+    <t>evento.datiEventoMatrimonio.officianteEvento</t>
+  </si>
+  <si>
+    <t>cognome</t>
   </si>
   <si>
     <t>Nome</t>
   </si>
   <si>
-    <t>nomeOfficiante</t>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>Sesso</t>
+  </si>
+  <si>
+    <t>sesso</t>
+  </si>
+  <si>
+    <t>Data nascita</t>
+  </si>
+  <si>
+    <t>dataNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita</t>
+  </si>
+  <si>
+    <t>idStatoNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita</t>
+  </si>
+  <si>
+    <t>idProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita</t>
+  </si>
+  <si>
+    <t>idComuneNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Nazionalita</t>
+  </si>
+  <si>
+    <t>idNazionalita</t>
+  </si>
+  <si>
+    <t>Nazionalita - Descrizione</t>
+  </si>
+  <si>
+    <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Stato di residenza</t>
+  </si>
+  <si>
+    <t>idStatoResidenza</t>
+  </si>
+  <si>
+    <t>Stato di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza</t>
+  </si>
+  <si>
+    <t>idProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza</t>
+  </si>
+  <si>
+    <t>idComuneResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneResidenza</t>
+  </si>
+  <si>
+    <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>flag dichiarante</t>
+  </si>
+  <si>
+    <t>flagDichiarante</t>
+  </si>
+  <si>
+    <t>flag comparente</t>
+  </si>
+  <si>
+    <t>flagComparente</t>
+  </si>
+  <si>
+    <t>flag firmatario</t>
+  </si>
+  <si>
+    <t>flagFirmatario</t>
   </si>
   <si>
     <t>Generalità Sposo</t>
@@ -293,135 +416,9 @@
     <t>evento.intestatari[0]</t>
   </si>
   <si>
-    <t>cognome</t>
-  </si>
-  <si>
     <t>66,67,68,71,63,64,65</t>
   </si>
   <si>
-    <t>nome</t>
-  </si>
-  <si>
-    <t>Sesso</t>
-  </si>
-  <si>
-    <t>sesso</t>
-  </si>
-  <si>
-    <t>Data nascita</t>
-  </si>
-  <si>
-    <t>dataNascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita</t>
-  </si>
-  <si>
-    <t>idStatoNascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoNascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita</t>
-  </si>
-  <si>
-    <t>idProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita</t>
-  </si>
-  <si>
-    <t>idComuneNascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneNascita</t>
-  </si>
-  <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>idNazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
-  </si>
-  <si>
-    <t>nazionalita</t>
-  </si>
-  <si>
-    <t>Stato di residenza</t>
-  </si>
-  <si>
-    <t>idStatoResidenza</t>
-  </si>
-  <si>
-    <t>Stato di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoResidenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza</t>
-  </si>
-  <si>
-    <t>idProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza</t>
-  </si>
-  <si>
-    <t>idComuneResidenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneResidenza</t>
-  </si>
-  <si>
-    <t>Indirizzo di residenza</t>
-  </si>
-  <si>
-    <t>indirizzoResidenza</t>
-  </si>
-  <si>
-    <t>flag dichiarante</t>
-  </si>
-  <si>
-    <t>flagDichiarante</t>
-  </si>
-  <si>
-    <t>flag comparente</t>
-  </si>
-  <si>
-    <t>flagComparente</t>
-  </si>
-  <si>
-    <t>flag firmatario</t>
-  </si>
-  <si>
-    <t>flagFirmatario</t>
-  </si>
-  <si>
     <t>Generalità Sposa</t>
   </si>
   <si>
@@ -852,6 +849,12 @@
   </si>
   <si>
     <t>evento.datiEventoMatrimonio.regimePatrimoniale.tipo,=,1</t>
+  </si>
+  <si>
+    <t>Dichiara come non certificabile</t>
+  </si>
+  <si>
+    <t>flagAnnotazioneNonCertificabile</t>
   </si>
   <si>
     <t>Testo Annotazione Contestuale</t>
@@ -916,7 +919,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H380"/>
+  <dimension ref="A1:H401"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -926,7 +929,7 @@
     <col min="2" max="2" width="94.6640625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="62.65625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="29.8515625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.0546875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="218.19921875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2023,10 +2026,10 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -2040,16 +2043,16 @@
         <v>84</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -2060,22 +2063,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>93</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>52</v>
@@ -2083,16 +2086,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>95</v>
@@ -2106,7 +2109,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>96</v>
@@ -2115,7 +2118,7 @@
         <v>49</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>97</v>
@@ -2129,7 +2132,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>98</v>
@@ -2138,7 +2141,7 @@
         <v>49</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>99</v>
@@ -2152,16 +2155,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>101</v>
@@ -2175,16 +2178,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>103</v>
@@ -2198,7 +2201,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>104</v>
@@ -2207,7 +2210,7 @@
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>105</v>
@@ -2221,7 +2224,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>106</v>
@@ -2230,7 +2233,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>107</v>
@@ -2244,16 +2247,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>109</v>
@@ -2267,16 +2270,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>111</v>
@@ -2290,7 +2293,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>112</v>
@@ -2299,7 +2302,7 @@
         <v>49</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>113</v>
@@ -2313,7 +2316,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>114</v>
@@ -2322,7 +2325,7 @@
         <v>49</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>115</v>
@@ -2336,16 +2339,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>117</v>
@@ -2359,16 +2362,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>119</v>
@@ -2382,7 +2385,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>120</v>
@@ -2391,7 +2394,7 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>121</v>
@@ -2405,7 +2408,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>122</v>
@@ -2414,7 +2417,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>123</v>
@@ -2428,7 +2431,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>124</v>
@@ -2437,7 +2440,7 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>125</v>
@@ -2451,16 +2454,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>127</v>
@@ -2474,16 +2477,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>129</v>
@@ -2497,7 +2500,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>130</v>
@@ -2506,7 +2509,7 @@
         <v>49</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>131</v>
@@ -2520,22 +2523,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>52</v>
@@ -2543,19 +2546,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2566,22 +2569,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>93</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>52</v>
@@ -2589,16 +2592,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>95</v>
@@ -2612,7 +2615,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>96</v>
@@ -2621,7 +2624,7 @@
         <v>49</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>97</v>
@@ -2635,7 +2638,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>98</v>
@@ -2644,7 +2647,7 @@
         <v>49</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>99</v>
@@ -2658,16 +2661,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>101</v>
@@ -2681,16 +2684,16 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>103</v>
@@ -2704,7 +2707,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>104</v>
@@ -2713,7 +2716,7 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>105</v>
@@ -2727,7 +2730,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>106</v>
@@ -2736,7 +2739,7 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>107</v>
@@ -2750,16 +2753,16 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>109</v>
@@ -2773,16 +2776,16 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>111</v>
@@ -2796,7 +2799,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>112</v>
@@ -2805,7 +2808,7 @@
         <v>49</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>113</v>
@@ -2819,7 +2822,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>114</v>
@@ -2828,7 +2831,7 @@
         <v>49</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>115</v>
@@ -2842,16 +2845,16 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>117</v>
@@ -2865,16 +2868,16 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>119</v>
@@ -2888,7 +2891,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>120</v>
@@ -2897,7 +2900,7 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>121</v>
@@ -2911,7 +2914,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>122</v>
@@ -2920,7 +2923,7 @@
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>123</v>
@@ -2934,7 +2937,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>124</v>
@@ -2943,7 +2946,7 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>125</v>
@@ -2957,16 +2960,16 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>127</v>
@@ -2980,16 +2983,16 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>129</v>
@@ -3003,7 +3006,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>130</v>
@@ -3012,7 +3015,7 @@
         <v>49</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>131</v>
@@ -3026,22 +3029,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="E92" s="2" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>52</v>
@@ -3049,19 +3052,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="E93" s="2" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -3072,318 +3075,318 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>147</v>
+        <v>104</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>149</v>
+        <v>52</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>149</v>
+        <v>52</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>149</v>
+        <v>52</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>149</v>
+        <v>52</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>149</v>
+        <v>52</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>149</v>
+        <v>52</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>149</v>
+        <v>52</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3394,19 +3397,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3417,19 +3420,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3440,19 +3443,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3463,19 +3466,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3486,19 +3489,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3509,19 +3512,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3532,318 +3535,318 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>167</v>
+        <v>63</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>168</v>
+        <v>64</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>170</v>
+        <v>67</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>171</v>
+        <v>68</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>172</v>
+        <v>69</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>178</v>
+        <v>72</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>184</v>
+        <v>64</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>185</v>
+        <v>65</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>186</v>
+        <v>139</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>187</v>
+        <v>67</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>189</v>
+        <v>69</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>192</v>
+        <v>142</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>193</v>
+        <v>145</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3854,19 +3857,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3877,19 +3880,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3900,19 +3903,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3923,19 +3926,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3946,19 +3949,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3969,19 +3972,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>168</v>
+        <v>51</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3992,19 +3995,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>54</v>
+        <v>167</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -4015,19 +4018,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>171</v>
+        <v>54</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -4038,19 +4041,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -4061,19 +4064,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -4084,1442 +4087,1442 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>197</v>
+        <v>52</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="E145" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>200</v>
+        <v>52</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>200</v>
+        <v>52</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>200</v>
+        <v>52</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>200</v>
+        <v>52</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>200</v>
+        <v>52</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>200</v>
+        <v>52</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>179</v>
+        <v>51</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>203</v>
+        <v>52</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>203</v>
+        <v>52</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>184</v>
+        <v>54</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>203</v>
+        <v>52</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>203</v>
+        <v>52</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>203</v>
+        <v>52</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>203</v>
+        <v>52</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>87</v>
+        <v>190</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>93</v>
+        <v>191</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>89</v>
+        <v>176</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>96</v>
+        <v>180</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>97</v>
+        <v>181</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>98</v>
+        <v>182</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>99</v>
+        <v>183</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>100</v>
+        <v>184</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>101</v>
+        <v>185</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>102</v>
+        <v>186</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>103</v>
+        <v>187</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>107</v>
+        <v>191</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>109</v>
+        <v>178</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>111</v>
+        <v>181</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>112</v>
+        <v>182</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>113</v>
+        <v>183</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>114</v>
+        <v>184</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>116</v>
+        <v>186</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>117</v>
+        <v>187</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>119</v>
+        <v>189</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>121</v>
+        <v>191</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>122</v>
+        <v>209</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>123</v>
+        <v>211</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>124</v>
+        <v>214</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>125</v>
+        <v>215</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>126</v>
+        <v>217</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>127</v>
+        <v>218</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>128</v>
+        <v>219</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>129</v>
+        <v>220</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>130</v>
+        <v>221</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>131</v>
+        <v>222</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B198" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D198" s="2" t="s">
+      <c r="E198" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D199" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B199" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D199" s="2" t="s">
+      <c r="E199" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G199" s="2" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>93</v>
@@ -5528,21 +5531,21 @@
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>95</v>
@@ -5551,12 +5554,12 @@
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>96</v>
@@ -5565,7 +5568,7 @@
         <v>49</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>97</v>
@@ -5574,12 +5577,12 @@
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>98</v>
@@ -5588,7 +5591,7 @@
         <v>49</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>99</v>
@@ -5597,21 +5600,21 @@
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>101</v>
@@ -5620,21 +5623,21 @@
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>103</v>
@@ -5643,12 +5646,12 @@
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>104</v>
@@ -5657,7 +5660,7 @@
         <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>105</v>
@@ -5666,12 +5669,12 @@
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>106</v>
@@ -5680,7 +5683,7 @@
         <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>107</v>
@@ -5689,21 +5692,21 @@
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>109</v>
@@ -5712,21 +5715,21 @@
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>111</v>
@@ -5735,12 +5738,12 @@
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>112</v>
@@ -5749,7 +5752,7 @@
         <v>49</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>113</v>
@@ -5758,12 +5761,12 @@
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>114</v>
@@ -5772,7 +5775,7 @@
         <v>49</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>115</v>
@@ -5781,21 +5784,21 @@
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>117</v>
@@ -5804,21 +5807,21 @@
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>119</v>
@@ -5827,12 +5830,12 @@
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>120</v>
@@ -5841,7 +5844,7 @@
         <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>121</v>
@@ -5850,12 +5853,12 @@
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>122</v>
@@ -5864,7 +5867,7 @@
         <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>123</v>
@@ -5873,12 +5876,12 @@
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>124</v>
@@ -5887,7 +5890,7 @@
         <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>125</v>
@@ -5896,21 +5899,21 @@
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>127</v>
@@ -5919,21 +5922,21 @@
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>129</v>
@@ -5942,12 +5945,12 @@
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>130</v>
@@ -5956,7 +5959,7 @@
         <v>49</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>131</v>
@@ -5965,67 +5968,67 @@
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D220" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B220" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D220" s="2" t="s">
+      <c r="E220" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G220" s="2" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D221" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B221" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D221" s="2" t="s">
+      <c r="E221" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G221" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F221" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G221" s="2" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>93</v>
@@ -6034,21 +6037,21 @@
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>95</v>
@@ -6057,12 +6060,12 @@
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>96</v>
@@ -6071,7 +6074,7 @@
         <v>49</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>97</v>
@@ -6080,12 +6083,12 @@
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>98</v>
@@ -6094,7 +6097,7 @@
         <v>49</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>99</v>
@@ -6103,21 +6106,21 @@
         <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>101</v>
@@ -6126,21 +6129,21 @@
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>103</v>
@@ -6149,12 +6152,12 @@
         <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>104</v>
@@ -6163,7 +6166,7 @@
         <v>9</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>105</v>
@@ -6172,12 +6175,12 @@
         <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>106</v>
@@ -6186,7 +6189,7 @@
         <v>9</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>107</v>
@@ -6195,21 +6198,21 @@
         <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>109</v>
@@ -6218,21 +6221,21 @@
         <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>111</v>
@@ -6241,12 +6244,12 @@
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>112</v>
@@ -6255,7 +6258,7 @@
         <v>49</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>113</v>
@@ -6264,12 +6267,12 @@
         <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>114</v>
@@ -6278,7 +6281,7 @@
         <v>49</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>115</v>
@@ -6287,21 +6290,21 @@
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>117</v>
@@ -6310,21 +6313,21 @@
         <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>119</v>
@@ -6333,12 +6336,12 @@
         <v>10</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>120</v>
@@ -6347,7 +6350,7 @@
         <v>9</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>121</v>
@@ -6356,12 +6359,12 @@
         <v>10</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>122</v>
@@ -6370,7 +6373,7 @@
         <v>9</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>123</v>
@@ -6379,12 +6382,12 @@
         <v>10</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>124</v>
@@ -6393,7 +6396,7 @@
         <v>9</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>125</v>
@@ -6402,21 +6405,21 @@
         <v>10</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>127</v>
@@ -6425,21 +6428,21 @@
         <v>10</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>129</v>
@@ -6448,12 +6451,12 @@
         <v>10</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>130</v>
@@ -6462,7 +6465,7 @@
         <v>49</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>131</v>
@@ -6471,67 +6474,67 @@
         <v>10</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D242" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B242" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D242" s="2" t="s">
+      <c r="E242" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G242" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F242" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G242" s="2" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D243" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B243" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D243" s="2" t="s">
+      <c r="E243" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G243" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F243" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G243" s="2" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>93</v>
@@ -6540,21 +6543,21 @@
         <v>10</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>95</v>
@@ -6563,12 +6566,12 @@
         <v>10</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>96</v>
@@ -6577,7 +6580,7 @@
         <v>49</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>97</v>
@@ -6586,12 +6589,12 @@
         <v>10</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>98</v>
@@ -6600,7 +6603,7 @@
         <v>49</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>99</v>
@@ -6609,21 +6612,21 @@
         <v>10</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>101</v>
@@ -6632,21 +6635,21 @@
         <v>10</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>103</v>
@@ -6655,12 +6658,12 @@
         <v>10</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>104</v>
@@ -6669,7 +6672,7 @@
         <v>9</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>105</v>
@@ -6678,12 +6681,12 @@
         <v>10</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>106</v>
@@ -6692,7 +6695,7 @@
         <v>9</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>107</v>
@@ -6701,21 +6704,21 @@
         <v>10</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E252" s="2" t="s">
         <v>109</v>
@@ -6724,21 +6727,21 @@
         <v>10</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>111</v>
@@ -6747,12 +6750,12 @@
         <v>10</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>112</v>
@@ -6761,7 +6764,7 @@
         <v>49</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E254" s="2" t="s">
         <v>113</v>
@@ -6770,12 +6773,12 @@
         <v>10</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>114</v>
@@ -6784,7 +6787,7 @@
         <v>49</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>115</v>
@@ -6793,21 +6796,21 @@
         <v>10</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E256" s="2" t="s">
         <v>117</v>
@@ -6816,21 +6819,21 @@
         <v>10</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E257" s="2" t="s">
         <v>119</v>
@@ -6839,12 +6842,12 @@
         <v>10</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>120</v>
@@ -6853,7 +6856,7 @@
         <v>9</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E258" s="2" t="s">
         <v>121</v>
@@ -6862,12 +6865,12 @@
         <v>10</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>122</v>
@@ -6876,7 +6879,7 @@
         <v>9</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E259" s="2" t="s">
         <v>123</v>
@@ -6885,12 +6888,12 @@
         <v>10</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>124</v>
@@ -6899,7 +6902,7 @@
         <v>9</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E260" s="2" t="s">
         <v>125</v>
@@ -6908,21 +6911,21 @@
         <v>10</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E261" s="2" t="s">
         <v>127</v>
@@ -6931,21 +6934,21 @@
         <v>10</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E262" s="2" t="s">
         <v>129</v>
@@ -6954,12 +6957,12 @@
         <v>10</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>130</v>
@@ -6968,7 +6971,7 @@
         <v>49</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E263" s="2" t="s">
         <v>131</v>
@@ -6977,67 +6980,67 @@
         <v>10</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D264" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B264" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D264" s="2" t="s">
+      <c r="E264" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F264" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G264" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="E264" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F264" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G264" s="2" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D265" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B265" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D265" s="2" t="s">
+      <c r="E265" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F265" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G265" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="E265" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F265" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G265" s="2" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E266" s="2" t="s">
         <v>93</v>
@@ -7046,21 +7049,21 @@
         <v>10</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E267" s="2" t="s">
         <v>95</v>
@@ -7069,12 +7072,12 @@
         <v>10</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>96</v>
@@ -7083,7 +7086,7 @@
         <v>49</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E268" s="2" t="s">
         <v>97</v>
@@ -7092,12 +7095,12 @@
         <v>10</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>98</v>
@@ -7106,7 +7109,7 @@
         <v>49</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E269" s="2" t="s">
         <v>99</v>
@@ -7115,21 +7118,21 @@
         <v>10</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E270" s="2" t="s">
         <v>101</v>
@@ -7138,21 +7141,21 @@
         <v>10</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E271" s="2" t="s">
         <v>103</v>
@@ -7161,12 +7164,12 @@
         <v>10</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>104</v>
@@ -7175,7 +7178,7 @@
         <v>9</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E272" s="2" t="s">
         <v>105</v>
@@ -7184,12 +7187,12 @@
         <v>10</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>106</v>
@@ -7198,7 +7201,7 @@
         <v>9</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E273" s="2" t="s">
         <v>107</v>
@@ -7207,21 +7210,21 @@
         <v>10</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E274" s="2" t="s">
         <v>109</v>
@@ -7230,21 +7233,21 @@
         <v>10</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E275" s="2" t="s">
         <v>111</v>
@@ -7253,12 +7256,12 @@
         <v>10</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>112</v>
@@ -7267,7 +7270,7 @@
         <v>49</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E276" s="2" t="s">
         <v>113</v>
@@ -7276,12 +7279,12 @@
         <v>10</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>114</v>
@@ -7290,7 +7293,7 @@
         <v>49</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E277" s="2" t="s">
         <v>115</v>
@@ -7299,21 +7302,21 @@
         <v>10</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E278" s="2" t="s">
         <v>117</v>
@@ -7322,21 +7325,21 @@
         <v>10</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E279" s="2" t="s">
         <v>119</v>
@@ -7345,12 +7348,12 @@
         <v>10</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>120</v>
@@ -7359,7 +7362,7 @@
         <v>9</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E280" s="2" t="s">
         <v>121</v>
@@ -7368,12 +7371,12 @@
         <v>10</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>122</v>
@@ -7382,7 +7385,7 @@
         <v>9</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E281" s="2" t="s">
         <v>123</v>
@@ -7391,12 +7394,12 @@
         <v>10</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>124</v>
@@ -7405,7 +7408,7 @@
         <v>9</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E282" s="2" t="s">
         <v>125</v>
@@ -7414,21 +7417,21 @@
         <v>10</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E283" s="2" t="s">
         <v>127</v>
@@ -7437,21 +7440,21 @@
         <v>10</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E284" s="2" t="s">
         <v>129</v>
@@ -7460,12 +7463,12 @@
         <v>10</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>130</v>
@@ -7474,7 +7477,7 @@
         <v>49</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E285" s="2" t="s">
         <v>131</v>
@@ -7483,67 +7486,67 @@
         <v>10</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D286" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B286" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D286" s="2" t="s">
+      <c r="E286" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F286" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G286" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="E286" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F286" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G286" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D287" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B287" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D287" s="2" t="s">
+      <c r="E287" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F287" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G287" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="E287" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F287" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G287" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E288" s="2" t="s">
         <v>93</v>
@@ -7552,21 +7555,21 @@
         <v>10</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E289" s="2" t="s">
         <v>95</v>
@@ -7575,12 +7578,12 @@
         <v>10</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>96</v>
@@ -7589,7 +7592,7 @@
         <v>49</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E290" s="2" t="s">
         <v>97</v>
@@ -7598,12 +7601,12 @@
         <v>10</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>98</v>
@@ -7612,7 +7615,7 @@
         <v>49</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E291" s="2" t="s">
         <v>99</v>
@@ -7621,21 +7624,21 @@
         <v>10</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E292" s="2" t="s">
         <v>101</v>
@@ -7644,21 +7647,21 @@
         <v>10</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E293" s="2" t="s">
         <v>103</v>
@@ -7667,12 +7670,12 @@
         <v>10</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>104</v>
@@ -7681,7 +7684,7 @@
         <v>9</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E294" s="2" t="s">
         <v>105</v>
@@ -7690,12 +7693,12 @@
         <v>10</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>106</v>
@@ -7704,7 +7707,7 @@
         <v>9</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E295" s="2" t="s">
         <v>107</v>
@@ -7713,21 +7716,21 @@
         <v>10</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E296" s="2" t="s">
         <v>109</v>
@@ -7736,21 +7739,21 @@
         <v>10</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E297" s="2" t="s">
         <v>111</v>
@@ -7759,12 +7762,12 @@
         <v>10</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>112</v>
@@ -7773,7 +7776,7 @@
         <v>49</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E298" s="2" t="s">
         <v>113</v>
@@ -7782,12 +7785,12 @@
         <v>10</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>114</v>
@@ -7796,7 +7799,7 @@
         <v>49</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E299" s="2" t="s">
         <v>115</v>
@@ -7805,21 +7808,21 @@
         <v>10</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E300" s="2" t="s">
         <v>117</v>
@@ -7828,21 +7831,21 @@
         <v>10</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E301" s="2" t="s">
         <v>119</v>
@@ -7851,12 +7854,12 @@
         <v>10</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>120</v>
@@ -7865,7 +7868,7 @@
         <v>9</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E302" s="2" t="s">
         <v>121</v>
@@ -7874,12 +7877,12 @@
         <v>10</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>122</v>
@@ -7888,7 +7891,7 @@
         <v>9</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E303" s="2" t="s">
         <v>123</v>
@@ -7897,12 +7900,12 @@
         <v>10</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>124</v>
@@ -7911,7 +7914,7 @@
         <v>9</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E304" s="2" t="s">
         <v>125</v>
@@ -7920,21 +7923,21 @@
         <v>10</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E305" s="2" t="s">
         <v>127</v>
@@ -7943,21 +7946,21 @@
         <v>10</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E306" s="2" t="s">
         <v>129</v>
@@ -7966,12 +7969,12 @@
         <v>10</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>130</v>
@@ -7980,7 +7983,7 @@
         <v>49</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E307" s="2" t="s">
         <v>131</v>
@@ -7989,734 +7992,734 @@
         <v>10</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E308" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F308" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G308" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="B308" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C308" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D308" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E308" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F308" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G308" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E309" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F309" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G309" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="B309" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C309" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D309" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E309" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F309" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G309" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>177</v>
+        <v>92</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="F310" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>182</v>
+        <v>95</v>
       </c>
       <c r="F311" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>183</v>
+        <v>96</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="F312" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>186</v>
+        <v>99</v>
       </c>
       <c r="F313" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>191</v>
+        <v>104</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>192</v>
+        <v>105</v>
       </c>
       <c r="F316" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="F317" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G317" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="F318" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="F319" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="F320" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="F321" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="F322" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="F323" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G323" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="F324" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G324" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="F325" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G325" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="F326" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G326" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="F327" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F328" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G328" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="F329" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="F330" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G330" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="F331" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G331" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>122</v>
+        <v>182</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="F332" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G332" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="F333" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G333" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>126</v>
+        <v>186</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c r="F334" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G334" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="F335" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>131</v>
+        <v>191</v>
       </c>
       <c r="F336" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G336" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D337" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B337" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C337" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D337" s="2" t="s">
+      <c r="E337" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F337" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G337" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="E337" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F337" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G337" s="2" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D338" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B338" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C338" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D338" s="2" t="s">
+      <c r="E338" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F338" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G338" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="E338" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F338" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G338" s="2" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E339" s="2" t="s">
         <v>93</v>
@@ -8725,21 +8728,21 @@
         <v>10</v>
       </c>
       <c r="G339" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E340" s="2" t="s">
         <v>95</v>
@@ -8748,12 +8751,12 @@
         <v>10</v>
       </c>
       <c r="G340" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>96</v>
@@ -8762,7 +8765,7 @@
         <v>49</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E341" s="2" t="s">
         <v>97</v>
@@ -8771,12 +8774,12 @@
         <v>10</v>
       </c>
       <c r="G341" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>98</v>
@@ -8785,7 +8788,7 @@
         <v>49</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E342" s="2" t="s">
         <v>99</v>
@@ -8794,21 +8797,21 @@
         <v>10</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E343" s="2" t="s">
         <v>101</v>
@@ -8817,21 +8820,21 @@
         <v>10</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E344" s="2" t="s">
         <v>103</v>
@@ -8840,12 +8843,12 @@
         <v>10</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>104</v>
@@ -8854,7 +8857,7 @@
         <v>9</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E345" s="2" t="s">
         <v>105</v>
@@ -8863,12 +8866,12 @@
         <v>10</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>106</v>
@@ -8877,7 +8880,7 @@
         <v>9</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E346" s="2" t="s">
         <v>107</v>
@@ -8886,21 +8889,21 @@
         <v>10</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E347" s="2" t="s">
         <v>109</v>
@@ -8909,21 +8912,21 @@
         <v>10</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E348" s="2" t="s">
         <v>111</v>
@@ -8932,12 +8935,12 @@
         <v>10</v>
       </c>
       <c r="G348" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>112</v>
@@ -8946,7 +8949,7 @@
         <v>49</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E349" s="2" t="s">
         <v>113</v>
@@ -8955,12 +8958,12 @@
         <v>10</v>
       </c>
       <c r="G349" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>114</v>
@@ -8969,7 +8972,7 @@
         <v>49</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E350" s="2" t="s">
         <v>115</v>
@@ -8978,21 +8981,21 @@
         <v>10</v>
       </c>
       <c r="G350" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E351" s="2" t="s">
         <v>117</v>
@@ -9001,21 +9004,21 @@
         <v>10</v>
       </c>
       <c r="G351" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E352" s="2" t="s">
         <v>119</v>
@@ -9024,12 +9027,12 @@
         <v>10</v>
       </c>
       <c r="G352" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>120</v>
@@ -9038,7 +9041,7 @@
         <v>9</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E353" s="2" t="s">
         <v>121</v>
@@ -9047,12 +9050,12 @@
         <v>10</v>
       </c>
       <c r="G353" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>122</v>
@@ -9061,7 +9064,7 @@
         <v>9</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E354" s="2" t="s">
         <v>123</v>
@@ -9070,12 +9073,12 @@
         <v>10</v>
       </c>
       <c r="G354" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>124</v>
@@ -9084,7 +9087,7 @@
         <v>9</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E355" s="2" t="s">
         <v>125</v>
@@ -9093,21 +9096,21 @@
         <v>10</v>
       </c>
       <c r="G355" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E356" s="2" t="s">
         <v>127</v>
@@ -9116,21 +9119,21 @@
         <v>10</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E357" s="2" t="s">
         <v>129</v>
@@ -9139,12 +9142,12 @@
         <v>10</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>130</v>
@@ -9153,7 +9156,7 @@
         <v>49</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E358" s="2" t="s">
         <v>131</v>
@@ -9162,513 +9165,996 @@
         <v>10</v>
       </c>
       <c r="G358" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D359" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E359" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F359" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G359" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="B359" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C359" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D359" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E359" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F359" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G359" s="2" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D360" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E360" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F360" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G360" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="B360" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C360" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D360" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E360" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F360" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G360" s="2" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>177</v>
+        <v>92</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="F361" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G361" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>182</v>
+        <v>95</v>
       </c>
       <c r="F362" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G362" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>183</v>
+        <v>96</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="F363" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G363" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>186</v>
+        <v>99</v>
       </c>
       <c r="F364" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G364" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="F365" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G365" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="F366" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G366" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>191</v>
+        <v>104</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E367" s="2" t="s">
-        <v>192</v>
+        <v>105</v>
       </c>
       <c r="F367" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G367" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>253</v>
+        <v>106</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>72</v>
+        <v>244</v>
       </c>
       <c r="E368" s="2" t="s">
-        <v>254</v>
+        <v>107</v>
       </c>
       <c r="F368" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G368" s="2" t="s">
-        <v>52</v>
+        <v>247</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>255</v>
+        <v>108</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>72</v>
+        <v>244</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>256</v>
+        <v>109</v>
       </c>
       <c r="F369" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G369" s="2" t="s">
-        <v>52</v>
+        <v>247</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>257</v>
+        <v>110</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>72</v>
+        <v>244</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>258</v>
+        <v>111</v>
       </c>
       <c r="F370" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G370" s="2" t="s">
-        <v>52</v>
+        <v>247</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>259</v>
+        <v>112</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>72</v>
+        <v>244</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>260</v>
+        <v>113</v>
       </c>
       <c r="F371" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G371" s="2" t="s">
-        <v>52</v>
+        <v>247</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>261</v>
+        <v>114</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>72</v>
+        <v>244</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>262</v>
+        <v>115</v>
       </c>
       <c r="F372" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G372" s="2" t="s">
-        <v>52</v>
+        <v>247</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>263</v>
+        <v>116</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>72</v>
+        <v>244</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>264</v>
+        <v>117</v>
       </c>
       <c r="F373" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G373" s="2" t="s">
-        <v>52</v>
+        <v>247</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>265</v>
+        <v>118</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>72</v>
+        <v>244</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>266</v>
+        <v>119</v>
       </c>
       <c r="F374" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G374" s="2" t="s">
-        <v>52</v>
+        <v>247</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>267</v>
+        <v>120</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>268</v>
+        <v>121</v>
       </c>
       <c r="F375" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G375" s="2" t="s">
-        <v>52</v>
+        <v>247</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>269</v>
+        <v>122</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="E376" s="2" t="s">
-        <v>270</v>
+        <v>123</v>
       </c>
       <c r="F376" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G376" s="2" t="s">
-        <v>52</v>
+        <v>247</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>271</v>
+        <v>124</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>72</v>
+        <v>244</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>272</v>
+        <v>125</v>
       </c>
       <c r="F377" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G377" s="2" t="s">
-        <v>52</v>
+        <v>247</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>273</v>
+        <v>126</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>72</v>
+        <v>244</v>
       </c>
       <c r="E378" s="2" t="s">
-        <v>274</v>
+        <v>127</v>
       </c>
       <c r="F378" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G378" s="2" t="s">
-        <v>52</v>
+        <v>247</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>276</v>
+        <v>128</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="E379" s="2" t="s">
-        <v>278</v>
+        <v>129</v>
       </c>
       <c r="F379" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G379" s="2" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D380" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E380" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F380" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G380" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D381" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E381" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F381" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G381" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D382" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E382" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F382" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G382" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D383" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E383" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F383" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G383" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D384" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E384" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F384" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G384" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D385" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E385" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F385" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G385" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D386" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E386" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F386" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G386" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D387" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E387" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F387" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G387" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D388" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E388" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F388" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G388" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D389" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E389" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F389" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G389" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D390" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E390" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F390" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G390" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D391" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E391" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F391" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G391" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D392" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E392" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F392" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G392" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D393" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E393" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F393" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G393" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D394" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E394" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F394" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G394" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D395" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E395" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F395" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G395" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C396" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D396" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E396" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F396" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G396" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C397" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D397" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E397" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F397" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G397" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D398" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E398" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F398" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G398" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B399" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B380" s="2" t="s">
+      <c r="C399" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D399" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E399" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F399" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G399" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D400" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E400" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C380" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D380" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="E380" s="2" t="s">
+      <c r="F400" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G400" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B401" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="F380" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G380" s="2" t="s">
-        <v>279</v>
+      <c r="C401" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D401" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E401" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F401" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G401" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_007.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_007.xlsx
@@ -2023,7 +2023,7 @@
         <v>87</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>88</v>
@@ -2069,7 +2069,7 @@
         <v>92</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>88</v>
@@ -2092,7 +2092,7 @@
         <v>94</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>88</v>
@@ -2115,7 +2115,7 @@
         <v>96</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>88</v>
@@ -2138,7 +2138,7 @@
         <v>98</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>88</v>
@@ -2253,7 +2253,7 @@
         <v>108</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>88</v>
@@ -2276,7 +2276,7 @@
         <v>110</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>88</v>
@@ -2299,7 +2299,7 @@
         <v>112</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>88</v>
@@ -2322,7 +2322,7 @@
         <v>114</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>88</v>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_007.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2884" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2940" uniqueCount="293">
   <si>
     <t>Sezione</t>
   </si>
@@ -423,6 +423,30 @@
   </si>
   <si>
     <t>66,67,68,71,63,64,65</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Generalità Sposa</t>
@@ -925,7 +949,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H412"/>
+  <dimension ref="A1:H420"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3081,22 +3105,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F94" s="2" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>52</v>
@@ -3104,19 +3128,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>90</v>
+        <v>139</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -3127,19 +3151,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -3150,19 +3174,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -3173,22 +3197,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>52</v>
@@ -3196,19 +3220,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -3219,19 +3243,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -3242,19 +3266,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -3265,19 +3289,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -3288,19 +3312,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -3311,19 +3335,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3334,19 +3358,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3357,19 +3381,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3380,19 +3404,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3403,19 +3427,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3426,19 +3450,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3449,19 +3473,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3472,19 +3496,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3495,19 +3519,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3518,19 +3542,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3541,19 +3565,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3564,19 +3588,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3587,19 +3611,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3610,186 +3634,186 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E122" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>72</v>
+        <v>146</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>150</v>
+        <v>52</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>150</v>
+        <v>52</v>
       </c>
     </row>
     <row r="125">
@@ -3797,22 +3821,22 @@
         <v>147</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126">
@@ -3820,22 +3844,22 @@
         <v>147</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127">
@@ -3843,22 +3867,22 @@
         <v>147</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
     </row>
     <row r="128">
@@ -3866,22 +3890,22 @@
         <v>147</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129">
@@ -3889,73 +3913,73 @@
         <v>147</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E129" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E131" s="2" t="s">
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>159</v>
@@ -3964,148 +3988,148 @@
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>161</v>
+        <v>65</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>163</v>
+        <v>67</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>165</v>
+        <v>69</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>51</v>
+        <v>152</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>54</v>
+        <v>164</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -4116,19 +4140,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -4139,19 +4163,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -4162,19 +4186,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -4185,180 +4209,180 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>181</v>
+        <v>52</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>181</v>
+        <v>52</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>185</v>
+        <v>51</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>181</v>
+        <v>52</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>181</v>
+        <v>52</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>189</v>
+        <v>54</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>181</v>
+        <v>52</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>181</v>
+        <v>52</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>181</v>
+        <v>52</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4369,180 +4393,180 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>52</v>
+        <v>189</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>52</v>
+        <v>189</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>52</v>
+        <v>189</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D153" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E153" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>52</v>
+        <v>189</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>52</v>
+        <v>189</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>51</v>
+        <v>199</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>52</v>
+        <v>189</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>52</v>
+        <v>189</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>54</v>
+        <v>164</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4553,19 +4577,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4576,19 +4600,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4599,19 +4623,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4622,847 +4646,847 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>198</v>
+        <v>52</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>198</v>
+        <v>52</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>185</v>
+        <v>51</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>198</v>
+        <v>52</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>198</v>
+        <v>52</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>189</v>
+        <v>54</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>198</v>
+        <v>52</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>198</v>
+        <v>52</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>198</v>
+        <v>52</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>201</v>
+        <v>52</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E174" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B174" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
@@ -5473,19 +5497,19 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
@@ -5496,19 +5520,19 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
@@ -5519,19 +5543,19 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
@@ -5542,4757 +5566,4757 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>87</v>
+        <v>196</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>90</v>
+        <v>198</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>92</v>
+        <v>200</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>93</v>
+        <v>201</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>94</v>
+        <v>219</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>95</v>
+        <v>221</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E205" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B205" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D205" s="2" t="s">
+      <c r="F205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G205" s="2" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>98</v>
+        <v>227</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G206" s="2" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>100</v>
+        <v>229</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G207" s="2" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>102</v>
+        <v>231</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F208" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G208" s="2" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="F295" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="F297" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="F299" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="F300" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F301" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F302" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F303" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F304" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F305" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F306" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F307" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F308" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F309" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F310" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F311" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="F312" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="F313" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="F316" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="F317" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G317" s="2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="F318" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="F319" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="F320" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="F321" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="F322" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="F323" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G323" s="2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F324" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G324" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F325" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G325" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F326" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G326" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F327" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F328" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G328" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F329" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F330" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G330" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F331" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G331" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F332" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G332" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F333" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G333" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F334" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G334" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="F335" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="F336" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G336" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="F337" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="F338" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>178</v>
+        <v>118</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="F339" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G339" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>182</v>
+        <v>120</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="F340" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G340" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>184</v>
+        <v>122</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="F341" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G341" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>186</v>
+        <v>124</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>187</v>
+        <v>125</v>
       </c>
       <c r="F342" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>188</v>
+        <v>126</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="F343" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>190</v>
+        <v>128</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>191</v>
+        <v>129</v>
       </c>
       <c r="F344" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>192</v>
+        <v>130</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="F345" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D346" s="2" t="s">
         <v>246</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="F346" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>90</v>
+        <v>186</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>91</v>
+        <v>188</v>
       </c>
       <c r="F347" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>92</v>
+        <v>190</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>93</v>
+        <v>191</v>
       </c>
       <c r="F348" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G348" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>94</v>
+        <v>192</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>95</v>
+        <v>193</v>
       </c>
       <c r="F349" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G349" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>96</v>
+        <v>194</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>97</v>
+        <v>195</v>
       </c>
       <c r="F350" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G350" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>99</v>
+        <v>197</v>
       </c>
       <c r="F351" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G351" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>100</v>
+        <v>198</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>101</v>
+        <v>199</v>
       </c>
       <c r="F352" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G352" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>102</v>
+        <v>200</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="F353" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G353" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F354" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G354" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F355" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G355" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F356" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F357" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F358" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G358" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F359" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G359" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F360" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G360" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F361" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G361" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F362" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G362" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F363" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G363" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F364" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G364" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="F365" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G365" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="F366" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G366" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E367" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="F367" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G367" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E368" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="F368" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G368" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="F369" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G369" s="2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="F370" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G370" s="2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="F371" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G371" s="2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="F372" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G372" s="2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="F373" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G373" s="2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="F374" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G374" s="2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="F375" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G375" s="2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E376" s="2" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="F376" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G376" s="2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F377" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G377" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E378" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F378" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G378" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E379" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F379" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G379" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F380" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G380" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F381" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G381" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F382" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G382" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E383" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F383" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G383" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F384" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G384" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E385" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F385" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G385" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E386" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F386" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G386" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F387" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G387" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="F388" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G388" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E389" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="F389" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G389" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="F390" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G390" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E391" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="F391" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G391" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>178</v>
+        <v>118</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E392" s="2" t="s">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="F392" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G392" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>182</v>
+        <v>120</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E393" s="2" t="s">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="F393" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G393" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>184</v>
+        <v>122</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E394" s="2" t="s">
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="F394" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G394" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>186</v>
+        <v>124</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E395" s="2" t="s">
-        <v>187</v>
+        <v>125</v>
       </c>
       <c r="F395" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G395" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>188</v>
+        <v>126</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="F396" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G396" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>190</v>
+        <v>128</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E397" s="2" t="s">
-        <v>191</v>
+        <v>129</v>
       </c>
       <c r="F397" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G397" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>192</v>
+        <v>130</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="F398" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G398" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B399" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D399" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C399" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D399" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E399" s="2" t="s">
-        <v>255</v>
+        <v>133</v>
       </c>
       <c r="F399" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G399" s="2" t="s">
-        <v>52</v>
+        <v>257</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>256</v>
+        <v>186</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>72</v>
+        <v>259</v>
       </c>
       <c r="E400" s="2" t="s">
-        <v>257</v>
+        <v>188</v>
       </c>
       <c r="F400" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G400" s="2" t="s">
-        <v>52</v>
+        <v>260</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>258</v>
+        <v>190</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>72</v>
+        <v>259</v>
       </c>
       <c r="E401" s="2" t="s">
-        <v>259</v>
+        <v>191</v>
       </c>
       <c r="F401" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G401" s="2" t="s">
-        <v>52</v>
+        <v>260</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B402" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D402" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E402" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F402" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G402" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="C402" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D402" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E402" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="F402" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G402" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>262</v>
+        <v>194</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>72</v>
+        <v>259</v>
       </c>
       <c r="E403" s="2" t="s">
-        <v>263</v>
+        <v>195</v>
       </c>
       <c r="F403" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G403" s="2" t="s">
-        <v>52</v>
+        <v>260</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>264</v>
+        <v>196</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>72</v>
+        <v>259</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>265</v>
+        <v>197</v>
       </c>
       <c r="F404" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G404" s="2" t="s">
-        <v>52</v>
+        <v>260</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>266</v>
+        <v>198</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>72</v>
+        <v>259</v>
       </c>
       <c r="E405" s="2" t="s">
-        <v>267</v>
+        <v>199</v>
       </c>
       <c r="F405" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G405" s="2" t="s">
-        <v>52</v>
+        <v>260</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>268</v>
+        <v>200</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="E406" s="2" t="s">
-        <v>269</v>
+        <v>201</v>
       </c>
       <c r="F406" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G406" s="2" t="s">
-        <v>52</v>
+        <v>260</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>212</v>
+        <v>72</v>
       </c>
       <c r="E407" s="2" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F407" s="2" t="s">
         <v>10</v>
@@ -10303,19 +10327,19 @@
     </row>
     <row r="408">
       <c r="A408" s="2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D408" s="2" t="s">
         <v>72</v>
       </c>
       <c r="E408" s="2" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F408" s="2" t="s">
         <v>10</v>
@@ -10326,19 +10350,19 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D409" s="2" t="s">
         <v>72</v>
       </c>
       <c r="E409" s="2" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F409" s="2" t="s">
         <v>10</v>
@@ -10349,71 +10373,255 @@
     </row>
     <row r="410">
       <c r="A410" s="2" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>278</v>
+        <v>72</v>
       </c>
       <c r="E410" s="2" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="F410" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G410" s="2" t="s">
-        <v>280</v>
+        <v>52</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>278</v>
+        <v>72</v>
       </c>
       <c r="E411" s="2" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="F411" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G411" s="2" t="s">
-        <v>280</v>
+        <v>52</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D412" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E412" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F412" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G412" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D413" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E413" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F413" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G413" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B414" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B412" s="2" t="s">
+      <c r="C414" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D414" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E414" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F414" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G414" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D415" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E415" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F415" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G415" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D416" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E416" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F416" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G416" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D417" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E417" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C412" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D412" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E412" s="2" t="s">
+      <c r="F417" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G417" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="F412" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G412" s="2" t="s">
-        <v>280</v>
+      <c r="B418" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C418" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D418" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E418" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="F418" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G418" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D419" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E419" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F419" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G419" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D420" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E420" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="F420" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G420" s="2" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_007.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2940" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2996" uniqueCount="301">
   <si>
     <t>Sezione</t>
   </si>
@@ -458,15 +458,45 @@
     <t>Pubblicazioni</t>
   </si>
   <si>
+    <t>Riduzione dei termini</t>
+  </si>
+  <si>
+    <t>riduzioneTerminiPubblicazione</t>
+  </si>
+  <si>
+    <t>Stato ente</t>
+  </si>
+  <si>
     <t>evento.datiEventoMatrimonio.pubblicazione1</t>
   </si>
   <si>
+    <t>idNazione</t>
+  </si>
+  <si>
+    <t>Stato ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeNazione</t>
+  </si>
+  <si>
     <t>provincia</t>
   </si>
   <si>
     <t>comune</t>
   </si>
   <si>
+    <t>Anagrafica Consolato</t>
+  </si>
+  <si>
+    <t>idAnagraficaConsolato</t>
+  </si>
+  <si>
+    <t>Anagrafica Consolato - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeAnagraficaConsolato</t>
+  </si>
+  <si>
     <t>Data Inizio</t>
   </si>
   <si>
@@ -479,13 +509,10 @@
     <t>dataFine</t>
   </si>
   <si>
-    <t>Pubblicazioni altro comune</t>
-  </si>
-  <si>
-    <t>Riduzione dei termini</t>
-  </si>
-  <si>
-    <t>riduzioneTerminiPubblicazione</t>
+    <t>Pubblicazioni altro comune o consolato</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.pubblicazione2</t>
   </si>
   <si>
     <t>evento.datiEventoMatrimonio.pubblicazioneInPiuComuni,=,false</t>
@@ -494,9 +521,6 @@
     <t>Provincia Comune</t>
   </si>
   <si>
-    <t>evento.datiEventoMatrimonio.pubblicazione2</t>
-  </si>
-  <si>
     <t>Atto di Nascita dello sposo</t>
   </si>
   <si>
@@ -800,7 +824,7 @@
     <t>Dettagli evento</t>
   </si>
   <si>
-    <t>Pubblicazioni avvenute su più comuni</t>
+    <t>Pubblicazioni avvenute su più comuni o consolati</t>
   </si>
   <si>
     <t>pubblicazioneInPiuComuni</t>
@@ -949,7 +973,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H420"/>
+  <dimension ref="A1:H428"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3821,16 +3845,16 @@
         <v>147</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3844,16 +3868,16 @@
         <v>147</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3867,16 +3891,16 @@
         <v>147</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>67</v>
+        <v>153</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3890,16 +3914,16 @@
         <v>147</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3913,16 +3937,16 @@
         <v>147</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="E129" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3936,16 +3960,16 @@
         <v>147</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>154</v>
+        <v>68</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3956,131 +3980,131 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>64</v>
+        <v>158</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>65</v>
+        <v>159</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E133" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>68</v>
+        <v>162</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>69</v>
+        <v>163</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>152</v>
@@ -4089,21 +4113,21 @@
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>154</v>
@@ -4112,208 +4136,208 @@
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>164</v>
+        <v>64</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>52</v>
+        <v>167</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>52</v>
+        <v>167</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>169</v>
+        <v>69</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>52</v>
+        <v>167</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>52</v>
+        <v>167</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>52</v>
+        <v>167</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>51</v>
+        <v>162</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>52</v>
+        <v>167</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>52</v>
+        <v>167</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4324,19 +4348,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4347,19 +4371,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4370,19 +4394,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4393,180 +4417,180 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>189</v>
+        <v>52</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>189</v>
+        <v>52</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>193</v>
+        <v>51</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>189</v>
+        <v>52</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>189</v>
+        <v>52</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>197</v>
+        <v>54</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>189</v>
+        <v>52</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>189</v>
+        <v>52</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>189</v>
+        <v>52</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4577,180 +4601,180 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>52</v>
+        <v>197</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>52</v>
+        <v>197</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>52</v>
+        <v>197</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D161" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E161" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>52</v>
+        <v>197</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>52</v>
+        <v>197</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>51</v>
+        <v>207</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>52</v>
+        <v>197</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>52</v>
+        <v>197</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4761,19 +4785,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4784,19 +4808,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4807,19 +4831,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4830,847 +4854,847 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>206</v>
+        <v>52</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>206</v>
+        <v>52</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>193</v>
+        <v>51</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>206</v>
+        <v>52</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>206</v>
+        <v>52</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>197</v>
+        <v>54</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>206</v>
+        <v>52</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>206</v>
+        <v>52</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>206</v>
+        <v>52</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>209</v>
+        <v>52</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E182" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
@@ -5681,19 +5705,19 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
@@ -5704,19 +5728,19 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
@@ -5727,19 +5751,19 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
@@ -5750,4757 +5774,4757 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>87</v>
+        <v>204</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>89</v>
+        <v>205</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>90</v>
+        <v>206</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>91</v>
+        <v>207</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>92</v>
+        <v>208</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>93</v>
+        <v>209</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>94</v>
+        <v>227</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>95</v>
+        <v>229</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E213" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B213" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D213" s="2" t="s">
+      <c r="F213" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G213" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G213" s="2" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>98</v>
+        <v>235</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G214" s="2" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>100</v>
+        <v>237</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G215" s="2" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>102</v>
+        <v>239</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G216" s="2" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F295" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="F297" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="F299" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="F300" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="F301" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="F302" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="F303" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="F304" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="F305" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="F306" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="F307" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="F308" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F309" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F310" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F311" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F312" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F313" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F316" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F317" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G317" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F318" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F319" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="F320" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="F321" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="F322" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="F323" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G323" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="F324" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G324" s="2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="F325" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G325" s="2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="F326" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G326" s="2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="F327" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="F328" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G328" s="2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="F329" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="F330" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G330" s="2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="F331" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G331" s="2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F332" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G332" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F333" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G333" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F334" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G334" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F335" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F336" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G336" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F337" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F338" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F339" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G339" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F340" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G340" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F341" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G341" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F342" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="F343" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="F344" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="F345" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="F346" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>188</v>
+        <v>119</v>
       </c>
       <c r="F347" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>191</v>
+        <v>121</v>
       </c>
       <c r="F348" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G348" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>192</v>
+        <v>122</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>193</v>
+        <v>123</v>
       </c>
       <c r="F349" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G349" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>194</v>
+        <v>124</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>195</v>
+        <v>125</v>
       </c>
       <c r="F350" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G350" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>196</v>
+        <v>126</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>197</v>
+        <v>127</v>
       </c>
       <c r="F351" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G351" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>198</v>
+        <v>128</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>199</v>
+        <v>129</v>
       </c>
       <c r="F352" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G352" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>201</v>
+        <v>131</v>
       </c>
       <c r="F353" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G353" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D354" s="2" t="s">
         <v>254</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="F354" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G354" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>90</v>
+        <v>194</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>91</v>
+        <v>196</v>
       </c>
       <c r="F355" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G355" s="2" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>93</v>
+        <v>199</v>
       </c>
       <c r="F356" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>94</v>
+        <v>200</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>95</v>
+        <v>201</v>
       </c>
       <c r="F357" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>96</v>
+        <v>202</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>97</v>
+        <v>203</v>
       </c>
       <c r="F358" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G358" s="2" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>98</v>
+        <v>204</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>99</v>
+        <v>205</v>
       </c>
       <c r="F359" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G359" s="2" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>100</v>
+        <v>206</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>101</v>
+        <v>207</v>
       </c>
       <c r="F360" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G360" s="2" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>102</v>
+        <v>208</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>103</v>
+        <v>209</v>
       </c>
       <c r="F361" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G361" s="2" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F362" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G362" s="2" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F363" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G363" s="2" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F364" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G364" s="2" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F365" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G365" s="2" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F366" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G366" s="2" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="E367" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F367" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G367" s="2" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="E368" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F368" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G368" s="2" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F369" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G369" s="2" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F370" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G370" s="2" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F371" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G371" s="2" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F372" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G372" s="2" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="F373" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G373" s="2" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="F374" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G374" s="2" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="F375" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G375" s="2" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="E376" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="F376" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G376" s="2" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="F377" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G377" s="2" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="E378" s="2" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="F378" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G378" s="2" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="E379" s="2" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="F379" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G379" s="2" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="F380" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G380" s="2" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="F381" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G381" s="2" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="F382" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G382" s="2" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="E383" s="2" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="F383" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G383" s="2" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="F384" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G384" s="2" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="E385" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F385" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G385" s="2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="E386" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F386" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G386" s="2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F387" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G387" s="2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F388" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G388" s="2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="E389" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F389" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G389" s="2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F390" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G390" s="2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="E391" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F391" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G391" s="2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="E392" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F392" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G392" s="2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="E393" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F393" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G393" s="2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="E394" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F394" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G394" s="2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="E395" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F395" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G395" s="2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="F396" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G396" s="2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="E397" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="F397" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G397" s="2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="F398" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G398" s="2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="E399" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="F399" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G399" s="2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E400" s="2" t="s">
-        <v>188</v>
+        <v>119</v>
       </c>
       <c r="F400" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G400" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E401" s="2" t="s">
-        <v>191</v>
+        <v>121</v>
       </c>
       <c r="F401" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G401" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>192</v>
+        <v>122</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E402" s="2" t="s">
-        <v>193</v>
+        <v>123</v>
       </c>
       <c r="F402" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G402" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>194</v>
+        <v>124</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E403" s="2" t="s">
-        <v>195</v>
+        <v>125</v>
       </c>
       <c r="F403" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G403" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>196</v>
+        <v>126</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>197</v>
+        <v>127</v>
       </c>
       <c r="F404" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G404" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>198</v>
+        <v>128</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E405" s="2" t="s">
-        <v>199</v>
+        <v>129</v>
       </c>
       <c r="F405" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G405" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E406" s="2" t="s">
-        <v>201</v>
+        <v>131</v>
       </c>
       <c r="F406" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G406" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B407" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D407" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C407" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D407" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E407" s="2" t="s">
-        <v>263</v>
+        <v>133</v>
       </c>
       <c r="F407" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G407" s="2" t="s">
-        <v>52</v>
+        <v>265</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>264</v>
+        <v>194</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>72</v>
+        <v>267</v>
       </c>
       <c r="E408" s="2" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="F408" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G408" s="2" t="s">
-        <v>52</v>
+        <v>268</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>266</v>
+        <v>198</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>72</v>
+        <v>267</v>
       </c>
       <c r="E409" s="2" t="s">
-        <v>267</v>
+        <v>199</v>
       </c>
       <c r="F409" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G409" s="2" t="s">
-        <v>52</v>
+        <v>268</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B410" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D410" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E410" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F410" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G410" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="C410" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D410" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E410" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="F410" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G410" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>270</v>
+        <v>202</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>72</v>
+        <v>267</v>
       </c>
       <c r="E411" s="2" t="s">
-        <v>271</v>
+        <v>203</v>
       </c>
       <c r="F411" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G411" s="2" t="s">
-        <v>52</v>
+        <v>268</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>272</v>
+        <v>204</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>72</v>
+        <v>267</v>
       </c>
       <c r="E412" s="2" t="s">
-        <v>273</v>
+        <v>205</v>
       </c>
       <c r="F412" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G412" s="2" t="s">
-        <v>52</v>
+        <v>268</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>274</v>
+        <v>206</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>72</v>
+        <v>267</v>
       </c>
       <c r="E413" s="2" t="s">
-        <v>275</v>
+        <v>207</v>
       </c>
       <c r="F413" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G413" s="2" t="s">
-        <v>52</v>
+        <v>268</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>276</v>
+        <v>208</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="E414" s="2" t="s">
-        <v>277</v>
+        <v>209</v>
       </c>
       <c r="F414" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G414" s="2" t="s">
-        <v>52</v>
+        <v>268</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>220</v>
+        <v>72</v>
       </c>
       <c r="E415" s="2" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F415" s="2" t="s">
         <v>10</v>
@@ -10511,19 +10535,19 @@
     </row>
     <row r="416">
       <c r="A416" s="2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D416" s="2" t="s">
         <v>72</v>
       </c>
       <c r="E416" s="2" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F416" s="2" t="s">
         <v>10</v>
@@ -10534,19 +10558,19 @@
     </row>
     <row r="417">
       <c r="A417" s="2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D417" s="2" t="s">
         <v>72</v>
       </c>
       <c r="E417" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F417" s="2" t="s">
         <v>10</v>
@@ -10557,71 +10581,255 @@
     </row>
     <row r="418">
       <c r="A418" s="2" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>286</v>
+        <v>72</v>
       </c>
       <c r="E418" s="2" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="F418" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G418" s="2" t="s">
-        <v>288</v>
+        <v>52</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>286</v>
+        <v>72</v>
       </c>
       <c r="E419" s="2" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="F419" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G419" s="2" t="s">
-        <v>288</v>
+        <v>52</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D420" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E420" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F420" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G420" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D421" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E421" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F421" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G421" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B422" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B420" s="2" t="s">
+      <c r="C422" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D422" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E422" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F422" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G422" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D423" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E423" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="F423" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G423" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D424" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E424" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F424" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G424" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C425" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D425" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E425" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C420" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D420" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="E420" s="2" t="s">
+      <c r="F425" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G425" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="F420" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G420" s="2" t="s">
-        <v>288</v>
+      <c r="B426" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D426" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E426" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F426" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G426" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D427" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E427" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F427" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G427" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C428" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D428" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E428" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F428" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G428" s="2" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_007.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3248" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3262" uniqueCount="311">
   <si>
     <t>Sezione</t>
   </si>
@@ -612,6 +612,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -997,7 +1003,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H464"/>
+  <dimension ref="A1:H466"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4901,53 +4907,53 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>205</v>
-      </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>206</v>
+        <v>55</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B171" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E171" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C171" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E171" s="2" t="s">
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G171" s="2" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>209</v>
@@ -4956,7 +4962,7 @@
         <v>52</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>210</v>
@@ -4965,12 +4971,12 @@
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>211</v>
@@ -4979,7 +4985,7 @@
         <v>52</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>212</v>
@@ -4988,12 +4994,12 @@
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>213</v>
@@ -5002,7 +5008,7 @@
         <v>52</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>214</v>
@@ -5011,12 +5017,12 @@
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>215</v>
@@ -5025,7 +5031,7 @@
         <v>52</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>216</v>
@@ -5034,12 +5040,12 @@
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>217</v>
@@ -5048,7 +5054,7 @@
         <v>52</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>218</v>
@@ -5057,47 +5063,47 @@
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D177" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E177" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E177" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>55</v>
+        <v>208</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
@@ -5108,19 +5114,19 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
@@ -5131,19 +5137,19 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
@@ -5154,19 +5160,19 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
@@ -5177,19 +5183,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
@@ -5200,19 +5206,19 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>54</v>
+        <v>191</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
@@ -5223,19 +5229,19 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>194</v>
+        <v>54</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
@@ -5246,19 +5252,19 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>57</v>
+        <v>194</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
@@ -5269,19 +5275,19 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>197</v>
+        <v>57</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
@@ -5292,19 +5298,19 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
@@ -5315,19 +5321,19 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
@@ -5341,22 +5347,22 @@
         <v>221</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>222</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>223</v>
+        <v>55</v>
       </c>
     </row>
     <row r="190">
@@ -5364,3903 +5370,3903 @@
         <v>221</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>222</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>223</v>
+        <v>55</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D196" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B196" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D196" s="2" t="s">
+      <c r="E196" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G196" s="2" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D197" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B197" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D197" s="2" t="s">
+      <c r="E197" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G197" s="2" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D203" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B203" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D203" s="2" t="s">
+      <c r="E203" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G203" s="2" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D204" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B204" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D204" s="2" t="s">
+      <c r="E204" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G204" s="2" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D210" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D210" s="2" t="s">
+      <c r="E210" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F210" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G210" s="2" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D211" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B211" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D211" s="2" t="s">
+      <c r="E211" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G211" s="2" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D217" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B217" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D217" s="2" t="s">
+      <c r="E217" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G217" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G217" s="2" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D218" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B218" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D218" s="2" t="s">
+      <c r="E218" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F218" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G218" s="2" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D224" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B224" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D224" s="2" t="s">
+      <c r="E224" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G224" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="F224" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G224" s="2" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D225" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G225" s="2" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E226" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B226" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>245</v>
-      </c>
       <c r="F226" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>90</v>
+        <v>248</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>92</v>
+        <v>249</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B230" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B230" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="C230" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D230" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E230" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="E230" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F230" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D255" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B255" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D255" s="2" t="s">
+      <c r="E255" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F255" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G255" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="E255" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F255" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G255" s="2" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D256" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B256" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D256" s="2" t="s">
+      <c r="E256" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F256" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G256" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="E256" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F256" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G256" s="2" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D281" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B281" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D281" s="2" t="s">
+      <c r="E281" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F281" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G281" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="E281" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F281" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G281" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D282" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B282" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D282" s="2" t="s">
+      <c r="E282" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F282" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G282" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="E282" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F282" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G282" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F295" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F297" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F299" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F300" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F301" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F302" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F303" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F304" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F305" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F306" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D307" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B307" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D307" s="2" t="s">
+      <c r="E307" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F307" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G307" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="E307" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F307" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G307" s="2" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D308" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B308" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C308" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D308" s="2" t="s">
+      <c r="E308" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F308" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G308" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="E308" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F308" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G308" s="2" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F309" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F310" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F311" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F312" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F313" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F316" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F317" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G317" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F318" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F319" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F320" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F321" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F322" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F323" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G323" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F324" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G324" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F325" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G325" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F326" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G326" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F327" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F328" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G328" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F329" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F330" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G330" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F331" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G331" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F332" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G332" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D333" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B333" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C333" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D333" s="2" t="s">
+      <c r="E333" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F333" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G333" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="E333" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F333" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G333" s="2" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D334" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B334" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C334" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D334" s="2" t="s">
+      <c r="E334" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F334" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G334" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="E334" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F334" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G334" s="2" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F335" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F336" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G336" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F337" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F338" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F339" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G339" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F340" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G340" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F341" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G341" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F342" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F343" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F344" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F345" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F346" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F347" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F348" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G348" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F349" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G349" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F350" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G350" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F351" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G351" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F352" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G352" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F353" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G353" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F354" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G354" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F355" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G355" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F356" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F357" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F358" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G358" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D359" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B359" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C359" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D359" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="E359" s="2" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="F359" s="2" t="s">
         <v>10</v>
@@ -9271,19 +9277,19 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D360" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B360" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C360" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D360" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="E360" s="2" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="F360" s="2" t="s">
         <v>10</v>
@@ -9294,554 +9300,554 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D361" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B361" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C361" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D361" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="E361" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F361" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G361" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D362" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B362" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C362" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D362" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="E362" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F362" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G362" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D363" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B363" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C363" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D363" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="E363" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F363" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G363" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D364" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B364" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C364" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D364" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="E364" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F364" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G364" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D365" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B365" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C365" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D365" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="E365" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F365" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G365" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D366" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B366" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C366" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D366" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="E366" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F366" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G366" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D367" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B367" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C367" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D367" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="E367" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F367" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G367" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D368" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B368" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C368" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D368" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="E368" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F368" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G368" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D369" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B369" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C369" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D369" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="E369" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F369" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G369" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D370" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B370" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C370" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D370" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="E370" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F370" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G370" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D371" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B371" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C371" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D371" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="E371" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F371" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G371" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D372" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B372" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C372" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D372" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="E372" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F372" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G372" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D373" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B373" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C373" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D373" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="E373" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F373" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G373" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D374" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B374" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C374" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D374" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="E374" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F374" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G374" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D375" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B375" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C375" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D375" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="E375" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F375" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G375" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D376" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B376" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C376" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D376" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="E376" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F376" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G376" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D377" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B377" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C377" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D377" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="E377" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F377" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G377" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D378" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B378" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C378" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D378" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="E378" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F378" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G378" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D379" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B379" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C379" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D379" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="E379" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F379" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G379" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D380" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B380" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C380" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D380" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="E380" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F380" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G380" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D381" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B381" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C381" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D381" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="E381" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F381" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G381" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D382" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B382" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C382" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D382" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="E382" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F382" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G382" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D383" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B383" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C383" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D383" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="E383" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F383" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G383" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D384" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B384" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C384" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D384" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="E384" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F384" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G384" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="385">
@@ -9849,22 +9855,22 @@
         <v>267</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D385" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E385" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F385" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G385" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="E385" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F385" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G385" s="2" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="386">
@@ -9872,752 +9878,752 @@
         <v>267</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>207</v>
+        <v>141</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D386" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E386" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F386" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G386" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="E386" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F386" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G386" s="2" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F387" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G387" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F388" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G388" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E389" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F389" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G389" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F390" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G390" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E391" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F391" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G391" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D392" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B392" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C392" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D392" s="2" t="s">
+      <c r="E392" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F392" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G392" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="E392" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F392" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G392" s="2" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D393" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B393" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C393" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D393" s="2" t="s">
+      <c r="E393" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F393" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G393" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="E393" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F393" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G393" s="2" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E394" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F394" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G394" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E395" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F395" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G395" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F396" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G396" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E397" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F397" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G397" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F398" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G398" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E399" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F399" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G399" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E400" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F400" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G400" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E401" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F401" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G401" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E402" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F402" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G402" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E403" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F403" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G403" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F404" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G404" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E405" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F405" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G405" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E406" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F406" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G406" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E407" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F407" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G407" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E408" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F408" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G408" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E409" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F409" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G409" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E410" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F410" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G410" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E411" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F411" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G411" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E412" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F412" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G412" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E413" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F413" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G413" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E414" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F414" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G414" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E415" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F415" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G415" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E416" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F416" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G416" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E417" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F417" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G417" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C418" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D418" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B418" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C418" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D418" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="E418" s="2" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="F418" s="2" t="s">
         <v>10</v>
@@ -10628,19 +10634,19 @@
     </row>
     <row r="419">
       <c r="A419" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D419" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B419" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C419" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D419" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="E419" s="2" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="F419" s="2" t="s">
         <v>10</v>
@@ -10651,554 +10657,554 @@
     </row>
     <row r="420">
       <c r="A420" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D420" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B420" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C420" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D420" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="E420" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F420" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G420" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D421" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B421" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C421" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D421" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="E421" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F421" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G421" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C422" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D422" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B422" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C422" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D422" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="E422" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F422" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G422" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D423" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B423" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C423" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D423" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="E423" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F423" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G423" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D424" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B424" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C424" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D424" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="E424" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F424" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G424" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C425" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D425" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B425" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C425" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D425" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="E425" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F425" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G425" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D426" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B426" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C426" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D426" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="E426" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F426" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G426" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D427" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B427" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C427" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D427" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="E427" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F427" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G427" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C428" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D428" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B428" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C428" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D428" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="E428" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F428" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G428" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D429" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B429" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C429" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D429" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="E429" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F429" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G429" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D430" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B430" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C430" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D430" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="E430" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F430" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G430" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D431" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B431" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C431" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D431" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="E431" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F431" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G431" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C432" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D432" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B432" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C432" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D432" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="E432" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F432" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G432" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D433" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B433" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C433" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D433" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="E433" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F433" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G433" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D434" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B434" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C434" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D434" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="E434" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F434" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G434" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C435" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D435" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B435" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C435" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D435" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="E435" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F435" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G435" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D436" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B436" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C436" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D436" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="E436" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F436" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G436" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C437" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D437" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B437" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C437" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D437" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="E437" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F437" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G437" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C438" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D438" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B438" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C438" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D438" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="E438" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F438" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G438" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C439" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D439" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B439" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C439" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D439" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="E439" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F439" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G439" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C440" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D440" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B440" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C440" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D440" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="E440" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F440" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G440" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C441" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D441" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B441" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C441" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D441" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="E441" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F441" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G441" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B442" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C442" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D442" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B442" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C442" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D442" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="E442" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F442" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G442" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C443" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D443" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B443" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C443" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D443" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="E443" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F443" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G443" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="444">
@@ -11206,22 +11212,22 @@
         <v>275</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D444" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E444" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F444" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G444" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="E444" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F444" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G444" s="2" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="445">
@@ -11229,191 +11235,191 @@
         <v>275</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>207</v>
+        <v>141</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D445" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E445" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F445" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G445" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="E445" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F445" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G445" s="2" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E446" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F446" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G446" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E447" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F447" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G447" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E448" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F448" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G448" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E449" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F449" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G449" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E450" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F450" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G450" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C451" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D451" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B451" s="2" t="s">
+      <c r="E451" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F451" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G451" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="C451" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D451" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E451" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="F451" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G451" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C452" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D452" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B452" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C452" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D452" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="E452" s="2" t="s">
-        <v>282</v>
+        <v>220</v>
       </c>
       <c r="F452" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G452" s="2" t="s">
-        <v>55</v>
+        <v>279</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>52</v>
@@ -11422,7 +11428,7 @@
         <v>75</v>
       </c>
       <c r="E453" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F453" s="2" t="s">
         <v>10</v>
@@ -11433,10 +11439,10 @@
     </row>
     <row r="454">
       <c r="A454" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>52</v>
@@ -11445,7 +11451,7 @@
         <v>75</v>
       </c>
       <c r="E454" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F454" s="2" t="s">
         <v>10</v>
@@ -11456,10 +11462,10 @@
     </row>
     <row r="455">
       <c r="A455" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C455" s="2" t="s">
         <v>52</v>
@@ -11468,7 +11474,7 @@
         <v>75</v>
       </c>
       <c r="E455" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F455" s="2" t="s">
         <v>10</v>
@@ -11479,10 +11485,10 @@
     </row>
     <row r="456">
       <c r="A456" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>52</v>
@@ -11491,7 +11497,7 @@
         <v>75</v>
       </c>
       <c r="E456" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F456" s="2" t="s">
         <v>10</v>
@@ -11502,10 +11508,10 @@
     </row>
     <row r="457">
       <c r="A457" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>52</v>
@@ -11514,7 +11520,7 @@
         <v>75</v>
       </c>
       <c r="E457" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F457" s="2" t="s">
         <v>10</v>
@@ -11525,19 +11531,19 @@
     </row>
     <row r="458">
       <c r="A458" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>237</v>
+        <v>75</v>
       </c>
       <c r="E458" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F458" s="2" t="s">
         <v>10</v>
@@ -11548,19 +11554,19 @@
     </row>
     <row r="459">
       <c r="A459" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>237</v>
+        <v>75</v>
       </c>
       <c r="E459" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F459" s="2" t="s">
         <v>10</v>
@@ -11571,19 +11577,19 @@
     </row>
     <row r="460">
       <c r="A460" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>75</v>
+        <v>239</v>
       </c>
       <c r="E460" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F460" s="2" t="s">
         <v>10</v>
@@ -11594,19 +11600,19 @@
     </row>
     <row r="461">
       <c r="A461" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C461" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D461" s="2" t="s">
-        <v>75</v>
+        <v>239</v>
       </c>
       <c r="E461" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F461" s="2" t="s">
         <v>10</v>
@@ -11617,19 +11623,19 @@
     </row>
     <row r="462">
       <c r="A462" s="2" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>303</v>
+        <v>75</v>
       </c>
       <c r="E462" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F462" s="2" t="s">
         <v>10</v>
@@ -11640,19 +11646,19 @@
     </row>
     <row r="463">
       <c r="A463" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B463" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B463" s="2" t="s">
-        <v>305</v>
-      </c>
       <c r="C463" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>303</v>
+        <v>75</v>
       </c>
       <c r="E463" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F463" s="2" t="s">
         <v>10</v>
@@ -11663,24 +11669,70 @@
     </row>
     <row r="464">
       <c r="A464" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B464" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C464" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D464" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E464" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F464" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G464" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B465" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C464" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D464" s="2" t="s">
+      <c r="C465" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D465" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E465" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F465" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G465" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="E464" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="F464" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G464" s="2" t="s">
+      <c r="B466" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C466" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D466" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E466" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F466" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G466" s="2" t="s">
         <v>55</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_007.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3262" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3269" uniqueCount="313">
   <si>
     <t>Sezione</t>
   </si>
@@ -255,6 +255,12 @@
   </si>
   <si>
     <t>minutoEvento</t>
+  </si>
+  <si>
+    <t>Presentazione documenti</t>
+  </si>
+  <si>
+    <t>datiProdotti</t>
   </si>
   <si>
     <t>Dichiarante</t>
@@ -1003,7 +1009,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H466"/>
+  <dimension ref="A1:H467"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2087,7 +2093,7 @@
         <v>52</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>82</v>
@@ -2147,10 +2153,10 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>52</v>
@@ -2159,7 +2165,7 @@
         <v>75</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -2170,7 +2176,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>90</v>
@@ -2179,10 +2185,10 @@
         <v>52</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -2193,16 +2199,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>94</v>
@@ -2216,16 +2222,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>96</v>
@@ -2239,7 +2245,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>97</v>
@@ -2248,7 +2254,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>98</v>
@@ -2262,7 +2268,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>99</v>
@@ -2271,7 +2277,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>100</v>
@@ -2285,7 +2291,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>101</v>
@@ -2294,7 +2300,7 @@
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>102</v>
@@ -2308,7 +2314,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>103</v>
@@ -2317,7 +2323,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>104</v>
@@ -2331,7 +2337,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>105</v>
@@ -2340,7 +2346,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>106</v>
@@ -2354,7 +2360,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>107</v>
@@ -2363,7 +2369,7 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>108</v>
@@ -2377,7 +2383,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>109</v>
@@ -2386,7 +2392,7 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>110</v>
@@ -2400,7 +2406,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>111</v>
@@ -2409,7 +2415,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>112</v>
@@ -2423,7 +2429,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>113</v>
@@ -2432,7 +2438,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>114</v>
@@ -2446,7 +2452,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>115</v>
@@ -2455,7 +2461,7 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>116</v>
@@ -2469,7 +2475,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>117</v>
@@ -2478,7 +2484,7 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>118</v>
@@ -2492,7 +2498,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>119</v>
@@ -2501,7 +2507,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>120</v>
@@ -2515,7 +2521,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>121</v>
@@ -2524,7 +2530,7 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>122</v>
@@ -2538,7 +2544,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>123</v>
@@ -2547,7 +2553,7 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>124</v>
@@ -2561,7 +2567,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>125</v>
@@ -2570,7 +2576,7 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>126</v>
@@ -2584,7 +2590,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>127</v>
@@ -2593,7 +2599,7 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>128</v>
@@ -2607,7 +2613,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>129</v>
@@ -2616,7 +2622,7 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>130</v>
@@ -2630,7 +2636,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>131</v>
@@ -2639,7 +2645,7 @@
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>132</v>
@@ -2653,7 +2659,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>133</v>
@@ -2662,7 +2668,7 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>134</v>
@@ -2676,7 +2682,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>135</v>
@@ -2685,7 +2691,7 @@
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>136</v>
@@ -2699,16 +2705,16 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>138</v>
@@ -2722,7 +2728,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>139</v>
@@ -2731,7 +2737,7 @@
         <v>52</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>140</v>
@@ -2745,7 +2751,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>141</v>
@@ -2754,7 +2760,7 @@
         <v>52</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>142</v>
@@ -2768,22 +2774,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F77" s="2" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>55</v>
@@ -2791,22 +2797,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>94</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>55</v>
@@ -2814,16 +2820,16 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>96</v>
@@ -2837,16 +2843,16 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>98</v>
@@ -2860,7 +2866,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>99</v>
@@ -2869,7 +2875,7 @@
         <v>52</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>100</v>
@@ -2883,7 +2889,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>101</v>
@@ -2892,7 +2898,7 @@
         <v>52</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>102</v>
@@ -2906,7 +2912,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>103</v>
@@ -2915,7 +2921,7 @@
         <v>52</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>104</v>
@@ -2929,16 +2935,16 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>106</v>
@@ -2952,7 +2958,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>107</v>
@@ -2961,7 +2967,7 @@
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>108</v>
@@ -2975,7 +2981,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>109</v>
@@ -2984,7 +2990,7 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>110</v>
@@ -2998,7 +3004,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>111</v>
@@ -3007,7 +3013,7 @@
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>112</v>
@@ -3021,7 +3027,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>113</v>
@@ -3030,7 +3036,7 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>114</v>
@@ -3044,16 +3050,16 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>116</v>
@@ -3067,7 +3073,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>117</v>
@@ -3076,7 +3082,7 @@
         <v>52</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>118</v>
@@ -3090,16 +3096,16 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>120</v>
@@ -3113,7 +3119,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>121</v>
@@ -3122,7 +3128,7 @@
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>122</v>
@@ -3136,7 +3142,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>123</v>
@@ -3145,7 +3151,7 @@
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>124</v>
@@ -3159,7 +3165,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>125</v>
@@ -3168,7 +3174,7 @@
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>126</v>
@@ -3182,7 +3188,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>127</v>
@@ -3191,7 +3197,7 @@
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>128</v>
@@ -3205,7 +3211,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>129</v>
@@ -3214,7 +3220,7 @@
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>130</v>
@@ -3228,7 +3234,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>131</v>
@@ -3237,7 +3243,7 @@
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>132</v>
@@ -3251,7 +3257,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>133</v>
@@ -3260,7 +3266,7 @@
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>134</v>
@@ -3274,7 +3280,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>135</v>
@@ -3283,7 +3289,7 @@
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>136</v>
@@ -3297,16 +3303,16 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>138</v>
@@ -3320,7 +3326,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>139</v>
@@ -3329,7 +3335,7 @@
         <v>52</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>140</v>
@@ -3343,7 +3349,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>141</v>
@@ -3352,7 +3358,7 @@
         <v>52</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>142</v>
@@ -3366,19 +3372,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="C103" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
+      <c r="E103" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -3389,7 +3395,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>148</v>
@@ -3398,7 +3404,7 @@
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>149</v>
@@ -3412,7 +3418,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>150</v>
@@ -3421,7 +3427,7 @@
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>151</v>
@@ -3435,7 +3441,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>152</v>
@@ -3444,7 +3450,7 @@
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>153</v>
@@ -3458,22 +3464,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E107" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F107" s="2" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>55</v>
@@ -3481,22 +3487,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>94</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>55</v>
@@ -3504,16 +3510,16 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>96</v>
@@ -3527,16 +3533,16 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>98</v>
@@ -3550,7 +3556,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>99</v>
@@ -3559,7 +3565,7 @@
         <v>52</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>100</v>
@@ -3573,7 +3579,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>101</v>
@@ -3582,7 +3588,7 @@
         <v>52</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>102</v>
@@ -3596,7 +3602,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>103</v>
@@ -3605,7 +3611,7 @@
         <v>52</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>104</v>
@@ -3619,16 +3625,16 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>106</v>
@@ -3642,7 +3648,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>107</v>
@@ -3651,7 +3657,7 @@
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>108</v>
@@ -3665,7 +3671,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>109</v>
@@ -3674,7 +3680,7 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>110</v>
@@ -3688,7 +3694,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>111</v>
@@ -3697,7 +3703,7 @@
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>112</v>
@@ -3711,7 +3717,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>113</v>
@@ -3720,7 +3726,7 @@
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>114</v>
@@ -3734,16 +3740,16 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>116</v>
@@ -3757,7 +3763,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>117</v>
@@ -3766,7 +3772,7 @@
         <v>52</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>118</v>
@@ -3780,16 +3786,16 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>120</v>
@@ -3803,7 +3809,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>121</v>
@@ -3812,7 +3818,7 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>122</v>
@@ -3826,7 +3832,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>123</v>
@@ -3835,7 +3841,7 @@
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>124</v>
@@ -3849,7 +3855,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>125</v>
@@ -3858,7 +3864,7 @@
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>126</v>
@@ -3872,7 +3878,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>127</v>
@@ -3881,7 +3887,7 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>128</v>
@@ -3895,7 +3901,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>129</v>
@@ -3904,7 +3910,7 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>130</v>
@@ -3918,7 +3924,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>131</v>
@@ -3927,7 +3933,7 @@
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>132</v>
@@ -3941,7 +3947,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>133</v>
@@ -3950,7 +3956,7 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>134</v>
@@ -3964,7 +3970,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>135</v>
@@ -3973,7 +3979,7 @@
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>136</v>
@@ -3987,16 +3993,16 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>138</v>
@@ -4010,7 +4016,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>139</v>
@@ -4019,7 +4025,7 @@
         <v>52</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>140</v>
@@ -4033,7 +4039,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>141</v>
@@ -4042,7 +4048,7 @@
         <v>52</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>142</v>
@@ -4056,19 +4062,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -4079,7 +4085,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>148</v>
@@ -4088,7 +4094,7 @@
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>149</v>
@@ -4102,7 +4108,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>150</v>
@@ -4111,7 +4117,7 @@
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>151</v>
@@ -4125,7 +4131,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>152</v>
@@ -4134,7 +4140,7 @@
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>153</v>
@@ -4151,39 +4157,39 @@
         <v>156</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="E137" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>159</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -4194,16 +4200,16 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>163</v>
@@ -4217,19 +4223,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>66</v>
+        <v>164</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>67</v>
+        <v>165</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -4240,19 +4246,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -4263,19 +4269,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>71</v>
+        <v>166</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -4286,19 +4292,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>165</v>
+        <v>71</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -4309,16 +4315,16 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>166</v>
+        <v>72</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>167</v>
@@ -4332,7 +4338,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>168</v>
@@ -4341,7 +4347,7 @@
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>169</v>
@@ -4355,7 +4361,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>170</v>
@@ -4364,7 +4370,7 @@
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>171</v>
@@ -4378,7 +4384,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>172</v>
@@ -4387,7 +4393,7 @@
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>173</v>
@@ -4401,39 +4407,39 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="C148" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E148" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>176</v>
+        <v>11</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>163</v>
@@ -4442,113 +4448,113 @@
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="E150" s="2" t="s">
-        <v>67</v>
+        <v>165</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>71</v>
+        <v>166</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>165</v>
+        <v>71</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>166</v>
+        <v>72</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>167</v>
@@ -4557,12 +4563,12 @@
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>168</v>
@@ -4571,7 +4577,7 @@
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>169</v>
@@ -4580,12 +4586,12 @@
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>170</v>
@@ -4594,7 +4600,7 @@
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>171</v>
@@ -4603,12 +4609,12 @@
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>172</v>
@@ -4617,7 +4623,7 @@
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>173</v>
@@ -4626,44 +4632,44 @@
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>183</v>
@@ -4677,7 +4683,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>184</v>
@@ -4686,7 +4692,7 @@
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>185</v>
@@ -4700,7 +4706,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>186</v>
@@ -4709,7 +4715,7 @@
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>187</v>
@@ -4723,7 +4729,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>188</v>
@@ -4732,7 +4738,7 @@
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>189</v>
@@ -4746,7 +4752,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>190</v>
@@ -4755,7 +4761,7 @@
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>191</v>
@@ -4769,7 +4775,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>192</v>
@@ -4778,10 +4784,10 @@
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>54</v>
+        <v>193</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4792,19 +4798,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>194</v>
+        <v>54</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4815,7 +4821,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>195</v>
@@ -4824,10 +4830,10 @@
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>57</v>
+        <v>196</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4838,19 +4844,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>197</v>
+        <v>57</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4861,7 +4867,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>198</v>
@@ -4870,7 +4876,7 @@
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>199</v>
@@ -4884,7 +4890,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>200</v>
@@ -4893,7 +4899,7 @@
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>201</v>
@@ -4907,7 +4913,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>202</v>
@@ -4916,7 +4922,7 @@
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>203</v>
@@ -4930,53 +4936,53 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E171" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C171" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>208</v>
+        <v>55</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C172" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E172" s="2" t="s">
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G172" s="2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>211</v>
@@ -4985,7 +4991,7 @@
         <v>52</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>212</v>
@@ -4994,12 +5000,12 @@
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>213</v>
@@ -5008,7 +5014,7 @@
         <v>52</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>214</v>
@@ -5017,12 +5023,12 @@
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>215</v>
@@ -5031,7 +5037,7 @@
         <v>52</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>216</v>
@@ -5040,12 +5046,12 @@
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>217</v>
@@ -5054,7 +5060,7 @@
         <v>52</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>218</v>
@@ -5063,12 +5069,12 @@
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>219</v>
@@ -5077,7 +5083,7 @@
         <v>52</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>220</v>
@@ -5086,44 +5092,44 @@
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B178" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="C178" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D178" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E178" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E178" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>55</v>
+        <v>210</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>183</v>
@@ -5137,7 +5143,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>184</v>
@@ -5146,7 +5152,7 @@
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>185</v>
@@ -5160,7 +5166,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>186</v>
@@ -5169,7 +5175,7 @@
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>187</v>
@@ -5183,7 +5189,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>188</v>
@@ -5192,7 +5198,7 @@
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>189</v>
@@ -5206,7 +5212,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>190</v>
@@ -5215,7 +5221,7 @@
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>191</v>
@@ -5229,7 +5235,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>192</v>
@@ -5238,10 +5244,10 @@
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>54</v>
+        <v>193</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
@@ -5252,19 +5258,19 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>194</v>
+        <v>54</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
@@ -5275,7 +5281,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>195</v>
@@ -5284,10 +5290,10 @@
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>57</v>
+        <v>196</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
@@ -5298,19 +5304,19 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>197</v>
+        <v>57</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
@@ -5321,7 +5327,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>198</v>
@@ -5330,7 +5336,7 @@
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>199</v>
@@ -5344,7 +5350,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>200</v>
@@ -5353,7 +5359,7 @@
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>201</v>
@@ -5367,7 +5373,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>202</v>
@@ -5376,7 +5382,7 @@
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>203</v>
@@ -5393,50 +5399,50 @@
         <v>223</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>225</v>
+        <v>55</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B192" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E192" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>211</v>
@@ -5445,7 +5451,7 @@
         <v>52</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>212</v>
@@ -5454,12 +5460,12 @@
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>213</v>
@@ -5468,7 +5474,7 @@
         <v>52</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>214</v>
@@ -5477,12 +5483,12 @@
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>215</v>
@@ -5491,7 +5497,7 @@
         <v>52</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>216</v>
@@ -5500,12 +5506,12 @@
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>217</v>
@@ -5514,7 +5520,7 @@
         <v>52</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>218</v>
@@ -5523,12 +5529,12 @@
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>219</v>
@@ -5537,7 +5543,7 @@
         <v>52</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>220</v>
@@ -5546,58 +5552,58 @@
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D198" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B198" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D198" s="2" t="s">
+      <c r="E198" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B199" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E199" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C199" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>211</v>
@@ -5606,7 +5612,7 @@
         <v>52</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>212</v>
@@ -5615,12 +5621,12 @@
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>213</v>
@@ -5629,7 +5635,7 @@
         <v>52</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>214</v>
@@ -5638,12 +5644,12 @@
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>215</v>
@@ -5652,7 +5658,7 @@
         <v>52</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>216</v>
@@ -5661,12 +5667,12 @@
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>217</v>
@@ -5675,7 +5681,7 @@
         <v>52</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>218</v>
@@ -5684,12 +5690,12 @@
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>219</v>
@@ -5698,7 +5704,7 @@
         <v>52</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>220</v>
@@ -5707,58 +5713,58 @@
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D205" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B205" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D205" s="2" t="s">
+      <c r="E205" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G205" s="2" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B206" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E206" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>211</v>
@@ -5767,7 +5773,7 @@
         <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>212</v>
@@ -5776,12 +5782,12 @@
         <v>34</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>213</v>
@@ -5790,21 +5796,21 @@
         <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>214</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>215</v>
@@ -5813,7 +5819,7 @@
         <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>216</v>
@@ -5822,12 +5828,12 @@
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>217</v>
@@ -5836,7 +5842,7 @@
         <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>218</v>
@@ -5845,12 +5851,12 @@
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>219</v>
@@ -5859,7 +5865,7 @@
         <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>220</v>
@@ -5868,58 +5874,58 @@
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D212" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B212" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D212" s="2" t="s">
+      <c r="E212" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G212" s="2" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B213" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E213" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C213" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>211</v>
@@ -5928,7 +5934,7 @@
         <v>52</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>212</v>
@@ -5937,12 +5943,12 @@
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>213</v>
@@ -5951,7 +5957,7 @@
         <v>52</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>214</v>
@@ -5960,12 +5966,12 @@
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>215</v>
@@ -5974,7 +5980,7 @@
         <v>52</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>216</v>
@@ -5983,12 +5989,12 @@
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>217</v>
@@ -5997,7 +6003,7 @@
         <v>52</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>218</v>
@@ -6006,12 +6012,12 @@
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>219</v>
@@ -6020,7 +6026,7 @@
         <v>52</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>220</v>
@@ -6029,58 +6035,58 @@
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D219" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B219" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D219" s="2" t="s">
+      <c r="E219" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G219" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G219" s="2" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B220" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E220" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C220" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>211</v>
@@ -6089,7 +6095,7 @@
         <v>52</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>212</v>
@@ -6098,12 +6104,12 @@
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>213</v>
@@ -6112,7 +6118,7 @@
         <v>52</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>214</v>
@@ -6121,12 +6127,12 @@
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>215</v>
@@ -6135,7 +6141,7 @@
         <v>52</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>216</v>
@@ -6144,12 +6150,12 @@
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>217</v>
@@ -6158,7 +6164,7 @@
         <v>52</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>218</v>
@@ -6167,12 +6173,12 @@
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>219</v>
@@ -6181,7 +6187,7 @@
         <v>52</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>220</v>
@@ -6190,81 +6196,81 @@
         <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D226" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B226" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D226" s="2" t="s">
+      <c r="E226" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G226" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F226" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G226" s="2" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E227" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="F227" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G227" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="F227" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G227" s="2" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B228" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E228" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C228" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E228" s="2" t="s">
+      <c r="F228" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G228" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G228" s="2" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>248</v>
@@ -6273,7 +6279,7 @@
         <v>9</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>249</v>
@@ -6282,12 +6288,12 @@
         <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>250</v>
@@ -6296,7 +6302,7 @@
         <v>9</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>251</v>
@@ -6305,44 +6311,44 @@
         <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B231" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B231" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="C231" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D231" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E231" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="E231" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F231" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>94</v>
@@ -6351,21 +6357,21 @@
         <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>96</v>
@@ -6374,21 +6380,21 @@
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>98</v>
@@ -6397,12 +6403,12 @@
         <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>99</v>
@@ -6411,7 +6417,7 @@
         <v>52</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>100</v>
@@ -6420,12 +6426,12 @@
         <v>10</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>101</v>
@@ -6434,7 +6440,7 @@
         <v>52</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>102</v>
@@ -6443,12 +6449,12 @@
         <v>10</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>103</v>
@@ -6457,7 +6463,7 @@
         <v>52</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>104</v>
@@ -6466,21 +6472,21 @@
         <v>10</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>106</v>
@@ -6489,12 +6495,12 @@
         <v>10</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>107</v>
@@ -6503,7 +6509,7 @@
         <v>9</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>108</v>
@@ -6512,12 +6518,12 @@
         <v>10</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>109</v>
@@ -6526,7 +6532,7 @@
         <v>9</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>110</v>
@@ -6535,12 +6541,12 @@
         <v>10</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>111</v>
@@ -6549,7 +6555,7 @@
         <v>9</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>112</v>
@@ -6558,12 +6564,12 @@
         <v>10</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>113</v>
@@ -6572,7 +6578,7 @@
         <v>9</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>114</v>
@@ -6581,21 +6587,21 @@
         <v>10</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E243" s="2" t="s">
         <v>116</v>
@@ -6604,12 +6610,12 @@
         <v>10</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>117</v>
@@ -6618,7 +6624,7 @@
         <v>52</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>118</v>
@@ -6627,21 +6633,21 @@
         <v>10</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>120</v>
@@ -6650,12 +6656,12 @@
         <v>10</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>121</v>
@@ -6664,7 +6670,7 @@
         <v>9</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>122</v>
@@ -6673,12 +6679,12 @@
         <v>10</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>123</v>
@@ -6687,7 +6693,7 @@
         <v>9</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>124</v>
@@ -6696,12 +6702,12 @@
         <v>10</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>125</v>
@@ -6710,7 +6716,7 @@
         <v>9</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>126</v>
@@ -6719,12 +6725,12 @@
         <v>10</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>127</v>
@@ -6733,7 +6739,7 @@
         <v>9</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>128</v>
@@ -6742,12 +6748,12 @@
         <v>10</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>129</v>
@@ -6756,7 +6762,7 @@
         <v>9</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>130</v>
@@ -6765,12 +6771,12 @@
         <v>10</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>131</v>
@@ -6779,7 +6785,7 @@
         <v>9</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>132</v>
@@ -6788,12 +6794,12 @@
         <v>10</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>133</v>
@@ -6802,7 +6808,7 @@
         <v>9</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E252" s="2" t="s">
         <v>134</v>
@@ -6811,12 +6817,12 @@
         <v>10</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>135</v>
@@ -6825,7 +6831,7 @@
         <v>9</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>136</v>
@@ -6834,21 +6840,21 @@
         <v>10</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E254" s="2" t="s">
         <v>138</v>
@@ -6857,12 +6863,12 @@
         <v>10</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>139</v>
@@ -6871,7 +6877,7 @@
         <v>52</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>140</v>
@@ -6880,12 +6886,12 @@
         <v>10</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>141</v>
@@ -6894,7 +6900,7 @@
         <v>52</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E256" s="2" t="s">
         <v>142</v>
@@ -6903,44 +6909,44 @@
         <v>10</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D257" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B257" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D257" s="2" t="s">
+      <c r="E257" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F257" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G257" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="E257" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F257" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G257" s="2" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E258" s="2" t="s">
         <v>94</v>
@@ -6949,21 +6955,21 @@
         <v>10</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E259" s="2" t="s">
         <v>96</v>
@@ -6972,21 +6978,21 @@
         <v>10</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E260" s="2" t="s">
         <v>98</v>
@@ -6995,12 +7001,12 @@
         <v>10</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>99</v>
@@ -7009,7 +7015,7 @@
         <v>52</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E261" s="2" t="s">
         <v>100</v>
@@ -7018,12 +7024,12 @@
         <v>10</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>101</v>
@@ -7032,7 +7038,7 @@
         <v>52</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E262" s="2" t="s">
         <v>102</v>
@@ -7041,12 +7047,12 @@
         <v>10</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>103</v>
@@ -7055,7 +7061,7 @@
         <v>52</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E263" s="2" t="s">
         <v>104</v>
@@ -7064,21 +7070,21 @@
         <v>10</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E264" s="2" t="s">
         <v>106</v>
@@ -7087,12 +7093,12 @@
         <v>10</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>107</v>
@@ -7101,7 +7107,7 @@
         <v>9</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E265" s="2" t="s">
         <v>108</v>
@@ -7110,12 +7116,12 @@
         <v>10</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>109</v>
@@ -7124,7 +7130,7 @@
         <v>9</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E266" s="2" t="s">
         <v>110</v>
@@ -7133,12 +7139,12 @@
         <v>10</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>111</v>
@@ -7147,7 +7153,7 @@
         <v>9</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E267" s="2" t="s">
         <v>112</v>
@@ -7156,12 +7162,12 @@
         <v>10</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>113</v>
@@ -7170,7 +7176,7 @@
         <v>9</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E268" s="2" t="s">
         <v>114</v>
@@ -7179,21 +7185,21 @@
         <v>10</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E269" s="2" t="s">
         <v>116</v>
@@ -7202,12 +7208,12 @@
         <v>10</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>117</v>
@@ -7216,7 +7222,7 @@
         <v>52</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E270" s="2" t="s">
         <v>118</v>
@@ -7225,21 +7231,21 @@
         <v>10</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E271" s="2" t="s">
         <v>120</v>
@@ -7248,12 +7254,12 @@
         <v>10</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>121</v>
@@ -7262,7 +7268,7 @@
         <v>9</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E272" s="2" t="s">
         <v>122</v>
@@ -7271,12 +7277,12 @@
         <v>10</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>123</v>
@@ -7285,7 +7291,7 @@
         <v>9</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E273" s="2" t="s">
         <v>124</v>
@@ -7294,12 +7300,12 @@
         <v>10</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>125</v>
@@ -7308,7 +7314,7 @@
         <v>9</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E274" s="2" t="s">
         <v>126</v>
@@ -7317,12 +7323,12 @@
         <v>10</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>127</v>
@@ -7331,7 +7337,7 @@
         <v>9</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E275" s="2" t="s">
         <v>128</v>
@@ -7340,12 +7346,12 @@
         <v>10</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>129</v>
@@ -7354,7 +7360,7 @@
         <v>9</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E276" s="2" t="s">
         <v>130</v>
@@ -7363,12 +7369,12 @@
         <v>10</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>131</v>
@@ -7377,7 +7383,7 @@
         <v>9</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E277" s="2" t="s">
         <v>132</v>
@@ -7386,12 +7392,12 @@
         <v>10</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>133</v>
@@ -7400,7 +7406,7 @@
         <v>9</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E278" s="2" t="s">
         <v>134</v>
@@ -7409,12 +7415,12 @@
         <v>10</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>135</v>
@@ -7423,7 +7429,7 @@
         <v>9</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E279" s="2" t="s">
         <v>136</v>
@@ -7432,21 +7438,21 @@
         <v>10</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E280" s="2" t="s">
         <v>138</v>
@@ -7455,12 +7461,12 @@
         <v>10</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>139</v>
@@ -7469,7 +7475,7 @@
         <v>52</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E281" s="2" t="s">
         <v>140</v>
@@ -7478,12 +7484,12 @@
         <v>10</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>141</v>
@@ -7492,7 +7498,7 @@
         <v>52</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E282" s="2" t="s">
         <v>142</v>
@@ -7501,44 +7507,44 @@
         <v>10</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D283" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B283" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D283" s="2" t="s">
+      <c r="E283" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F283" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G283" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="E283" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F283" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G283" s="2" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E284" s="2" t="s">
         <v>94</v>
@@ -7547,21 +7553,21 @@
         <v>10</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E285" s="2" t="s">
         <v>96</v>
@@ -7570,21 +7576,21 @@
         <v>10</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E286" s="2" t="s">
         <v>98</v>
@@ -7593,12 +7599,12 @@
         <v>10</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>99</v>
@@ -7607,7 +7613,7 @@
         <v>52</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E287" s="2" t="s">
         <v>100</v>
@@ -7616,12 +7622,12 @@
         <v>10</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>101</v>
@@ -7630,7 +7636,7 @@
         <v>52</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E288" s="2" t="s">
         <v>102</v>
@@ -7639,12 +7645,12 @@
         <v>10</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>103</v>
@@ -7653,7 +7659,7 @@
         <v>52</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E289" s="2" t="s">
         <v>104</v>
@@ -7662,21 +7668,21 @@
         <v>10</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E290" s="2" t="s">
         <v>106</v>
@@ -7685,12 +7691,12 @@
         <v>10</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>107</v>
@@ -7699,7 +7705,7 @@
         <v>9</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E291" s="2" t="s">
         <v>108</v>
@@ -7708,12 +7714,12 @@
         <v>10</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>109</v>
@@ -7722,7 +7728,7 @@
         <v>9</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E292" s="2" t="s">
         <v>110</v>
@@ -7731,12 +7737,12 @@
         <v>10</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>111</v>
@@ -7745,7 +7751,7 @@
         <v>9</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E293" s="2" t="s">
         <v>112</v>
@@ -7754,12 +7760,12 @@
         <v>10</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>113</v>
@@ -7768,7 +7774,7 @@
         <v>9</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E294" s="2" t="s">
         <v>114</v>
@@ -7777,21 +7783,21 @@
         <v>10</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E295" s="2" t="s">
         <v>116</v>
@@ -7800,12 +7806,12 @@
         <v>10</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>117</v>
@@ -7814,7 +7820,7 @@
         <v>52</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E296" s="2" t="s">
         <v>118</v>
@@ -7823,21 +7829,21 @@
         <v>10</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E297" s="2" t="s">
         <v>120</v>
@@ -7846,12 +7852,12 @@
         <v>10</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>121</v>
@@ -7860,7 +7866,7 @@
         <v>9</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E298" s="2" t="s">
         <v>122</v>
@@ -7869,12 +7875,12 @@
         <v>10</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>123</v>
@@ -7883,7 +7889,7 @@
         <v>9</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E299" s="2" t="s">
         <v>124</v>
@@ -7892,12 +7898,12 @@
         <v>10</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>125</v>
@@ -7906,7 +7912,7 @@
         <v>9</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E300" s="2" t="s">
         <v>126</v>
@@ -7915,12 +7921,12 @@
         <v>10</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>127</v>
@@ -7929,7 +7935,7 @@
         <v>9</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E301" s="2" t="s">
         <v>128</v>
@@ -7938,12 +7944,12 @@
         <v>10</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>129</v>
@@ -7952,7 +7958,7 @@
         <v>9</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E302" s="2" t="s">
         <v>130</v>
@@ -7961,12 +7967,12 @@
         <v>10</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>131</v>
@@ -7975,7 +7981,7 @@
         <v>9</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E303" s="2" t="s">
         <v>132</v>
@@ -7984,12 +7990,12 @@
         <v>10</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>133</v>
@@ -7998,7 +8004,7 @@
         <v>9</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E304" s="2" t="s">
         <v>134</v>
@@ -8007,12 +8013,12 @@
         <v>10</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>135</v>
@@ -8021,7 +8027,7 @@
         <v>9</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E305" s="2" t="s">
         <v>136</v>
@@ -8030,21 +8036,21 @@
         <v>10</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E306" s="2" t="s">
         <v>138</v>
@@ -8053,12 +8059,12 @@
         <v>10</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>139</v>
@@ -8067,7 +8073,7 @@
         <v>52</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E307" s="2" t="s">
         <v>140</v>
@@ -8076,12 +8082,12 @@
         <v>10</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>141</v>
@@ -8090,7 +8096,7 @@
         <v>52</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E308" s="2" t="s">
         <v>142</v>
@@ -8099,44 +8105,44 @@
         <v>10</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D309" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B309" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C309" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D309" s="2" t="s">
+      <c r="E309" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F309" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G309" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="E309" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F309" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G309" s="2" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E310" s="2" t="s">
         <v>94</v>
@@ -8145,21 +8151,21 @@
         <v>10</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E311" s="2" t="s">
         <v>96</v>
@@ -8168,21 +8174,21 @@
         <v>10</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E312" s="2" t="s">
         <v>98</v>
@@ -8191,12 +8197,12 @@
         <v>10</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>99</v>
@@ -8205,7 +8211,7 @@
         <v>52</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E313" s="2" t="s">
         <v>100</v>
@@ -8214,12 +8220,12 @@
         <v>10</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>101</v>
@@ -8228,7 +8234,7 @@
         <v>52</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E314" s="2" t="s">
         <v>102</v>
@@ -8237,12 +8243,12 @@
         <v>10</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>103</v>
@@ -8251,7 +8257,7 @@
         <v>52</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E315" s="2" t="s">
         <v>104</v>
@@ -8260,21 +8266,21 @@
         <v>10</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E316" s="2" t="s">
         <v>106</v>
@@ -8283,12 +8289,12 @@
         <v>10</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>107</v>
@@ -8297,7 +8303,7 @@
         <v>9</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E317" s="2" t="s">
         <v>108</v>
@@ -8306,12 +8312,12 @@
         <v>10</v>
       </c>
       <c r="G317" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>109</v>
@@ -8320,7 +8326,7 @@
         <v>9</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E318" s="2" t="s">
         <v>110</v>
@@ -8329,12 +8335,12 @@
         <v>10</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>111</v>
@@ -8343,7 +8349,7 @@
         <v>9</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E319" s="2" t="s">
         <v>112</v>
@@ -8352,12 +8358,12 @@
         <v>10</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>113</v>
@@ -8366,7 +8372,7 @@
         <v>9</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E320" s="2" t="s">
         <v>114</v>
@@ -8375,21 +8381,21 @@
         <v>10</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E321" s="2" t="s">
         <v>116</v>
@@ -8398,12 +8404,12 @@
         <v>10</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>117</v>
@@ -8412,7 +8418,7 @@
         <v>52</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E322" s="2" t="s">
         <v>118</v>
@@ -8421,21 +8427,21 @@
         <v>10</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E323" s="2" t="s">
         <v>120</v>
@@ -8444,12 +8450,12 @@
         <v>10</v>
       </c>
       <c r="G323" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>121</v>
@@ -8458,7 +8464,7 @@
         <v>9</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E324" s="2" t="s">
         <v>122</v>
@@ -8467,12 +8473,12 @@
         <v>10</v>
       </c>
       <c r="G324" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>123</v>
@@ -8481,7 +8487,7 @@
         <v>9</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E325" s="2" t="s">
         <v>124</v>
@@ -8490,12 +8496,12 @@
         <v>10</v>
       </c>
       <c r="G325" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>125</v>
@@ -8504,7 +8510,7 @@
         <v>9</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E326" s="2" t="s">
         <v>126</v>
@@ -8513,12 +8519,12 @@
         <v>10</v>
       </c>
       <c r="G326" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>127</v>
@@ -8527,7 +8533,7 @@
         <v>9</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E327" s="2" t="s">
         <v>128</v>
@@ -8536,12 +8542,12 @@
         <v>10</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>129</v>
@@ -8550,7 +8556,7 @@
         <v>9</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E328" s="2" t="s">
         <v>130</v>
@@ -8559,12 +8565,12 @@
         <v>10</v>
       </c>
       <c r="G328" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>131</v>
@@ -8573,7 +8579,7 @@
         <v>9</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E329" s="2" t="s">
         <v>132</v>
@@ -8582,12 +8588,12 @@
         <v>10</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>133</v>
@@ -8596,7 +8602,7 @@
         <v>9</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E330" s="2" t="s">
         <v>134</v>
@@ -8605,12 +8611,12 @@
         <v>10</v>
       </c>
       <c r="G330" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>135</v>
@@ -8619,7 +8625,7 @@
         <v>9</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E331" s="2" t="s">
         <v>136</v>
@@ -8628,21 +8634,21 @@
         <v>10</v>
       </c>
       <c r="G331" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E332" s="2" t="s">
         <v>138</v>
@@ -8651,12 +8657,12 @@
         <v>10</v>
       </c>
       <c r="G332" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>139</v>
@@ -8665,7 +8671,7 @@
         <v>52</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E333" s="2" t="s">
         <v>140</v>
@@ -8674,12 +8680,12 @@
         <v>10</v>
       </c>
       <c r="G333" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>141</v>
@@ -8688,7 +8694,7 @@
         <v>52</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E334" s="2" t="s">
         <v>142</v>
@@ -8697,44 +8703,44 @@
         <v>10</v>
       </c>
       <c r="G334" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D335" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B335" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C335" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D335" s="2" t="s">
+      <c r="E335" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F335" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G335" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="E335" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F335" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G335" s="2" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E336" s="2" t="s">
         <v>94</v>
@@ -8743,21 +8749,21 @@
         <v>10</v>
       </c>
       <c r="G336" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E337" s="2" t="s">
         <v>96</v>
@@ -8766,21 +8772,21 @@
         <v>10</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E338" s="2" t="s">
         <v>98</v>
@@ -8789,12 +8795,12 @@
         <v>10</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>99</v>
@@ -8803,7 +8809,7 @@
         <v>52</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E339" s="2" t="s">
         <v>100</v>
@@ -8812,12 +8818,12 @@
         <v>10</v>
       </c>
       <c r="G339" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>101</v>
@@ -8826,7 +8832,7 @@
         <v>52</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E340" s="2" t="s">
         <v>102</v>
@@ -8835,12 +8841,12 @@
         <v>10</v>
       </c>
       <c r="G340" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>103</v>
@@ -8849,7 +8855,7 @@
         <v>52</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E341" s="2" t="s">
         <v>104</v>
@@ -8858,21 +8864,21 @@
         <v>10</v>
       </c>
       <c r="G341" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E342" s="2" t="s">
         <v>106</v>
@@ -8881,12 +8887,12 @@
         <v>10</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>107</v>
@@ -8895,7 +8901,7 @@
         <v>9</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E343" s="2" t="s">
         <v>108</v>
@@ -8904,12 +8910,12 @@
         <v>10</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>109</v>
@@ -8918,7 +8924,7 @@
         <v>9</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E344" s="2" t="s">
         <v>110</v>
@@ -8927,12 +8933,12 @@
         <v>10</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>111</v>
@@ -8941,7 +8947,7 @@
         <v>9</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E345" s="2" t="s">
         <v>112</v>
@@ -8950,12 +8956,12 @@
         <v>10</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>113</v>
@@ -8964,7 +8970,7 @@
         <v>9</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E346" s="2" t="s">
         <v>114</v>
@@ -8973,21 +8979,21 @@
         <v>10</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E347" s="2" t="s">
         <v>116</v>
@@ -8996,12 +9002,12 @@
         <v>10</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>117</v>
@@ -9010,7 +9016,7 @@
         <v>52</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E348" s="2" t="s">
         <v>118</v>
@@ -9019,21 +9025,21 @@
         <v>10</v>
       </c>
       <c r="G348" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E349" s="2" t="s">
         <v>120</v>
@@ -9042,12 +9048,12 @@
         <v>10</v>
       </c>
       <c r="G349" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>121</v>
@@ -9056,7 +9062,7 @@
         <v>9</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E350" s="2" t="s">
         <v>122</v>
@@ -9065,12 +9071,12 @@
         <v>10</v>
       </c>
       <c r="G350" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>123</v>
@@ -9079,7 +9085,7 @@
         <v>9</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E351" s="2" t="s">
         <v>124</v>
@@ -9088,12 +9094,12 @@
         <v>10</v>
       </c>
       <c r="G351" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>125</v>
@@ -9102,7 +9108,7 @@
         <v>9</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E352" s="2" t="s">
         <v>126</v>
@@ -9111,12 +9117,12 @@
         <v>10</v>
       </c>
       <c r="G352" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>127</v>
@@ -9125,7 +9131,7 @@
         <v>9</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E353" s="2" t="s">
         <v>128</v>
@@ -9134,12 +9140,12 @@
         <v>10</v>
       </c>
       <c r="G353" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>129</v>
@@ -9148,7 +9154,7 @@
         <v>9</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E354" s="2" t="s">
         <v>130</v>
@@ -9157,12 +9163,12 @@
         <v>10</v>
       </c>
       <c r="G354" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>131</v>
@@ -9171,7 +9177,7 @@
         <v>9</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E355" s="2" t="s">
         <v>132</v>
@@ -9180,12 +9186,12 @@
         <v>10</v>
       </c>
       <c r="G355" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>133</v>
@@ -9194,7 +9200,7 @@
         <v>9</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E356" s="2" t="s">
         <v>134</v>
@@ -9203,12 +9209,12 @@
         <v>10</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>135</v>
@@ -9217,7 +9223,7 @@
         <v>9</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E357" s="2" t="s">
         <v>136</v>
@@ -9226,21 +9232,21 @@
         <v>10</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E358" s="2" t="s">
         <v>138</v>
@@ -9249,12 +9255,12 @@
         <v>10</v>
       </c>
       <c r="G358" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>139</v>
@@ -9263,7 +9269,7 @@
         <v>52</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E359" s="2" t="s">
         <v>140</v>
@@ -9272,12 +9278,12 @@
         <v>10</v>
       </c>
       <c r="G359" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>141</v>
@@ -9286,7 +9292,7 @@
         <v>52</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E360" s="2" t="s">
         <v>142</v>
@@ -9295,24 +9301,24 @@
         <v>10</v>
       </c>
       <c r="G360" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D361" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B361" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C361" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D361" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="E361" s="2" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="F361" s="2" t="s">
         <v>10</v>
@@ -9323,16 +9329,16 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D362" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="B362" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C362" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D362" s="2" t="s">
-        <v>265</v>
       </c>
       <c r="E362" s="2" t="s">
         <v>94</v>
@@ -9341,21 +9347,21 @@
         <v>10</v>
       </c>
       <c r="G362" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E363" s="2" t="s">
         <v>96</v>
@@ -9364,21 +9370,21 @@
         <v>10</v>
       </c>
       <c r="G363" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E364" s="2" t="s">
         <v>98</v>
@@ -9387,12 +9393,12 @@
         <v>10</v>
       </c>
       <c r="G364" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>99</v>
@@ -9401,7 +9407,7 @@
         <v>52</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E365" s="2" t="s">
         <v>100</v>
@@ -9410,12 +9416,12 @@
         <v>10</v>
       </c>
       <c r="G365" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>101</v>
@@ -9424,7 +9430,7 @@
         <v>52</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E366" s="2" t="s">
         <v>102</v>
@@ -9433,12 +9439,12 @@
         <v>10</v>
       </c>
       <c r="G366" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>103</v>
@@ -9447,7 +9453,7 @@
         <v>52</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E367" s="2" t="s">
         <v>104</v>
@@ -9456,21 +9462,21 @@
         <v>10</v>
       </c>
       <c r="G367" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E368" s="2" t="s">
         <v>106</v>
@@ -9479,12 +9485,12 @@
         <v>10</v>
       </c>
       <c r="G368" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>107</v>
@@ -9493,7 +9499,7 @@
         <v>9</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E369" s="2" t="s">
         <v>108</v>
@@ -9502,12 +9508,12 @@
         <v>10</v>
       </c>
       <c r="G369" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>109</v>
@@ -9516,7 +9522,7 @@
         <v>9</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E370" s="2" t="s">
         <v>110</v>
@@ -9525,12 +9531,12 @@
         <v>10</v>
       </c>
       <c r="G370" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>111</v>
@@ -9539,7 +9545,7 @@
         <v>9</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E371" s="2" t="s">
         <v>112</v>
@@ -9548,12 +9554,12 @@
         <v>10</v>
       </c>
       <c r="G371" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>113</v>
@@ -9562,7 +9568,7 @@
         <v>9</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E372" s="2" t="s">
         <v>114</v>
@@ -9571,21 +9577,21 @@
         <v>10</v>
       </c>
       <c r="G372" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E373" s="2" t="s">
         <v>116</v>
@@ -9594,12 +9600,12 @@
         <v>10</v>
       </c>
       <c r="G373" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>117</v>
@@ -9608,7 +9614,7 @@
         <v>52</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E374" s="2" t="s">
         <v>118</v>
@@ -9617,21 +9623,21 @@
         <v>10</v>
       </c>
       <c r="G374" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E375" s="2" t="s">
         <v>120</v>
@@ -9640,12 +9646,12 @@
         <v>10</v>
       </c>
       <c r="G375" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>121</v>
@@ -9654,7 +9660,7 @@
         <v>9</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E376" s="2" t="s">
         <v>122</v>
@@ -9663,12 +9669,12 @@
         <v>10</v>
       </c>
       <c r="G376" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>123</v>
@@ -9677,7 +9683,7 @@
         <v>9</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E377" s="2" t="s">
         <v>124</v>
@@ -9686,12 +9692,12 @@
         <v>10</v>
       </c>
       <c r="G377" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>125</v>
@@ -9700,7 +9706,7 @@
         <v>9</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E378" s="2" t="s">
         <v>126</v>
@@ -9709,12 +9715,12 @@
         <v>10</v>
       </c>
       <c r="G378" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>127</v>
@@ -9723,7 +9729,7 @@
         <v>9</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E379" s="2" t="s">
         <v>128</v>
@@ -9732,12 +9738,12 @@
         <v>10</v>
       </c>
       <c r="G379" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>129</v>
@@ -9746,7 +9752,7 @@
         <v>9</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E380" s="2" t="s">
         <v>130</v>
@@ -9755,12 +9761,12 @@
         <v>10</v>
       </c>
       <c r="G380" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>131</v>
@@ -9769,7 +9775,7 @@
         <v>9</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E381" s="2" t="s">
         <v>132</v>
@@ -9778,12 +9784,12 @@
         <v>10</v>
       </c>
       <c r="G381" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>133</v>
@@ -9792,7 +9798,7 @@
         <v>9</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E382" s="2" t="s">
         <v>134</v>
@@ -9801,12 +9807,12 @@
         <v>10</v>
       </c>
       <c r="G382" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>135</v>
@@ -9815,7 +9821,7 @@
         <v>9</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E383" s="2" t="s">
         <v>136</v>
@@ -9824,21 +9830,21 @@
         <v>10</v>
       </c>
       <c r="G383" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E384" s="2" t="s">
         <v>138</v>
@@ -9847,12 +9853,12 @@
         <v>10</v>
       </c>
       <c r="G384" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>139</v>
@@ -9861,7 +9867,7 @@
         <v>52</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E385" s="2" t="s">
         <v>140</v>
@@ -9870,12 +9876,12 @@
         <v>10</v>
       </c>
       <c r="G385" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>141</v>
@@ -9884,7 +9890,7 @@
         <v>52</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E386" s="2" t="s">
         <v>142</v>
@@ -9893,7 +9899,7 @@
         <v>10</v>
       </c>
       <c r="G386" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="387">
@@ -9901,50 +9907,50 @@
         <v>269</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D387" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E387" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F387" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G387" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="E387" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F387" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G387" s="2" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B388" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D388" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E388" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C388" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D388" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E388" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="F388" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G388" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>211</v>
@@ -9953,7 +9959,7 @@
         <v>52</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E389" s="2" t="s">
         <v>212</v>
@@ -9962,12 +9968,12 @@
         <v>10</v>
       </c>
       <c r="G389" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>213</v>
@@ -9976,7 +9982,7 @@
         <v>52</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E390" s="2" t="s">
         <v>214</v>
@@ -9985,12 +9991,12 @@
         <v>10</v>
       </c>
       <c r="G390" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>215</v>
@@ -9999,7 +10005,7 @@
         <v>52</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E391" s="2" t="s">
         <v>216</v>
@@ -10008,12 +10014,12 @@
         <v>10</v>
       </c>
       <c r="G391" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>217</v>
@@ -10022,7 +10028,7 @@
         <v>52</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E392" s="2" t="s">
         <v>218</v>
@@ -10031,12 +10037,12 @@
         <v>10</v>
       </c>
       <c r="G392" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>219</v>
@@ -10045,7 +10051,7 @@
         <v>52</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E393" s="2" t="s">
         <v>220</v>
@@ -10054,44 +10060,44 @@
         <v>10</v>
       </c>
       <c r="G393" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D394" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B394" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C394" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D394" s="2" t="s">
+      <c r="E394" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F394" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G394" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="E394" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F394" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G394" s="2" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E395" s="2" t="s">
         <v>94</v>
@@ -10100,21 +10106,21 @@
         <v>10</v>
       </c>
       <c r="G395" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E396" s="2" t="s">
         <v>96</v>
@@ -10123,21 +10129,21 @@
         <v>10</v>
       </c>
       <c r="G396" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E397" s="2" t="s">
         <v>98</v>
@@ -10146,12 +10152,12 @@
         <v>10</v>
       </c>
       <c r="G397" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>99</v>
@@ -10160,7 +10166,7 @@
         <v>52</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E398" s="2" t="s">
         <v>100</v>
@@ -10169,12 +10175,12 @@
         <v>10</v>
       </c>
       <c r="G398" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>101</v>
@@ -10183,7 +10189,7 @@
         <v>52</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E399" s="2" t="s">
         <v>102</v>
@@ -10192,12 +10198,12 @@
         <v>10</v>
       </c>
       <c r="G399" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>103</v>
@@ -10206,7 +10212,7 @@
         <v>52</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E400" s="2" t="s">
         <v>104</v>
@@ -10215,21 +10221,21 @@
         <v>10</v>
       </c>
       <c r="G400" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E401" s="2" t="s">
         <v>106</v>
@@ -10238,12 +10244,12 @@
         <v>10</v>
       </c>
       <c r="G401" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>107</v>
@@ -10252,7 +10258,7 @@
         <v>9</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E402" s="2" t="s">
         <v>108</v>
@@ -10261,12 +10267,12 @@
         <v>10</v>
       </c>
       <c r="G402" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>109</v>
@@ -10275,7 +10281,7 @@
         <v>9</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E403" s="2" t="s">
         <v>110</v>
@@ -10284,12 +10290,12 @@
         <v>10</v>
       </c>
       <c r="G403" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>111</v>
@@ -10298,7 +10304,7 @@
         <v>9</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E404" s="2" t="s">
         <v>112</v>
@@ -10307,12 +10313,12 @@
         <v>10</v>
       </c>
       <c r="G404" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>113</v>
@@ -10321,7 +10327,7 @@
         <v>9</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E405" s="2" t="s">
         <v>114</v>
@@ -10330,21 +10336,21 @@
         <v>10</v>
       </c>
       <c r="G405" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E406" s="2" t="s">
         <v>116</v>
@@ -10353,12 +10359,12 @@
         <v>10</v>
       </c>
       <c r="G406" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>117</v>
@@ -10367,7 +10373,7 @@
         <v>52</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E407" s="2" t="s">
         <v>118</v>
@@ -10376,21 +10382,21 @@
         <v>10</v>
       </c>
       <c r="G407" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E408" s="2" t="s">
         <v>120</v>
@@ -10399,12 +10405,12 @@
         <v>10</v>
       </c>
       <c r="G408" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>121</v>
@@ -10413,7 +10419,7 @@
         <v>9</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E409" s="2" t="s">
         <v>122</v>
@@ -10422,12 +10428,12 @@
         <v>10</v>
       </c>
       <c r="G409" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>123</v>
@@ -10436,7 +10442,7 @@
         <v>9</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E410" s="2" t="s">
         <v>124</v>
@@ -10445,12 +10451,12 @@
         <v>10</v>
       </c>
       <c r="G410" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>125</v>
@@ -10459,7 +10465,7 @@
         <v>9</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E411" s="2" t="s">
         <v>126</v>
@@ -10468,12 +10474,12 @@
         <v>10</v>
       </c>
       <c r="G411" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>127</v>
@@ -10482,7 +10488,7 @@
         <v>9</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E412" s="2" t="s">
         <v>128</v>
@@ -10491,12 +10497,12 @@
         <v>10</v>
       </c>
       <c r="G412" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>129</v>
@@ -10505,7 +10511,7 @@
         <v>9</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E413" s="2" t="s">
         <v>130</v>
@@ -10514,12 +10520,12 @@
         <v>10</v>
       </c>
       <c r="G413" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>131</v>
@@ -10528,7 +10534,7 @@
         <v>9</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E414" s="2" t="s">
         <v>132</v>
@@ -10537,12 +10543,12 @@
         <v>10</v>
       </c>
       <c r="G414" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>133</v>
@@ -10551,7 +10557,7 @@
         <v>9</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E415" s="2" t="s">
         <v>134</v>
@@ -10560,12 +10566,12 @@
         <v>10</v>
       </c>
       <c r="G415" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>135</v>
@@ -10574,7 +10580,7 @@
         <v>9</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E416" s="2" t="s">
         <v>136</v>
@@ -10583,21 +10589,21 @@
         <v>10</v>
       </c>
       <c r="G416" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E417" s="2" t="s">
         <v>138</v>
@@ -10606,12 +10612,12 @@
         <v>10</v>
       </c>
       <c r="G417" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>139</v>
@@ -10620,7 +10626,7 @@
         <v>52</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E418" s="2" t="s">
         <v>140</v>
@@ -10629,12 +10635,12 @@
         <v>10</v>
       </c>
       <c r="G418" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>141</v>
@@ -10643,7 +10649,7 @@
         <v>52</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E419" s="2" t="s">
         <v>142</v>
@@ -10652,24 +10658,24 @@
         <v>10</v>
       </c>
       <c r="G419" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D420" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B420" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C420" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D420" s="2" t="s">
-        <v>273</v>
-      </c>
       <c r="E420" s="2" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="F420" s="2" t="s">
         <v>10</v>
@@ -10680,16 +10686,16 @@
     </row>
     <row r="421">
       <c r="A421" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D421" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="B421" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C421" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D421" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="E421" s="2" t="s">
         <v>94</v>
@@ -10698,21 +10704,21 @@
         <v>10</v>
       </c>
       <c r="G421" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E422" s="2" t="s">
         <v>96</v>
@@ -10721,21 +10727,21 @@
         <v>10</v>
       </c>
       <c r="G422" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E423" s="2" t="s">
         <v>98</v>
@@ -10744,12 +10750,12 @@
         <v>10</v>
       </c>
       <c r="G423" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>99</v>
@@ -10758,7 +10764,7 @@
         <v>52</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E424" s="2" t="s">
         <v>100</v>
@@ -10767,12 +10773,12 @@
         <v>10</v>
       </c>
       <c r="G424" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>101</v>
@@ -10781,7 +10787,7 @@
         <v>52</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E425" s="2" t="s">
         <v>102</v>
@@ -10790,12 +10796,12 @@
         <v>10</v>
       </c>
       <c r="G425" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>103</v>
@@ -10804,7 +10810,7 @@
         <v>52</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E426" s="2" t="s">
         <v>104</v>
@@ -10813,21 +10819,21 @@
         <v>10</v>
       </c>
       <c r="G426" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E427" s="2" t="s">
         <v>106</v>
@@ -10836,12 +10842,12 @@
         <v>10</v>
       </c>
       <c r="G427" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>107</v>
@@ -10850,7 +10856,7 @@
         <v>9</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E428" s="2" t="s">
         <v>108</v>
@@ -10859,12 +10865,12 @@
         <v>10</v>
       </c>
       <c r="G428" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>109</v>
@@ -10873,7 +10879,7 @@
         <v>9</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E429" s="2" t="s">
         <v>110</v>
@@ -10882,12 +10888,12 @@
         <v>10</v>
       </c>
       <c r="G429" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>111</v>
@@ -10896,7 +10902,7 @@
         <v>9</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E430" s="2" t="s">
         <v>112</v>
@@ -10905,12 +10911,12 @@
         <v>10</v>
       </c>
       <c r="G430" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>113</v>
@@ -10919,7 +10925,7 @@
         <v>9</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E431" s="2" t="s">
         <v>114</v>
@@ -10928,21 +10934,21 @@
         <v>10</v>
       </c>
       <c r="G431" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E432" s="2" t="s">
         <v>116</v>
@@ -10951,12 +10957,12 @@
         <v>10</v>
       </c>
       <c r="G432" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B433" s="2" t="s">
         <v>117</v>
@@ -10965,7 +10971,7 @@
         <v>52</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E433" s="2" t="s">
         <v>118</v>
@@ -10974,21 +10980,21 @@
         <v>10</v>
       </c>
       <c r="G433" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E434" s="2" t="s">
         <v>120</v>
@@ -10997,12 +11003,12 @@
         <v>10</v>
       </c>
       <c r="G434" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B435" s="2" t="s">
         <v>121</v>
@@ -11011,7 +11017,7 @@
         <v>9</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E435" s="2" t="s">
         <v>122</v>
@@ -11020,12 +11026,12 @@
         <v>10</v>
       </c>
       <c r="G435" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>123</v>
@@ -11034,7 +11040,7 @@
         <v>9</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E436" s="2" t="s">
         <v>124</v>
@@ -11043,12 +11049,12 @@
         <v>10</v>
       </c>
       <c r="G436" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>125</v>
@@ -11057,7 +11063,7 @@
         <v>9</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E437" s="2" t="s">
         <v>126</v>
@@ -11066,12 +11072,12 @@
         <v>10</v>
       </c>
       <c r="G437" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>127</v>
@@ -11080,7 +11086,7 @@
         <v>9</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E438" s="2" t="s">
         <v>128</v>
@@ -11089,12 +11095,12 @@
         <v>10</v>
       </c>
       <c r="G438" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>129</v>
@@ -11103,7 +11109,7 @@
         <v>9</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E439" s="2" t="s">
         <v>130</v>
@@ -11112,12 +11118,12 @@
         <v>10</v>
       </c>
       <c r="G439" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>131</v>
@@ -11126,7 +11132,7 @@
         <v>9</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E440" s="2" t="s">
         <v>132</v>
@@ -11135,12 +11141,12 @@
         <v>10</v>
       </c>
       <c r="G440" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B441" s="2" t="s">
         <v>133</v>
@@ -11149,7 +11155,7 @@
         <v>9</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E441" s="2" t="s">
         <v>134</v>
@@ -11158,12 +11164,12 @@
         <v>10</v>
       </c>
       <c r="G441" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B442" s="2" t="s">
         <v>135</v>
@@ -11172,7 +11178,7 @@
         <v>9</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E442" s="2" t="s">
         <v>136</v>
@@ -11181,21 +11187,21 @@
         <v>10</v>
       </c>
       <c r="G442" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B443" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E443" s="2" t="s">
         <v>138</v>
@@ -11204,12 +11210,12 @@
         <v>10</v>
       </c>
       <c r="G443" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B444" s="2" t="s">
         <v>139</v>
@@ -11218,7 +11224,7 @@
         <v>52</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E444" s="2" t="s">
         <v>140</v>
@@ -11227,12 +11233,12 @@
         <v>10</v>
       </c>
       <c r="G444" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B445" s="2" t="s">
         <v>141</v>
@@ -11241,7 +11247,7 @@
         <v>52</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E445" s="2" t="s">
         <v>142</v>
@@ -11250,7 +11256,7 @@
         <v>10</v>
       </c>
       <c r="G445" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="446">
@@ -11258,50 +11264,50 @@
         <v>277</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D446" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E446" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F446" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G446" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="E446" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F446" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G446" s="2" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B447" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C447" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D447" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E447" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C447" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D447" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E447" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="F447" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G447" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>211</v>
@@ -11310,7 +11316,7 @@
         <v>52</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E448" s="2" t="s">
         <v>212</v>
@@ -11319,12 +11325,12 @@
         <v>10</v>
       </c>
       <c r="G448" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B449" s="2" t="s">
         <v>213</v>
@@ -11333,7 +11339,7 @@
         <v>52</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E449" s="2" t="s">
         <v>214</v>
@@ -11342,12 +11348,12 @@
         <v>10</v>
       </c>
       <c r="G449" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B450" s="2" t="s">
         <v>215</v>
@@ -11356,7 +11362,7 @@
         <v>52</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E450" s="2" t="s">
         <v>216</v>
@@ -11365,12 +11371,12 @@
         <v>10</v>
       </c>
       <c r="G450" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B451" s="2" t="s">
         <v>217</v>
@@ -11379,7 +11385,7 @@
         <v>52</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E451" s="2" t="s">
         <v>218</v>
@@ -11388,12 +11394,12 @@
         <v>10</v>
       </c>
       <c r="G451" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>219</v>
@@ -11402,7 +11408,7 @@
         <v>52</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E452" s="2" t="s">
         <v>220</v>
@@ -11411,35 +11417,35 @@
         <v>10</v>
       </c>
       <c r="G452" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D453" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B453" s="2" t="s">
+      <c r="E453" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F453" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G453" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="C453" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D453" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E453" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="F453" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G453" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>283</v>
@@ -11462,7 +11468,7 @@
     </row>
     <row r="455">
       <c r="A455" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>285</v>
@@ -11485,7 +11491,7 @@
     </row>
     <row r="456">
       <c r="A456" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B456" s="2" t="s">
         <v>287</v>
@@ -11508,7 +11514,7 @@
     </row>
     <row r="457">
       <c r="A457" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B457" s="2" t="s">
         <v>289</v>
@@ -11531,7 +11537,7 @@
     </row>
     <row r="458">
       <c r="A458" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>291</v>
@@ -11554,7 +11560,7 @@
     </row>
     <row r="459">
       <c r="A459" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>293</v>
@@ -11577,7 +11583,7 @@
     </row>
     <row r="460">
       <c r="A460" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>295</v>
@@ -11586,7 +11592,7 @@
         <v>52</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>239</v>
+        <v>75</v>
       </c>
       <c r="E460" s="2" t="s">
         <v>296</v>
@@ -11600,7 +11606,7 @@
     </row>
     <row r="461">
       <c r="A461" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B461" s="2" t="s">
         <v>297</v>
@@ -11609,7 +11615,7 @@
         <v>52</v>
       </c>
       <c r="D461" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E461" s="2" t="s">
         <v>298</v>
@@ -11623,16 +11629,16 @@
     </row>
     <row r="462">
       <c r="A462" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>299</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>75</v>
+        <v>241</v>
       </c>
       <c r="E462" s="2" t="s">
         <v>300</v>
@@ -11646,7 +11652,7 @@
     </row>
     <row r="463">
       <c r="A463" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B463" s="2" t="s">
         <v>301</v>
@@ -11669,19 +11675,19 @@
     </row>
     <row r="464">
       <c r="A464" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B464" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B464" s="2" t="s">
+      <c r="C464" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D464" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E464" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="C464" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D464" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E464" s="2" t="s">
-        <v>306</v>
       </c>
       <c r="F464" s="2" t="s">
         <v>10</v>
@@ -11692,16 +11698,16 @@
     </row>
     <row r="465">
       <c r="A465" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B465" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C465" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D465" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="C465" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D465" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="E465" s="2" t="s">
         <v>308</v>
@@ -11715,7 +11721,7 @@
     </row>
     <row r="466">
       <c r="A466" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B466" s="2" t="s">
         <v>309</v>
@@ -11724,7 +11730,7 @@
         <v>9</v>
       </c>
       <c r="D466" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E466" s="2" t="s">
         <v>310</v>
@@ -11733,6 +11739,29 @@
         <v>10</v>
       </c>
       <c r="G466" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D467" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E467" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F467" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G467" s="2" t="s">
         <v>55</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_007.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3269" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3290" uniqueCount="313">
   <si>
     <t>Sezione</t>
   </si>
@@ -203,6 +203,33 @@
     <t>Luogo Celebrazione</t>
   </si>
   <si>
+    <t>Data Evento</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio</t>
+  </si>
+  <si>
+    <t>dataEvento</t>
+  </si>
+  <si>
+    <t>Ora Evento</t>
+  </si>
+  <si>
+    <t>oraEvento</t>
+  </si>
+  <si>
+    <t>Minuti Evento</t>
+  </si>
+  <si>
+    <t>minutoEvento</t>
+  </si>
+  <si>
+    <t>Presentazione documenti</t>
+  </si>
+  <si>
+    <t>datiProdotti</t>
+  </si>
+  <si>
     <t>Luogo</t>
   </si>
   <si>
@@ -234,33 +261,6 @@
   </si>
   <si>
     <t>nomeComune</t>
-  </si>
-  <si>
-    <t>Data Evento</t>
-  </si>
-  <si>
-    <t>evento.datiEventoMatrimonio</t>
-  </si>
-  <si>
-    <t>dataEvento</t>
-  </si>
-  <si>
-    <t>Ora Evento</t>
-  </si>
-  <si>
-    <t>oraEvento</t>
-  </si>
-  <si>
-    <t>Minuti Evento</t>
-  </si>
-  <si>
-    <t>minutoEvento</t>
-  </si>
-  <si>
-    <t>Presentazione documenti</t>
-  </si>
-  <si>
-    <t>datiProdotti</t>
   </si>
   <si>
     <t>Dichiarante</t>
@@ -1009,7 +1009,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H467"/>
+  <dimension ref="A1:H470"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1978,7 +1978,7 @@
         <v>52</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>71</v>
@@ -2001,10 +2001,10 @@
         <v>52</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -2018,13 +2018,13 @@
         <v>62</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>76</v>
@@ -2047,7 +2047,7 @@
         <v>52</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>78</v>
@@ -2070,7 +2070,7 @@
         <v>52</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>80</v>
@@ -2093,7 +2093,7 @@
         <v>52</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>82</v>
@@ -2110,16 +2110,16 @@
         <v>62</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -2133,16 +2133,16 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -2156,16 +2156,16 @@
         <v>62</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -2176,19 +2176,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -2199,19 +2199,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -2222,19 +2222,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -2248,16 +2248,16 @@
         <v>89</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -2271,16 +2271,16 @@
         <v>89</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -2294,16 +2294,16 @@
         <v>89</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -2317,7 +2317,7 @@
         <v>89</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
@@ -2326,7 +2326,7 @@
         <v>93</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -2340,7 +2340,7 @@
         <v>89</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
@@ -2349,7 +2349,7 @@
         <v>93</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -2363,7 +2363,7 @@
         <v>89</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
@@ -2372,7 +2372,7 @@
         <v>93</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -2386,7 +2386,7 @@
         <v>89</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
@@ -2395,7 +2395,7 @@
         <v>93</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2409,7 +2409,7 @@
         <v>89</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
@@ -2418,7 +2418,7 @@
         <v>93</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2432,7 +2432,7 @@
         <v>89</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
@@ -2441,7 +2441,7 @@
         <v>93</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2455,7 +2455,7 @@
         <v>89</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
@@ -2464,7 +2464,7 @@
         <v>93</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2478,7 +2478,7 @@
         <v>89</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
@@ -2487,7 +2487,7 @@
         <v>93</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2501,7 +2501,7 @@
         <v>89</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
@@ -2510,7 +2510,7 @@
         <v>93</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2524,7 +2524,7 @@
         <v>89</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
@@ -2533,7 +2533,7 @@
         <v>93</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2547,7 +2547,7 @@
         <v>89</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
@@ -2556,7 +2556,7 @@
         <v>93</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2570,7 +2570,7 @@
         <v>89</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
@@ -2579,7 +2579,7 @@
         <v>93</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2593,7 +2593,7 @@
         <v>89</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
@@ -2602,7 +2602,7 @@
         <v>93</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2616,7 +2616,7 @@
         <v>89</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
@@ -2625,7 +2625,7 @@
         <v>93</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2639,7 +2639,7 @@
         <v>89</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
@@ -2648,7 +2648,7 @@
         <v>93</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2662,7 +2662,7 @@
         <v>89</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
@@ -2671,7 +2671,7 @@
         <v>93</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2685,7 +2685,7 @@
         <v>89</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
@@ -2694,7 +2694,7 @@
         <v>93</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2708,7 +2708,7 @@
         <v>89</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
@@ -2717,7 +2717,7 @@
         <v>93</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2731,16 +2731,16 @@
         <v>89</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2754,16 +2754,16 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2777,16 +2777,16 @@
         <v>89</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2797,22 +2797,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>55</v>
@@ -2820,19 +2820,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2843,19 +2843,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2869,19 +2869,19 @@
         <v>145</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>55</v>
@@ -2892,7 +2892,7 @@
         <v>145</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>52</v>
@@ -2901,7 +2901,7 @@
         <v>146</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2915,16 +2915,16 @@
         <v>145</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2938,7 +2938,7 @@
         <v>145</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>52</v>
@@ -2947,7 +2947,7 @@
         <v>146</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2961,16 +2961,16 @@
         <v>145</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2984,16 +2984,16 @@
         <v>145</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -3007,16 +3007,16 @@
         <v>145</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -3030,7 +3030,7 @@
         <v>145</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
@@ -3039,7 +3039,7 @@
         <v>146</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -3053,7 +3053,7 @@
         <v>145</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
@@ -3062,7 +3062,7 @@
         <v>146</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -3076,16 +3076,16 @@
         <v>145</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -3099,16 +3099,16 @@
         <v>145</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -3122,7 +3122,7 @@
         <v>145</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
@@ -3131,7 +3131,7 @@
         <v>146</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -3145,16 +3145,16 @@
         <v>145</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -3168,16 +3168,16 @@
         <v>145</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -3191,7 +3191,7 @@
         <v>145</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
@@ -3200,7 +3200,7 @@
         <v>146</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -3214,7 +3214,7 @@
         <v>145</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -3223,7 +3223,7 @@
         <v>146</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -3237,7 +3237,7 @@
         <v>145</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -3246,7 +3246,7 @@
         <v>146</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -3260,7 +3260,7 @@
         <v>145</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -3269,7 +3269,7 @@
         <v>146</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -3283,7 +3283,7 @@
         <v>145</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
@@ -3292,7 +3292,7 @@
         <v>146</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -3306,7 +3306,7 @@
         <v>145</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
@@ -3315,7 +3315,7 @@
         <v>146</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -3329,16 +3329,16 @@
         <v>145</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -3352,16 +3352,16 @@
         <v>145</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -3375,16 +3375,16 @@
         <v>145</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -3398,16 +3398,16 @@
         <v>145</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3421,16 +3421,16 @@
         <v>145</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3444,16 +3444,16 @@
         <v>145</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3467,7 +3467,7 @@
         <v>145</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -3476,7 +3476,7 @@
         <v>146</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3487,22 +3487,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>94</v>
+        <v>151</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>55</v>
@@ -3510,19 +3510,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3533,19 +3533,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>98</v>
+        <v>155</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3559,19 +3559,19 @@
         <v>156</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>55</v>
@@ -3582,7 +3582,7 @@
         <v>156</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>52</v>
@@ -3591,7 +3591,7 @@
         <v>157</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3605,16 +3605,16 @@
         <v>156</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3628,7 +3628,7 @@
         <v>156</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>52</v>
@@ -3637,7 +3637,7 @@
         <v>157</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3651,16 +3651,16 @@
         <v>156</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3674,16 +3674,16 @@
         <v>156</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3697,16 +3697,16 @@
         <v>156</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3720,7 +3720,7 @@
         <v>156</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
@@ -3729,7 +3729,7 @@
         <v>157</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3743,7 +3743,7 @@
         <v>156</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
@@ -3752,7 +3752,7 @@
         <v>157</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3766,16 +3766,16 @@
         <v>156</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3789,16 +3789,16 @@
         <v>156</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3812,7 +3812,7 @@
         <v>156</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
@@ -3821,7 +3821,7 @@
         <v>157</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3835,16 +3835,16 @@
         <v>156</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3858,16 +3858,16 @@
         <v>156</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3881,7 +3881,7 @@
         <v>156</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
@@ -3890,7 +3890,7 @@
         <v>157</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3904,7 +3904,7 @@
         <v>156</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -3913,7 +3913,7 @@
         <v>157</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3927,7 +3927,7 @@
         <v>156</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -3936,7 +3936,7 @@
         <v>157</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3950,7 +3950,7 @@
         <v>156</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -3959,7 +3959,7 @@
         <v>157</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3973,7 +3973,7 @@
         <v>156</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -3982,7 +3982,7 @@
         <v>157</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3996,7 +3996,7 @@
         <v>156</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
@@ -4005,7 +4005,7 @@
         <v>157</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -4019,16 +4019,16 @@
         <v>156</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -4042,16 +4042,16 @@
         <v>156</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -4065,16 +4065,16 @@
         <v>156</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -4088,16 +4088,16 @@
         <v>156</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -4111,16 +4111,16 @@
         <v>156</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -4134,16 +4134,16 @@
         <v>156</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -4157,7 +4157,7 @@
         <v>156</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
@@ -4166,7 +4166,7 @@
         <v>157</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -4177,71 +4177,71 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="141">
@@ -4249,16 +4249,16 @@
         <v>158</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>66</v>
+        <v>159</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>162</v>
+        <v>64</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -4272,16 +4272,16 @@
         <v>158</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>68</v>
+        <v>161</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>162</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -4295,16 +4295,16 @@
         <v>158</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>162</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -4318,7 +4318,7 @@
         <v>158</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
@@ -4327,7 +4327,7 @@
         <v>162</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>167</v>
+        <v>76</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -4341,7 +4341,7 @@
         <v>158</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
@@ -4350,7 +4350,7 @@
         <v>162</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -4364,7 +4364,7 @@
         <v>158</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
@@ -4373,7 +4373,7 @@
         <v>162</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4387,7 +4387,7 @@
         <v>158</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
@@ -4396,7 +4396,7 @@
         <v>162</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4410,7 +4410,7 @@
         <v>158</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
@@ -4419,7 +4419,7 @@
         <v>162</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4430,71 +4430,71 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>67</v>
+        <v>175</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
     </row>
     <row r="152">
@@ -4502,16 +4502,16 @@
         <v>176</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>68</v>
+        <v>161</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>177</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4525,16 +4525,16 @@
         <v>176</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>177</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4548,7 +4548,7 @@
         <v>176</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>72</v>
+        <v>179</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
@@ -4557,7 +4557,7 @@
         <v>177</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>167</v>
+        <v>76</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4571,7 +4571,7 @@
         <v>176</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
@@ -4580,7 +4580,7 @@
         <v>177</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4594,7 +4594,7 @@
         <v>176</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
@@ -4603,7 +4603,7 @@
         <v>177</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4617,7 +4617,7 @@
         <v>176</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
@@ -4626,7 +4626,7 @@
         <v>177</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4640,7 +4640,7 @@
         <v>176</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
@@ -4649,7 +4649,7 @@
         <v>177</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4660,71 +4660,71 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>55</v>
+        <v>178</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>55</v>
+        <v>178</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>55</v>
+        <v>178</v>
       </c>
     </row>
     <row r="162">
@@ -4732,7 +4732,7 @@
         <v>180</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
@@ -4741,7 +4741,7 @@
         <v>182</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4755,7 +4755,7 @@
         <v>180</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
@@ -4764,7 +4764,7 @@
         <v>182</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4778,7 +4778,7 @@
         <v>180</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
@@ -4787,7 +4787,7 @@
         <v>182</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4801,7 +4801,7 @@
         <v>180</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
@@ -4810,7 +4810,7 @@
         <v>182</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>54</v>
+        <v>189</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4824,7 +4824,7 @@
         <v>180</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
@@ -4833,7 +4833,7 @@
         <v>182</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4847,7 +4847,7 @@
         <v>180</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
@@ -4856,7 +4856,7 @@
         <v>182</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4870,7 +4870,7 @@
         <v>180</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
@@ -4879,7 +4879,7 @@
         <v>182</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>199</v>
+        <v>54</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4893,7 +4893,7 @@
         <v>180</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
@@ -4902,7 +4902,7 @@
         <v>182</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4916,7 +4916,7 @@
         <v>180</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
@@ -4925,7 +4925,7 @@
         <v>182</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>203</v>
+        <v>57</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4939,7 +4939,7 @@
         <v>180</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
@@ -4948,7 +4948,7 @@
         <v>182</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4959,71 +4959,71 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>210</v>
+        <v>55</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>210</v>
+        <v>55</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>210</v>
+        <v>55</v>
       </c>
     </row>
     <row r="175">
@@ -5031,7 +5031,7 @@
         <v>206</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>52</v>
@@ -5040,7 +5040,7 @@
         <v>208</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
@@ -5054,7 +5054,7 @@
         <v>206</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>52</v>
@@ -5063,7 +5063,7 @@
         <v>208</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
@@ -5077,7 +5077,7 @@
         <v>206</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>52</v>
@@ -5086,7 +5086,7 @@
         <v>208</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
@@ -5100,7 +5100,7 @@
         <v>206</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>52</v>
@@ -5109,7 +5109,7 @@
         <v>208</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
@@ -5120,71 +5120,71 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>55</v>
+        <v>210</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>55</v>
+        <v>210</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>55</v>
+        <v>210</v>
       </c>
     </row>
     <row r="182">
@@ -5192,7 +5192,7 @@
         <v>223</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
@@ -5201,7 +5201,7 @@
         <v>224</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
@@ -5215,7 +5215,7 @@
         <v>223</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
@@ -5224,7 +5224,7 @@
         <v>224</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
@@ -5238,7 +5238,7 @@
         <v>223</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
@@ -5247,7 +5247,7 @@
         <v>224</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
@@ -5261,7 +5261,7 @@
         <v>223</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
@@ -5270,7 +5270,7 @@
         <v>224</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>54</v>
+        <v>189</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
@@ -5284,7 +5284,7 @@
         <v>223</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
@@ -5293,7 +5293,7 @@
         <v>224</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
@@ -5307,7 +5307,7 @@
         <v>223</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
@@ -5316,7 +5316,7 @@
         <v>224</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
@@ -5330,7 +5330,7 @@
         <v>223</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
@@ -5339,7 +5339,7 @@
         <v>224</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>199</v>
+        <v>54</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
@@ -5353,7 +5353,7 @@
         <v>223</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
@@ -5362,7 +5362,7 @@
         <v>224</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
@@ -5376,7 +5376,7 @@
         <v>223</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
@@ -5385,7 +5385,7 @@
         <v>224</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>203</v>
+        <v>57</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
@@ -5399,7 +5399,7 @@
         <v>223</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
@@ -5408,7 +5408,7 @@
         <v>224</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
@@ -5419,71 +5419,71 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>227</v>
+        <v>55</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>227</v>
+        <v>55</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>227</v>
+        <v>55</v>
       </c>
     </row>
     <row r="195">
@@ -5491,7 +5491,7 @@
         <v>225</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>52</v>
@@ -5500,7 +5500,7 @@
         <v>226</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
@@ -5514,7 +5514,7 @@
         <v>225</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>52</v>
@@ -5523,7 +5523,7 @@
         <v>226</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
@@ -5537,7 +5537,7 @@
         <v>225</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>52</v>
@@ -5546,7 +5546,7 @@
         <v>226</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
@@ -5560,7 +5560,7 @@
         <v>225</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>52</v>
@@ -5569,7 +5569,7 @@
         <v>226</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
@@ -5580,71 +5580,71 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="202">
@@ -5652,7 +5652,7 @@
         <v>228</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>52</v>
@@ -5661,7 +5661,7 @@
         <v>229</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
@@ -5675,7 +5675,7 @@
         <v>228</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>52</v>
@@ -5684,7 +5684,7 @@
         <v>229</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
@@ -5698,7 +5698,7 @@
         <v>228</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>52</v>
@@ -5707,7 +5707,7 @@
         <v>229</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
@@ -5721,7 +5721,7 @@
         <v>228</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>52</v>
@@ -5730,7 +5730,7 @@
         <v>229</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
@@ -5741,71 +5741,71 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="209">
@@ -5813,7 +5813,7 @@
         <v>231</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
@@ -5822,10 +5822,10 @@
         <v>232</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="G209" s="2" t="s">
         <v>233</v>
@@ -5836,7 +5836,7 @@
         <v>231</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
@@ -5845,10 +5845,10 @@
         <v>232</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="G210" s="2" t="s">
         <v>233</v>
@@ -5859,7 +5859,7 @@
         <v>231</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>9</v>
@@ -5868,10 +5868,10 @@
         <v>232</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="G211" s="2" t="s">
         <v>233</v>
@@ -5882,7 +5882,7 @@
         <v>231</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
@@ -5891,7 +5891,7 @@
         <v>232</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
@@ -5902,71 +5902,71 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="216">
@@ -5974,7 +5974,7 @@
         <v>234</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>52</v>
@@ -5983,7 +5983,7 @@
         <v>235</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
@@ -5997,7 +5997,7 @@
         <v>234</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>52</v>
@@ -6006,7 +6006,7 @@
         <v>235</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
@@ -6020,7 +6020,7 @@
         <v>234</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>52</v>
@@ -6029,7 +6029,7 @@
         <v>235</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
@@ -6043,7 +6043,7 @@
         <v>234</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>52</v>
@@ -6052,7 +6052,7 @@
         <v>235</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
@@ -6063,71 +6063,71 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="223">
@@ -6135,7 +6135,7 @@
         <v>237</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>52</v>
@@ -6144,7 +6144,7 @@
         <v>238</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
@@ -6158,7 +6158,7 @@
         <v>237</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>52</v>
@@ -6167,7 +6167,7 @@
         <v>238</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
@@ -6181,7 +6181,7 @@
         <v>237</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>52</v>
@@ -6190,7 +6190,7 @@
         <v>238</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
@@ -6204,7 +6204,7 @@
         <v>237</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>52</v>
@@ -6213,7 +6213,7 @@
         <v>238</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
@@ -6224,79 +6224,79 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>9</v>
@@ -6305,13 +6305,13 @@
         <v>241</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="231">
@@ -6319,7 +6319,7 @@
         <v>244</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>9</v>
@@ -6328,7 +6328,7 @@
         <v>241</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>10</v>
@@ -6339,71 +6339,71 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>92</v>
+        <v>248</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>94</v>
+        <v>249</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>95</v>
+        <v>250</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>96</v>
+        <v>251</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>97</v>
+        <v>252</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>98</v>
+        <v>253</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="235">
@@ -6411,16 +6411,16 @@
         <v>254</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>255</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>10</v>
@@ -6434,7 +6434,7 @@
         <v>254</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>52</v>
@@ -6443,7 +6443,7 @@
         <v>255</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>10</v>
@@ -6457,16 +6457,16 @@
         <v>254</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>255</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>10</v>
@@ -6480,7 +6480,7 @@
         <v>254</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>52</v>
@@ -6489,7 +6489,7 @@
         <v>255</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>10</v>
@@ -6503,16 +6503,16 @@
         <v>254</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>255</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>10</v>
@@ -6526,16 +6526,16 @@
         <v>254</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>255</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>10</v>
@@ -6549,16 +6549,16 @@
         <v>254</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>255</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>10</v>
@@ -6572,7 +6572,7 @@
         <v>254</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>9</v>
@@ -6581,7 +6581,7 @@
         <v>255</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>10</v>
@@ -6595,7 +6595,7 @@
         <v>254</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>9</v>
@@ -6604,7 +6604,7 @@
         <v>255</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>10</v>
@@ -6618,16 +6618,16 @@
         <v>254</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>255</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>10</v>
@@ -6641,16 +6641,16 @@
         <v>254</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>255</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>10</v>
@@ -6664,7 +6664,7 @@
         <v>254</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>9</v>
@@ -6673,7 +6673,7 @@
         <v>255</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>10</v>
@@ -6687,16 +6687,16 @@
         <v>254</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>255</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>10</v>
@@ -6710,16 +6710,16 @@
         <v>254</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>255</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>10</v>
@@ -6733,7 +6733,7 @@
         <v>254</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>9</v>
@@ -6742,7 +6742,7 @@
         <v>255</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>10</v>
@@ -6756,7 +6756,7 @@
         <v>254</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>9</v>
@@ -6765,7 +6765,7 @@
         <v>255</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>10</v>
@@ -6779,7 +6779,7 @@
         <v>254</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>9</v>
@@ -6788,7 +6788,7 @@
         <v>255</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>10</v>
@@ -6802,7 +6802,7 @@
         <v>254</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>9</v>
@@ -6811,7 +6811,7 @@
         <v>255</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>10</v>
@@ -6825,7 +6825,7 @@
         <v>254</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>9</v>
@@ -6834,7 +6834,7 @@
         <v>255</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>10</v>
@@ -6848,7 +6848,7 @@
         <v>254</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>9</v>
@@ -6857,7 +6857,7 @@
         <v>255</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>10</v>
@@ -6871,16 +6871,16 @@
         <v>254</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>255</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>10</v>
@@ -6894,16 +6894,16 @@
         <v>254</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>255</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>10</v>
@@ -6917,16 +6917,16 @@
         <v>254</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>255</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>10</v>
@@ -6937,71 +6937,71 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="261">
@@ -7009,16 +7009,16 @@
         <v>257</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>258</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>10</v>
@@ -7032,7 +7032,7 @@
         <v>257</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>52</v>
@@ -7041,7 +7041,7 @@
         <v>258</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>10</v>
@@ -7055,16 +7055,16 @@
         <v>257</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>258</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>10</v>
@@ -7078,7 +7078,7 @@
         <v>257</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>52</v>
@@ -7087,7 +7087,7 @@
         <v>258</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>10</v>
@@ -7101,16 +7101,16 @@
         <v>257</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>258</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>10</v>
@@ -7124,16 +7124,16 @@
         <v>257</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>258</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>10</v>
@@ -7147,16 +7147,16 @@
         <v>257</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>258</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>10</v>
@@ -7170,7 +7170,7 @@
         <v>257</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>9</v>
@@ -7179,7 +7179,7 @@
         <v>258</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>10</v>
@@ -7193,7 +7193,7 @@
         <v>257</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>9</v>
@@ -7202,7 +7202,7 @@
         <v>258</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>10</v>
@@ -7216,16 +7216,16 @@
         <v>257</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D270" s="2" t="s">
         <v>258</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>10</v>
@@ -7239,16 +7239,16 @@
         <v>257</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D271" s="2" t="s">
         <v>258</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>10</v>
@@ -7262,7 +7262,7 @@
         <v>257</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>9</v>
@@ -7271,7 +7271,7 @@
         <v>258</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>10</v>
@@ -7285,16 +7285,16 @@
         <v>257</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>258</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>10</v>
@@ -7308,16 +7308,16 @@
         <v>257</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>258</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>10</v>
@@ -7331,7 +7331,7 @@
         <v>257</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>9</v>
@@ -7340,7 +7340,7 @@
         <v>258</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>10</v>
@@ -7354,7 +7354,7 @@
         <v>257</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>9</v>
@@ -7363,7 +7363,7 @@
         <v>258</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>10</v>
@@ -7377,7 +7377,7 @@
         <v>257</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>9</v>
@@ -7386,7 +7386,7 @@
         <v>258</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>10</v>
@@ -7400,7 +7400,7 @@
         <v>257</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>9</v>
@@ -7409,7 +7409,7 @@
         <v>258</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>10</v>
@@ -7423,7 +7423,7 @@
         <v>257</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>9</v>
@@ -7432,7 +7432,7 @@
         <v>258</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>10</v>
@@ -7446,7 +7446,7 @@
         <v>257</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>9</v>
@@ -7455,7 +7455,7 @@
         <v>258</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>10</v>
@@ -7469,16 +7469,16 @@
         <v>257</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>258</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>10</v>
@@ -7492,16 +7492,16 @@
         <v>257</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>258</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>10</v>
@@ -7515,16 +7515,16 @@
         <v>257</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>258</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>10</v>
@@ -7535,71 +7535,71 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="287">
@@ -7607,16 +7607,16 @@
         <v>260</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>261</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>10</v>
@@ -7630,7 +7630,7 @@
         <v>260</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>52</v>
@@ -7639,7 +7639,7 @@
         <v>261</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>10</v>
@@ -7653,16 +7653,16 @@
         <v>260</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>261</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>10</v>
@@ -7676,7 +7676,7 @@
         <v>260</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>52</v>
@@ -7685,7 +7685,7 @@
         <v>261</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>10</v>
@@ -7699,16 +7699,16 @@
         <v>260</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>261</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>10</v>
@@ -7722,16 +7722,16 @@
         <v>260</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>261</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>10</v>
@@ -7745,16 +7745,16 @@
         <v>260</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>261</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>10</v>
@@ -7768,7 +7768,7 @@
         <v>260</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>9</v>
@@ -7777,7 +7777,7 @@
         <v>261</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>10</v>
@@ -7791,7 +7791,7 @@
         <v>260</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>9</v>
@@ -7800,7 +7800,7 @@
         <v>261</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F295" s="2" t="s">
         <v>10</v>
@@ -7814,16 +7814,16 @@
         <v>260</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>261</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>10</v>
@@ -7837,16 +7837,16 @@
         <v>260</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>261</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F297" s="2" t="s">
         <v>10</v>
@@ -7860,7 +7860,7 @@
         <v>260</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>9</v>
@@ -7869,7 +7869,7 @@
         <v>261</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>10</v>
@@ -7883,16 +7883,16 @@
         <v>260</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>261</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F299" s="2" t="s">
         <v>10</v>
@@ -7906,16 +7906,16 @@
         <v>260</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>261</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F300" s="2" t="s">
         <v>10</v>
@@ -7929,7 +7929,7 @@
         <v>260</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>9</v>
@@ -7938,7 +7938,7 @@
         <v>261</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F301" s="2" t="s">
         <v>10</v>
@@ -7952,7 +7952,7 @@
         <v>260</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>9</v>
@@ -7961,7 +7961,7 @@
         <v>261</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F302" s="2" t="s">
         <v>10</v>
@@ -7975,7 +7975,7 @@
         <v>260</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>9</v>
@@ -7984,7 +7984,7 @@
         <v>261</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F303" s="2" t="s">
         <v>10</v>
@@ -7998,7 +7998,7 @@
         <v>260</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>9</v>
@@ -8007,7 +8007,7 @@
         <v>261</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F304" s="2" t="s">
         <v>10</v>
@@ -8021,7 +8021,7 @@
         <v>260</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>9</v>
@@ -8030,7 +8030,7 @@
         <v>261</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F305" s="2" t="s">
         <v>10</v>
@@ -8044,7 +8044,7 @@
         <v>260</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>9</v>
@@ -8053,7 +8053,7 @@
         <v>261</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F306" s="2" t="s">
         <v>10</v>
@@ -8067,16 +8067,16 @@
         <v>260</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>261</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F307" s="2" t="s">
         <v>10</v>
@@ -8090,16 +8090,16 @@
         <v>260</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>261</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F308" s="2" t="s">
         <v>10</v>
@@ -8113,16 +8113,16 @@
         <v>260</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>261</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F309" s="2" t="s">
         <v>10</v>
@@ -8133,71 +8133,71 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="F310" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="F311" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="F312" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="313">
@@ -8205,16 +8205,16 @@
         <v>263</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D313" s="2" t="s">
         <v>264</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F313" s="2" t="s">
         <v>10</v>
@@ -8228,7 +8228,7 @@
         <v>263</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>52</v>
@@ -8237,7 +8237,7 @@
         <v>264</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>10</v>
@@ -8251,16 +8251,16 @@
         <v>263</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D315" s="2" t="s">
         <v>264</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>10</v>
@@ -8274,7 +8274,7 @@
         <v>263</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>52</v>
@@ -8283,7 +8283,7 @@
         <v>264</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F316" s="2" t="s">
         <v>10</v>
@@ -8297,16 +8297,16 @@
         <v>263</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D317" s="2" t="s">
         <v>264</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F317" s="2" t="s">
         <v>10</v>
@@ -8320,16 +8320,16 @@
         <v>263</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D318" s="2" t="s">
         <v>264</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F318" s="2" t="s">
         <v>10</v>
@@ -8343,16 +8343,16 @@
         <v>263</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D319" s="2" t="s">
         <v>264</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F319" s="2" t="s">
         <v>10</v>
@@ -8366,7 +8366,7 @@
         <v>263</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>9</v>
@@ -8375,7 +8375,7 @@
         <v>264</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F320" s="2" t="s">
         <v>10</v>
@@ -8389,7 +8389,7 @@
         <v>263</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>9</v>
@@ -8398,7 +8398,7 @@
         <v>264</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F321" s="2" t="s">
         <v>10</v>
@@ -8412,16 +8412,16 @@
         <v>263</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D322" s="2" t="s">
         <v>264</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F322" s="2" t="s">
         <v>10</v>
@@ -8435,16 +8435,16 @@
         <v>263</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D323" s="2" t="s">
         <v>264</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F323" s="2" t="s">
         <v>10</v>
@@ -8458,7 +8458,7 @@
         <v>263</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>9</v>
@@ -8467,7 +8467,7 @@
         <v>264</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F324" s="2" t="s">
         <v>10</v>
@@ -8481,16 +8481,16 @@
         <v>263</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D325" s="2" t="s">
         <v>264</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F325" s="2" t="s">
         <v>10</v>
@@ -8504,16 +8504,16 @@
         <v>263</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D326" s="2" t="s">
         <v>264</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F326" s="2" t="s">
         <v>10</v>
@@ -8527,7 +8527,7 @@
         <v>263</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>9</v>
@@ -8536,7 +8536,7 @@
         <v>264</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F327" s="2" t="s">
         <v>10</v>
@@ -8550,7 +8550,7 @@
         <v>263</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>9</v>
@@ -8559,7 +8559,7 @@
         <v>264</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F328" s="2" t="s">
         <v>10</v>
@@ -8573,7 +8573,7 @@
         <v>263</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>9</v>
@@ -8582,7 +8582,7 @@
         <v>264</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F329" s="2" t="s">
         <v>10</v>
@@ -8596,7 +8596,7 @@
         <v>263</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>9</v>
@@ -8605,7 +8605,7 @@
         <v>264</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F330" s="2" t="s">
         <v>10</v>
@@ -8619,7 +8619,7 @@
         <v>263</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>9</v>
@@ -8628,7 +8628,7 @@
         <v>264</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F331" s="2" t="s">
         <v>10</v>
@@ -8642,7 +8642,7 @@
         <v>263</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>9</v>
@@ -8651,7 +8651,7 @@
         <v>264</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F332" s="2" t="s">
         <v>10</v>
@@ -8665,16 +8665,16 @@
         <v>263</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D333" s="2" t="s">
         <v>264</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F333" s="2" t="s">
         <v>10</v>
@@ -8688,16 +8688,16 @@
         <v>263</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D334" s="2" t="s">
         <v>264</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F334" s="2" t="s">
         <v>10</v>
@@ -8711,16 +8711,16 @@
         <v>263</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D335" s="2" t="s">
         <v>264</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F335" s="2" t="s">
         <v>10</v>
@@ -8731,71 +8731,71 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="F336" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G336" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="F337" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="F338" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="339">
@@ -8803,16 +8803,16 @@
         <v>266</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D339" s="2" t="s">
         <v>267</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F339" s="2" t="s">
         <v>10</v>
@@ -8826,7 +8826,7 @@
         <v>266</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>52</v>
@@ -8835,7 +8835,7 @@
         <v>267</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F340" s="2" t="s">
         <v>10</v>
@@ -8849,16 +8849,16 @@
         <v>266</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D341" s="2" t="s">
         <v>267</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F341" s="2" t="s">
         <v>10</v>
@@ -8872,7 +8872,7 @@
         <v>266</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>52</v>
@@ -8881,7 +8881,7 @@
         <v>267</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F342" s="2" t="s">
         <v>10</v>
@@ -8895,16 +8895,16 @@
         <v>266</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D343" s="2" t="s">
         <v>267</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F343" s="2" t="s">
         <v>10</v>
@@ -8918,16 +8918,16 @@
         <v>266</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D344" s="2" t="s">
         <v>267</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F344" s="2" t="s">
         <v>10</v>
@@ -8941,16 +8941,16 @@
         <v>266</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D345" s="2" t="s">
         <v>267</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F345" s="2" t="s">
         <v>10</v>
@@ -8964,7 +8964,7 @@
         <v>266</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>9</v>
@@ -8973,7 +8973,7 @@
         <v>267</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F346" s="2" t="s">
         <v>10</v>
@@ -8987,7 +8987,7 @@
         <v>266</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>9</v>
@@ -8996,7 +8996,7 @@
         <v>267</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F347" s="2" t="s">
         <v>10</v>
@@ -9010,16 +9010,16 @@
         <v>266</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D348" s="2" t="s">
         <v>267</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F348" s="2" t="s">
         <v>10</v>
@@ -9033,16 +9033,16 @@
         <v>266</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D349" s="2" t="s">
         <v>267</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F349" s="2" t="s">
         <v>10</v>
@@ -9056,7 +9056,7 @@
         <v>266</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>9</v>
@@ -9065,7 +9065,7 @@
         <v>267</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F350" s="2" t="s">
         <v>10</v>
@@ -9079,16 +9079,16 @@
         <v>266</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D351" s="2" t="s">
         <v>267</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F351" s="2" t="s">
         <v>10</v>
@@ -9102,16 +9102,16 @@
         <v>266</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D352" s="2" t="s">
         <v>267</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F352" s="2" t="s">
         <v>10</v>
@@ -9125,7 +9125,7 @@
         <v>266</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>9</v>
@@ -9134,7 +9134,7 @@
         <v>267</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F353" s="2" t="s">
         <v>10</v>
@@ -9148,7 +9148,7 @@
         <v>266</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>9</v>
@@ -9157,7 +9157,7 @@
         <v>267</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F354" s="2" t="s">
         <v>10</v>
@@ -9171,7 +9171,7 @@
         <v>266</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>9</v>
@@ -9180,7 +9180,7 @@
         <v>267</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F355" s="2" t="s">
         <v>10</v>
@@ -9194,7 +9194,7 @@
         <v>266</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>9</v>
@@ -9203,7 +9203,7 @@
         <v>267</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F356" s="2" t="s">
         <v>10</v>
@@ -9217,7 +9217,7 @@
         <v>266</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>9</v>
@@ -9226,7 +9226,7 @@
         <v>267</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F357" s="2" t="s">
         <v>10</v>
@@ -9240,7 +9240,7 @@
         <v>266</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>9</v>
@@ -9249,7 +9249,7 @@
         <v>267</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F358" s="2" t="s">
         <v>10</v>
@@ -9263,16 +9263,16 @@
         <v>266</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D359" s="2" t="s">
         <v>267</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F359" s="2" t="s">
         <v>10</v>
@@ -9286,16 +9286,16 @@
         <v>266</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D360" s="2" t="s">
         <v>267</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F360" s="2" t="s">
         <v>10</v>
@@ -9309,16 +9309,16 @@
         <v>266</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D361" s="2" t="s">
         <v>267</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F361" s="2" t="s">
         <v>10</v>
@@ -9329,33 +9329,33 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D362" s="2" t="s">
         <v>267</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="F362" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G362" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>52</v>
@@ -9364,36 +9364,36 @@
         <v>267</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="F363" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G363" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D364" s="2" t="s">
         <v>267</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="F364" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G364" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="365">
@@ -9401,16 +9401,16 @@
         <v>269</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D365" s="2" t="s">
         <v>267</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F365" s="2" t="s">
         <v>10</v>
@@ -9424,7 +9424,7 @@
         <v>269</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>52</v>
@@ -9433,7 +9433,7 @@
         <v>267</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F366" s="2" t="s">
         <v>10</v>
@@ -9447,16 +9447,16 @@
         <v>269</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D367" s="2" t="s">
         <v>267</v>
       </c>
       <c r="E367" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F367" s="2" t="s">
         <v>10</v>
@@ -9470,7 +9470,7 @@
         <v>269</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>52</v>
@@ -9479,7 +9479,7 @@
         <v>267</v>
       </c>
       <c r="E368" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F368" s="2" t="s">
         <v>10</v>
@@ -9493,16 +9493,16 @@
         <v>269</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D369" s="2" t="s">
         <v>267</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F369" s="2" t="s">
         <v>10</v>
@@ -9516,16 +9516,16 @@
         <v>269</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D370" s="2" t="s">
         <v>267</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F370" s="2" t="s">
         <v>10</v>
@@ -9539,16 +9539,16 @@
         <v>269</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D371" s="2" t="s">
         <v>267</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F371" s="2" t="s">
         <v>10</v>
@@ -9562,7 +9562,7 @@
         <v>269</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>9</v>
@@ -9571,7 +9571,7 @@
         <v>267</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F372" s="2" t="s">
         <v>10</v>
@@ -9585,7 +9585,7 @@
         <v>269</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>9</v>
@@ -9594,7 +9594,7 @@
         <v>267</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F373" s="2" t="s">
         <v>10</v>
@@ -9608,16 +9608,16 @@
         <v>269</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D374" s="2" t="s">
         <v>267</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F374" s="2" t="s">
         <v>10</v>
@@ -9631,16 +9631,16 @@
         <v>269</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D375" s="2" t="s">
         <v>267</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F375" s="2" t="s">
         <v>10</v>
@@ -9654,7 +9654,7 @@
         <v>269</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>9</v>
@@ -9663,7 +9663,7 @@
         <v>267</v>
       </c>
       <c r="E376" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F376" s="2" t="s">
         <v>10</v>
@@ -9677,16 +9677,16 @@
         <v>269</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D377" s="2" t="s">
         <v>267</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F377" s="2" t="s">
         <v>10</v>
@@ -9700,16 +9700,16 @@
         <v>269</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D378" s="2" t="s">
         <v>267</v>
       </c>
       <c r="E378" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F378" s="2" t="s">
         <v>10</v>
@@ -9723,7 +9723,7 @@
         <v>269</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>9</v>
@@ -9732,7 +9732,7 @@
         <v>267</v>
       </c>
       <c r="E379" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F379" s="2" t="s">
         <v>10</v>
@@ -9746,7 +9746,7 @@
         <v>269</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>9</v>
@@ -9755,7 +9755,7 @@
         <v>267</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F380" s="2" t="s">
         <v>10</v>
@@ -9769,7 +9769,7 @@
         <v>269</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>9</v>
@@ -9778,7 +9778,7 @@
         <v>267</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F381" s="2" t="s">
         <v>10</v>
@@ -9792,7 +9792,7 @@
         <v>269</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>9</v>
@@ -9801,7 +9801,7 @@
         <v>267</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F382" s="2" t="s">
         <v>10</v>
@@ -9815,7 +9815,7 @@
         <v>269</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>9</v>
@@ -9824,7 +9824,7 @@
         <v>267</v>
       </c>
       <c r="E383" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F383" s="2" t="s">
         <v>10</v>
@@ -9838,7 +9838,7 @@
         <v>269</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>9</v>
@@ -9847,7 +9847,7 @@
         <v>267</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F384" s="2" t="s">
         <v>10</v>
@@ -9861,16 +9861,16 @@
         <v>269</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D385" s="2" t="s">
         <v>267</v>
       </c>
       <c r="E385" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F385" s="2" t="s">
         <v>10</v>
@@ -9884,16 +9884,16 @@
         <v>269</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D386" s="2" t="s">
         <v>267</v>
       </c>
       <c r="E386" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F386" s="2" t="s">
         <v>10</v>
@@ -9907,16 +9907,16 @@
         <v>269</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D387" s="2" t="s">
         <v>267</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F387" s="2" t="s">
         <v>10</v>
@@ -9927,71 +9927,71 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>207</v>
+        <v>139</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>209</v>
+        <v>140</v>
       </c>
       <c r="F388" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G388" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>211</v>
+        <v>141</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E389" s="2" t="s">
-        <v>212</v>
+        <v>142</v>
       </c>
       <c r="F389" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G389" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>213</v>
+        <v>143</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>214</v>
+        <v>144</v>
       </c>
       <c r="F390" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G390" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="391">
@@ -9999,7 +9999,7 @@
         <v>271</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>52</v>
@@ -10008,7 +10008,7 @@
         <v>272</v>
       </c>
       <c r="E391" s="2" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F391" s="2" t="s">
         <v>10</v>
@@ -10022,7 +10022,7 @@
         <v>271</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>52</v>
@@ -10031,7 +10031,7 @@
         <v>272</v>
       </c>
       <c r="E392" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F392" s="2" t="s">
         <v>10</v>
@@ -10045,7 +10045,7 @@
         <v>271</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>52</v>
@@ -10054,7 +10054,7 @@
         <v>272</v>
       </c>
       <c r="E393" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F393" s="2" t="s">
         <v>10</v>
@@ -10068,7 +10068,7 @@
         <v>271</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>52</v>
@@ -10077,7 +10077,7 @@
         <v>272</v>
       </c>
       <c r="E394" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F394" s="2" t="s">
         <v>10</v>
@@ -10088,71 +10088,71 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>92</v>
+        <v>217</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E395" s="2" t="s">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="F395" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G395" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>96</v>
+        <v>220</v>
       </c>
       <c r="F396" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G396" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>97</v>
+        <v>221</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E397" s="2" t="s">
-        <v>98</v>
+        <v>222</v>
       </c>
       <c r="F397" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G397" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="398">
@@ -10160,16 +10160,16 @@
         <v>274</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D398" s="2" t="s">
         <v>275</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F398" s="2" t="s">
         <v>10</v>
@@ -10183,7 +10183,7 @@
         <v>274</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>52</v>
@@ -10192,7 +10192,7 @@
         <v>275</v>
       </c>
       <c r="E399" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F399" s="2" t="s">
         <v>10</v>
@@ -10206,16 +10206,16 @@
         <v>274</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D400" s="2" t="s">
         <v>275</v>
       </c>
       <c r="E400" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F400" s="2" t="s">
         <v>10</v>
@@ -10229,7 +10229,7 @@
         <v>274</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>52</v>
@@ -10238,7 +10238,7 @@
         <v>275</v>
       </c>
       <c r="E401" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F401" s="2" t="s">
         <v>10</v>
@@ -10252,16 +10252,16 @@
         <v>274</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D402" s="2" t="s">
         <v>275</v>
       </c>
       <c r="E402" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F402" s="2" t="s">
         <v>10</v>
@@ -10275,16 +10275,16 @@
         <v>274</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D403" s="2" t="s">
         <v>275</v>
       </c>
       <c r="E403" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F403" s="2" t="s">
         <v>10</v>
@@ -10298,16 +10298,16 @@
         <v>274</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D404" s="2" t="s">
         <v>275</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F404" s="2" t="s">
         <v>10</v>
@@ -10321,7 +10321,7 @@
         <v>274</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>9</v>
@@ -10330,7 +10330,7 @@
         <v>275</v>
       </c>
       <c r="E405" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F405" s="2" t="s">
         <v>10</v>
@@ -10344,7 +10344,7 @@
         <v>274</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>9</v>
@@ -10353,7 +10353,7 @@
         <v>275</v>
       </c>
       <c r="E406" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F406" s="2" t="s">
         <v>10</v>
@@ -10367,16 +10367,16 @@
         <v>274</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D407" s="2" t="s">
         <v>275</v>
       </c>
       <c r="E407" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F407" s="2" t="s">
         <v>10</v>
@@ -10390,16 +10390,16 @@
         <v>274</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D408" s="2" t="s">
         <v>275</v>
       </c>
       <c r="E408" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F408" s="2" t="s">
         <v>10</v>
@@ -10413,7 +10413,7 @@
         <v>274</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>9</v>
@@ -10422,7 +10422,7 @@
         <v>275</v>
       </c>
       <c r="E409" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F409" s="2" t="s">
         <v>10</v>
@@ -10436,16 +10436,16 @@
         <v>274</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D410" s="2" t="s">
         <v>275</v>
       </c>
       <c r="E410" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F410" s="2" t="s">
         <v>10</v>
@@ -10459,16 +10459,16 @@
         <v>274</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D411" s="2" t="s">
         <v>275</v>
       </c>
       <c r="E411" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F411" s="2" t="s">
         <v>10</v>
@@ -10482,7 +10482,7 @@
         <v>274</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>9</v>
@@ -10491,7 +10491,7 @@
         <v>275</v>
       </c>
       <c r="E412" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F412" s="2" t="s">
         <v>10</v>
@@ -10505,7 +10505,7 @@
         <v>274</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>9</v>
@@ -10514,7 +10514,7 @@
         <v>275</v>
       </c>
       <c r="E413" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F413" s="2" t="s">
         <v>10</v>
@@ -10528,7 +10528,7 @@
         <v>274</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>9</v>
@@ -10537,7 +10537,7 @@
         <v>275</v>
       </c>
       <c r="E414" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F414" s="2" t="s">
         <v>10</v>
@@ -10551,7 +10551,7 @@
         <v>274</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>9</v>
@@ -10560,7 +10560,7 @@
         <v>275</v>
       </c>
       <c r="E415" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F415" s="2" t="s">
         <v>10</v>
@@ -10574,7 +10574,7 @@
         <v>274</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>9</v>
@@ -10583,7 +10583,7 @@
         <v>275</v>
       </c>
       <c r="E416" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F416" s="2" t="s">
         <v>10</v>
@@ -10597,7 +10597,7 @@
         <v>274</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>9</v>
@@ -10606,7 +10606,7 @@
         <v>275</v>
       </c>
       <c r="E417" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F417" s="2" t="s">
         <v>10</v>
@@ -10620,16 +10620,16 @@
         <v>274</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D418" s="2" t="s">
         <v>275</v>
       </c>
       <c r="E418" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F418" s="2" t="s">
         <v>10</v>
@@ -10643,16 +10643,16 @@
         <v>274</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D419" s="2" t="s">
         <v>275</v>
       </c>
       <c r="E419" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F419" s="2" t="s">
         <v>10</v>
@@ -10666,16 +10666,16 @@
         <v>274</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D420" s="2" t="s">
         <v>275</v>
       </c>
       <c r="E420" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F420" s="2" t="s">
         <v>10</v>
@@ -10686,33 +10686,33 @@
     </row>
     <row r="421">
       <c r="A421" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D421" s="2" t="s">
         <v>275</v>
       </c>
       <c r="E421" s="2" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="F421" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G421" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>52</v>
@@ -10721,36 +10721,36 @@
         <v>275</v>
       </c>
       <c r="E422" s="2" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="F422" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G422" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D423" s="2" t="s">
         <v>275</v>
       </c>
       <c r="E423" s="2" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="F423" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G423" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="424">
@@ -10758,16 +10758,16 @@
         <v>277</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D424" s="2" t="s">
         <v>275</v>
       </c>
       <c r="E424" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F424" s="2" t="s">
         <v>10</v>
@@ -10781,7 +10781,7 @@
         <v>277</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>52</v>
@@ -10790,7 +10790,7 @@
         <v>275</v>
       </c>
       <c r="E425" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F425" s="2" t="s">
         <v>10</v>
@@ -10804,16 +10804,16 @@
         <v>277</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D426" s="2" t="s">
         <v>275</v>
       </c>
       <c r="E426" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F426" s="2" t="s">
         <v>10</v>
@@ -10827,7 +10827,7 @@
         <v>277</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>52</v>
@@ -10836,7 +10836,7 @@
         <v>275</v>
       </c>
       <c r="E427" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F427" s="2" t="s">
         <v>10</v>
@@ -10850,16 +10850,16 @@
         <v>277</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D428" s="2" t="s">
         <v>275</v>
       </c>
       <c r="E428" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F428" s="2" t="s">
         <v>10</v>
@@ -10873,16 +10873,16 @@
         <v>277</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D429" s="2" t="s">
         <v>275</v>
       </c>
       <c r="E429" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F429" s="2" t="s">
         <v>10</v>
@@ -10896,16 +10896,16 @@
         <v>277</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D430" s="2" t="s">
         <v>275</v>
       </c>
       <c r="E430" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F430" s="2" t="s">
         <v>10</v>
@@ -10919,7 +10919,7 @@
         <v>277</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>9</v>
@@ -10928,7 +10928,7 @@
         <v>275</v>
       </c>
       <c r="E431" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F431" s="2" t="s">
         <v>10</v>
@@ -10942,7 +10942,7 @@
         <v>277</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>9</v>
@@ -10951,7 +10951,7 @@
         <v>275</v>
       </c>
       <c r="E432" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F432" s="2" t="s">
         <v>10</v>
@@ -10965,16 +10965,16 @@
         <v>277</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D433" s="2" t="s">
         <v>275</v>
       </c>
       <c r="E433" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F433" s="2" t="s">
         <v>10</v>
@@ -10988,16 +10988,16 @@
         <v>277</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D434" s="2" t="s">
         <v>275</v>
       </c>
       <c r="E434" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F434" s="2" t="s">
         <v>10</v>
@@ -11011,7 +11011,7 @@
         <v>277</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>9</v>
@@ -11020,7 +11020,7 @@
         <v>275</v>
       </c>
       <c r="E435" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F435" s="2" t="s">
         <v>10</v>
@@ -11034,16 +11034,16 @@
         <v>277</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D436" s="2" t="s">
         <v>275</v>
       </c>
       <c r="E436" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F436" s="2" t="s">
         <v>10</v>
@@ -11057,16 +11057,16 @@
         <v>277</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D437" s="2" t="s">
         <v>275</v>
       </c>
       <c r="E437" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F437" s="2" t="s">
         <v>10</v>
@@ -11080,7 +11080,7 @@
         <v>277</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>9</v>
@@ -11089,7 +11089,7 @@
         <v>275</v>
       </c>
       <c r="E438" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F438" s="2" t="s">
         <v>10</v>
@@ -11103,7 +11103,7 @@
         <v>277</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>9</v>
@@ -11112,7 +11112,7 @@
         <v>275</v>
       </c>
       <c r="E439" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F439" s="2" t="s">
         <v>10</v>
@@ -11126,7 +11126,7 @@
         <v>277</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>9</v>
@@ -11135,7 +11135,7 @@
         <v>275</v>
       </c>
       <c r="E440" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F440" s="2" t="s">
         <v>10</v>
@@ -11149,7 +11149,7 @@
         <v>277</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>9</v>
@@ -11158,7 +11158,7 @@
         <v>275</v>
       </c>
       <c r="E441" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F441" s="2" t="s">
         <v>10</v>
@@ -11172,7 +11172,7 @@
         <v>277</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>9</v>
@@ -11181,7 +11181,7 @@
         <v>275</v>
       </c>
       <c r="E442" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F442" s="2" t="s">
         <v>10</v>
@@ -11195,7 +11195,7 @@
         <v>277</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>9</v>
@@ -11204,7 +11204,7 @@
         <v>275</v>
       </c>
       <c r="E443" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F443" s="2" t="s">
         <v>10</v>
@@ -11218,16 +11218,16 @@
         <v>277</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D444" s="2" t="s">
         <v>275</v>
       </c>
       <c r="E444" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F444" s="2" t="s">
         <v>10</v>
@@ -11241,16 +11241,16 @@
         <v>277</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D445" s="2" t="s">
         <v>275</v>
       </c>
       <c r="E445" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F445" s="2" t="s">
         <v>10</v>
@@ -11264,16 +11264,16 @@
         <v>277</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D446" s="2" t="s">
         <v>275</v>
       </c>
       <c r="E446" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F446" s="2" t="s">
         <v>10</v>
@@ -11284,71 +11284,71 @@
     </row>
     <row r="447">
       <c r="A447" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>207</v>
+        <v>139</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E447" s="2" t="s">
-        <v>209</v>
+        <v>140</v>
       </c>
       <c r="F447" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G447" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>211</v>
+        <v>141</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E448" s="2" t="s">
-        <v>212</v>
+        <v>142</v>
       </c>
       <c r="F448" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G448" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>213</v>
+        <v>143</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E449" s="2" t="s">
-        <v>214</v>
+        <v>144</v>
       </c>
       <c r="F449" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G449" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="450">
@@ -11356,7 +11356,7 @@
         <v>279</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>52</v>
@@ -11365,7 +11365,7 @@
         <v>280</v>
       </c>
       <c r="E450" s="2" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F450" s="2" t="s">
         <v>10</v>
@@ -11379,7 +11379,7 @@
         <v>279</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>52</v>
@@ -11388,7 +11388,7 @@
         <v>280</v>
       </c>
       <c r="E451" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F451" s="2" t="s">
         <v>10</v>
@@ -11402,7 +11402,7 @@
         <v>279</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>52</v>
@@ -11411,7 +11411,7 @@
         <v>280</v>
       </c>
       <c r="E452" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F452" s="2" t="s">
         <v>10</v>
@@ -11425,7 +11425,7 @@
         <v>279</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>52</v>
@@ -11434,7 +11434,7 @@
         <v>280</v>
       </c>
       <c r="E453" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F453" s="2" t="s">
         <v>10</v>
@@ -11445,71 +11445,71 @@
     </row>
     <row r="454">
       <c r="A454" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>283</v>
+        <v>217</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>75</v>
+        <v>280</v>
       </c>
       <c r="E454" s="2" t="s">
-        <v>284</v>
+        <v>218</v>
       </c>
       <c r="F454" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G454" s="2" t="s">
-        <v>55</v>
+        <v>281</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>285</v>
+        <v>219</v>
       </c>
       <c r="C455" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>75</v>
+        <v>280</v>
       </c>
       <c r="E455" s="2" t="s">
-        <v>286</v>
+        <v>220</v>
       </c>
       <c r="F455" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G455" s="2" t="s">
-        <v>55</v>
+        <v>281</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>287</v>
+        <v>221</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>75</v>
+        <v>280</v>
       </c>
       <c r="E456" s="2" t="s">
-        <v>288</v>
+        <v>222</v>
       </c>
       <c r="F456" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G456" s="2" t="s">
-        <v>55</v>
+        <v>281</v>
       </c>
     </row>
     <row r="457">
@@ -11517,16 +11517,16 @@
         <v>282</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E457" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F457" s="2" t="s">
         <v>10</v>
@@ -11540,16 +11540,16 @@
         <v>282</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E458" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F458" s="2" t="s">
         <v>10</v>
@@ -11563,16 +11563,16 @@
         <v>282</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E459" s="2" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F459" s="2" t="s">
         <v>10</v>
@@ -11586,16 +11586,16 @@
         <v>282</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E460" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F460" s="2" t="s">
         <v>10</v>
@@ -11609,16 +11609,16 @@
         <v>282</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D461" s="2" t="s">
-        <v>241</v>
+        <v>64</v>
       </c>
       <c r="E461" s="2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F461" s="2" t="s">
         <v>10</v>
@@ -11632,16 +11632,16 @@
         <v>282</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>241</v>
+        <v>64</v>
       </c>
       <c r="E462" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F462" s="2" t="s">
         <v>10</v>
@@ -11655,16 +11655,16 @@
         <v>282</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C463" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E463" s="2" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F463" s="2" t="s">
         <v>10</v>
@@ -11678,16 +11678,16 @@
         <v>282</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C464" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>75</v>
+        <v>241</v>
       </c>
       <c r="E464" s="2" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F464" s="2" t="s">
         <v>10</v>
@@ -11698,19 +11698,19 @@
     </row>
     <row r="465">
       <c r="A465" s="2" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C465" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D465" s="2" t="s">
-        <v>307</v>
+        <v>241</v>
       </c>
       <c r="E465" s="2" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="F465" s="2" t="s">
         <v>10</v>
@@ -11721,19 +11721,19 @@
     </row>
     <row r="466">
       <c r="A466" s="2" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D466" s="2" t="s">
-        <v>307</v>
+        <v>64</v>
       </c>
       <c r="E466" s="2" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F466" s="2" t="s">
         <v>10</v>
@@ -11744,24 +11744,93 @@
     </row>
     <row r="467">
       <c r="A467" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D467" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E467" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F467" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G467" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B467" s="2" t="s">
+      <c r="B468" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C468" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D468" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E468" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F468" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G468" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D469" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E469" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F469" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G469" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B470" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C467" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D467" s="2" t="s">
+      <c r="C470" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D470" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="E467" s="2" t="s">
+      <c r="E470" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="F467" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G467" s="2" t="s">
+      <c r="F470" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G470" s="2" t="s">
         <v>55</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_007.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3269" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3276" uniqueCount="315">
   <si>
     <t>Sezione</t>
   </si>
@@ -255,6 +255,12 @@
   </si>
   <si>
     <t>minutoEvento</t>
+  </si>
+  <si>
+    <t>Presentazione documenti</t>
+  </si>
+  <si>
+    <t>datiProdotti</t>
   </si>
   <si>
     <t>Dichiarante</t>
@@ -1009,7 +1015,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H467"/>
+  <dimension ref="A1:H468"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2093,7 +2099,7 @@
         <v>52</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>82</v>
@@ -2153,10 +2159,10 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>52</v>
@@ -2165,7 +2171,7 @@
         <v>75</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -2176,7 +2182,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>90</v>
@@ -2185,10 +2191,10 @@
         <v>52</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -2199,16 +2205,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>94</v>
@@ -2222,16 +2228,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>96</v>
@@ -2245,7 +2251,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>97</v>
@@ -2254,7 +2260,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>98</v>
@@ -2268,7 +2274,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>99</v>
@@ -2277,7 +2283,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>100</v>
@@ -2291,7 +2297,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>101</v>
@@ -2300,7 +2306,7 @@
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>102</v>
@@ -2314,7 +2320,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>103</v>
@@ -2323,7 +2329,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>104</v>
@@ -2337,7 +2343,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>105</v>
@@ -2346,7 +2352,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>106</v>
@@ -2360,7 +2366,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>107</v>
@@ -2369,7 +2375,7 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>108</v>
@@ -2383,7 +2389,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>109</v>
@@ -2392,7 +2398,7 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>110</v>
@@ -2406,7 +2412,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>111</v>
@@ -2415,7 +2421,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>112</v>
@@ -2429,7 +2435,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>113</v>
@@ -2438,7 +2444,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>114</v>
@@ -2452,7 +2458,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>115</v>
@@ -2461,7 +2467,7 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>116</v>
@@ -2475,7 +2481,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>117</v>
@@ -2484,7 +2490,7 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>118</v>
@@ -2498,7 +2504,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>119</v>
@@ -2507,7 +2513,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>120</v>
@@ -2521,7 +2527,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>121</v>
@@ -2530,7 +2536,7 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>122</v>
@@ -2544,7 +2550,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>123</v>
@@ -2553,7 +2559,7 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>124</v>
@@ -2567,7 +2573,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>125</v>
@@ -2576,7 +2582,7 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>126</v>
@@ -2590,7 +2596,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>127</v>
@@ -2599,7 +2605,7 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>128</v>
@@ -2613,7 +2619,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>129</v>
@@ -2622,7 +2628,7 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>130</v>
@@ -2636,7 +2642,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>131</v>
@@ -2645,7 +2651,7 @@
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>132</v>
@@ -2659,7 +2665,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>133</v>
@@ -2668,7 +2674,7 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>134</v>
@@ -2682,7 +2688,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>135</v>
@@ -2691,7 +2697,7 @@
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>136</v>
@@ -2705,16 +2711,16 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>138</v>
@@ -2728,7 +2734,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>139</v>
@@ -2737,7 +2743,7 @@
         <v>52</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>140</v>
@@ -2751,7 +2757,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>141</v>
@@ -2760,7 +2766,7 @@
         <v>52</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>142</v>
@@ -2774,22 +2780,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F77" s="2" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>55</v>
@@ -2797,22 +2803,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>94</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>55</v>
@@ -2820,16 +2826,16 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>96</v>
@@ -2843,16 +2849,16 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>98</v>
@@ -2866,7 +2872,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>99</v>
@@ -2875,7 +2881,7 @@
         <v>52</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>100</v>
@@ -2889,7 +2895,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>101</v>
@@ -2898,7 +2904,7 @@
         <v>52</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>102</v>
@@ -2912,7 +2918,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>103</v>
@@ -2921,7 +2927,7 @@
         <v>52</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>104</v>
@@ -2935,16 +2941,16 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>106</v>
@@ -2958,7 +2964,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>107</v>
@@ -2967,7 +2973,7 @@
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>108</v>
@@ -2981,7 +2987,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>109</v>
@@ -2990,7 +2996,7 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>110</v>
@@ -3004,7 +3010,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>111</v>
@@ -3013,7 +3019,7 @@
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>112</v>
@@ -3027,7 +3033,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>113</v>
@@ -3036,7 +3042,7 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>114</v>
@@ -3050,16 +3056,16 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>116</v>
@@ -3073,7 +3079,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>117</v>
@@ -3082,7 +3088,7 @@
         <v>52</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>118</v>
@@ -3096,16 +3102,16 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>120</v>
@@ -3119,7 +3125,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>121</v>
@@ -3128,7 +3134,7 @@
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>122</v>
@@ -3142,7 +3148,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>123</v>
@@ -3151,7 +3157,7 @@
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>124</v>
@@ -3165,7 +3171,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>125</v>
@@ -3174,7 +3180,7 @@
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>126</v>
@@ -3188,7 +3194,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>127</v>
@@ -3197,7 +3203,7 @@
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>128</v>
@@ -3211,7 +3217,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>129</v>
@@ -3220,7 +3226,7 @@
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>130</v>
@@ -3234,7 +3240,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>131</v>
@@ -3243,7 +3249,7 @@
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>132</v>
@@ -3257,7 +3263,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>133</v>
@@ -3266,7 +3272,7 @@
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>134</v>
@@ -3280,7 +3286,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>135</v>
@@ -3289,7 +3295,7 @@
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>136</v>
@@ -3303,16 +3309,16 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>138</v>
@@ -3326,7 +3332,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>139</v>
@@ -3335,7 +3341,7 @@
         <v>52</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>140</v>
@@ -3349,7 +3355,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>141</v>
@@ -3358,7 +3364,7 @@
         <v>52</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>142</v>
@@ -3372,19 +3378,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="C103" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
+      <c r="E103" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -3395,7 +3401,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>148</v>
@@ -3404,7 +3410,7 @@
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>149</v>
@@ -3418,7 +3424,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>150</v>
@@ -3427,7 +3433,7 @@
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>151</v>
@@ -3441,7 +3447,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>152</v>
@@ -3450,7 +3456,7 @@
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>153</v>
@@ -3464,22 +3470,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E107" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F107" s="2" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>55</v>
@@ -3487,22 +3493,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>94</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>55</v>
@@ -3510,16 +3516,16 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>96</v>
@@ -3533,16 +3539,16 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>98</v>
@@ -3556,7 +3562,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>99</v>
@@ -3565,7 +3571,7 @@
         <v>52</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>100</v>
@@ -3579,7 +3585,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>101</v>
@@ -3588,7 +3594,7 @@
         <v>52</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>102</v>
@@ -3602,7 +3608,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>103</v>
@@ -3611,7 +3617,7 @@
         <v>52</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>104</v>
@@ -3625,16 +3631,16 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>106</v>
@@ -3648,7 +3654,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>107</v>
@@ -3657,7 +3663,7 @@
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>108</v>
@@ -3671,7 +3677,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>109</v>
@@ -3680,7 +3686,7 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>110</v>
@@ -3694,7 +3700,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>111</v>
@@ -3703,7 +3709,7 @@
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>112</v>
@@ -3717,7 +3723,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>113</v>
@@ -3726,7 +3732,7 @@
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>114</v>
@@ -3740,16 +3746,16 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>116</v>
@@ -3763,7 +3769,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>117</v>
@@ -3772,7 +3778,7 @@
         <v>52</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>118</v>
@@ -3786,16 +3792,16 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>120</v>
@@ -3809,7 +3815,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>121</v>
@@ -3818,7 +3824,7 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>122</v>
@@ -3832,7 +3838,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>123</v>
@@ -3841,7 +3847,7 @@
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>124</v>
@@ -3855,7 +3861,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>125</v>
@@ -3864,7 +3870,7 @@
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>126</v>
@@ -3878,7 +3884,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>127</v>
@@ -3887,7 +3893,7 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>128</v>
@@ -3901,7 +3907,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>129</v>
@@ -3910,7 +3916,7 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>130</v>
@@ -3924,7 +3930,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>131</v>
@@ -3933,7 +3939,7 @@
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>132</v>
@@ -3947,7 +3953,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>133</v>
@@ -3956,7 +3962,7 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>134</v>
@@ -3970,7 +3976,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>135</v>
@@ -3979,7 +3985,7 @@
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>136</v>
@@ -3993,16 +3999,16 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>138</v>
@@ -4016,7 +4022,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>139</v>
@@ -4025,7 +4031,7 @@
         <v>52</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>140</v>
@@ -4039,7 +4045,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>141</v>
@@ -4048,7 +4054,7 @@
         <v>52</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>142</v>
@@ -4062,19 +4068,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -4085,7 +4091,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>148</v>
@@ -4094,7 +4100,7 @@
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>149</v>
@@ -4108,7 +4114,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>150</v>
@@ -4117,7 +4123,7 @@
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>151</v>
@@ -4131,7 +4137,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>152</v>
@@ -4140,7 +4146,7 @@
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>153</v>
@@ -4157,39 +4163,39 @@
         <v>156</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="E137" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>159</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -4200,16 +4206,16 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>163</v>
@@ -4223,19 +4229,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>66</v>
+        <v>164</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>67</v>
+        <v>165</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -4246,19 +4252,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -4269,19 +4275,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>71</v>
+        <v>166</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -4292,19 +4298,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>165</v>
+        <v>71</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -4315,16 +4321,16 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>166</v>
+        <v>72</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>167</v>
@@ -4338,7 +4344,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>168</v>
@@ -4347,7 +4353,7 @@
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>169</v>
@@ -4361,7 +4367,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>170</v>
@@ -4370,7 +4376,7 @@
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>171</v>
@@ -4384,7 +4390,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>172</v>
@@ -4393,7 +4399,7 @@
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>173</v>
@@ -4407,39 +4413,39 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="C148" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E148" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>176</v>
+        <v>11</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>163</v>
@@ -4448,113 +4454,113 @@
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="E150" s="2" t="s">
-        <v>67</v>
+        <v>165</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>71</v>
+        <v>166</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>165</v>
+        <v>71</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>166</v>
+        <v>72</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>167</v>
@@ -4563,12 +4569,12 @@
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>168</v>
@@ -4577,7 +4583,7 @@
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>169</v>
@@ -4586,12 +4592,12 @@
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>170</v>
@@ -4600,7 +4606,7 @@
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>171</v>
@@ -4609,12 +4615,12 @@
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>172</v>
@@ -4623,7 +4629,7 @@
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>173</v>
@@ -4632,44 +4638,44 @@
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>183</v>
@@ -4683,7 +4689,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>184</v>
@@ -4692,7 +4698,7 @@
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>185</v>
@@ -4706,7 +4712,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>186</v>
@@ -4715,7 +4721,7 @@
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>187</v>
@@ -4729,7 +4735,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>188</v>
@@ -4738,7 +4744,7 @@
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>189</v>
@@ -4752,7 +4758,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>190</v>
@@ -4761,7 +4767,7 @@
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>191</v>
@@ -4775,7 +4781,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>192</v>
@@ -4784,10 +4790,10 @@
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>54</v>
+        <v>193</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4798,19 +4804,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>194</v>
+        <v>54</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4821,7 +4827,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>195</v>
@@ -4830,10 +4836,10 @@
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>57</v>
+        <v>196</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4844,19 +4850,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>197</v>
+        <v>57</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4867,7 +4873,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>198</v>
@@ -4876,7 +4882,7 @@
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>199</v>
@@ -4890,7 +4896,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>200</v>
@@ -4899,7 +4905,7 @@
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>201</v>
@@ -4913,7 +4919,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>202</v>
@@ -4922,7 +4928,7 @@
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>203</v>
@@ -4936,53 +4942,53 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E171" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C171" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>208</v>
+        <v>55</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C172" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E172" s="2" t="s">
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G172" s="2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>211</v>
@@ -4991,7 +4997,7 @@
         <v>52</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>212</v>
@@ -5000,12 +5006,12 @@
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>213</v>
@@ -5014,7 +5020,7 @@
         <v>52</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>214</v>
@@ -5023,12 +5029,12 @@
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>215</v>
@@ -5037,7 +5043,7 @@
         <v>52</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>216</v>
@@ -5046,12 +5052,12 @@
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>217</v>
@@ -5060,7 +5066,7 @@
         <v>52</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>218</v>
@@ -5069,12 +5075,12 @@
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>219</v>
@@ -5083,7 +5089,7 @@
         <v>52</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>220</v>
@@ -5092,44 +5098,44 @@
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B178" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="C178" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D178" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E178" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E178" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>55</v>
+        <v>210</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>183</v>
@@ -5143,7 +5149,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>184</v>
@@ -5152,7 +5158,7 @@
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>185</v>
@@ -5166,7 +5172,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>186</v>
@@ -5175,7 +5181,7 @@
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>187</v>
@@ -5189,7 +5195,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>188</v>
@@ -5198,7 +5204,7 @@
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>189</v>
@@ -5212,7 +5218,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>190</v>
@@ -5221,7 +5227,7 @@
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>191</v>
@@ -5235,7 +5241,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>192</v>
@@ -5244,10 +5250,10 @@
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>54</v>
+        <v>193</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
@@ -5258,19 +5264,19 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>194</v>
+        <v>54</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
@@ -5281,7 +5287,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>195</v>
@@ -5290,10 +5296,10 @@
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>57</v>
+        <v>196</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
@@ -5304,19 +5310,19 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>197</v>
+        <v>57</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
@@ -5327,7 +5333,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>198</v>
@@ -5336,7 +5342,7 @@
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>199</v>
@@ -5350,7 +5356,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>200</v>
@@ -5359,7 +5365,7 @@
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>201</v>
@@ -5373,7 +5379,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>202</v>
@@ -5382,7 +5388,7 @@
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>203</v>
@@ -5399,50 +5405,50 @@
         <v>223</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>225</v>
+        <v>55</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B192" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E192" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>211</v>
@@ -5451,7 +5457,7 @@
         <v>52</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>212</v>
@@ -5460,12 +5466,12 @@
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>213</v>
@@ -5474,7 +5480,7 @@
         <v>52</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>214</v>
@@ -5483,12 +5489,12 @@
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>215</v>
@@ -5497,7 +5503,7 @@
         <v>52</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>216</v>
@@ -5506,12 +5512,12 @@
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>217</v>
@@ -5520,7 +5526,7 @@
         <v>52</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>218</v>
@@ -5529,12 +5535,12 @@
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>219</v>
@@ -5543,7 +5549,7 @@
         <v>52</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>220</v>
@@ -5552,58 +5558,58 @@
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D198" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B198" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D198" s="2" t="s">
+      <c r="E198" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B199" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E199" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C199" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>211</v>
@@ -5612,7 +5618,7 @@
         <v>52</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>212</v>
@@ -5621,12 +5627,12 @@
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>213</v>
@@ -5635,7 +5641,7 @@
         <v>52</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>214</v>
@@ -5644,12 +5650,12 @@
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>215</v>
@@ -5658,7 +5664,7 @@
         <v>52</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>216</v>
@@ -5667,12 +5673,12 @@
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>217</v>
@@ -5681,7 +5687,7 @@
         <v>52</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>218</v>
@@ -5690,12 +5696,12 @@
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>219</v>
@@ -5704,7 +5710,7 @@
         <v>52</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>220</v>
@@ -5713,58 +5719,58 @@
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D205" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B205" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D205" s="2" t="s">
+      <c r="E205" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G205" s="2" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B206" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E206" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>211</v>
@@ -5773,7 +5779,7 @@
         <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>212</v>
@@ -5782,12 +5788,12 @@
         <v>34</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>213</v>
@@ -5796,21 +5802,21 @@
         <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>214</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>215</v>
@@ -5819,7 +5825,7 @@
         <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>216</v>
@@ -5828,12 +5834,12 @@
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>217</v>
@@ -5842,7 +5848,7 @@
         <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>218</v>
@@ -5851,12 +5857,12 @@
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>219</v>
@@ -5865,7 +5871,7 @@
         <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>220</v>
@@ -5874,58 +5880,58 @@
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D212" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B212" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D212" s="2" t="s">
+      <c r="E212" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G212" s="2" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B213" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E213" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C213" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>211</v>
@@ -5934,7 +5940,7 @@
         <v>52</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>212</v>
@@ -5943,12 +5949,12 @@
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>213</v>
@@ -5957,7 +5963,7 @@
         <v>52</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>214</v>
@@ -5966,12 +5972,12 @@
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>215</v>
@@ -5980,7 +5986,7 @@
         <v>52</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>216</v>
@@ -5989,12 +5995,12 @@
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>217</v>
@@ -6003,7 +6009,7 @@
         <v>52</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>218</v>
@@ -6012,12 +6018,12 @@
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>219</v>
@@ -6026,7 +6032,7 @@
         <v>52</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>220</v>
@@ -6035,58 +6041,58 @@
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D219" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B219" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D219" s="2" t="s">
+      <c r="E219" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G219" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G219" s="2" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B220" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E220" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C220" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>211</v>
@@ -6095,7 +6101,7 @@
         <v>52</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>212</v>
@@ -6104,12 +6110,12 @@
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>213</v>
@@ -6118,7 +6124,7 @@
         <v>52</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>214</v>
@@ -6127,12 +6133,12 @@
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>215</v>
@@ -6141,7 +6147,7 @@
         <v>52</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>216</v>
@@ -6150,12 +6156,12 @@
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>217</v>
@@ -6164,7 +6170,7 @@
         <v>52</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>218</v>
@@ -6173,12 +6179,12 @@
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>219</v>
@@ -6187,7 +6193,7 @@
         <v>52</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>220</v>
@@ -6196,81 +6202,81 @@
         <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D226" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B226" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D226" s="2" t="s">
+      <c r="E226" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G226" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F226" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G226" s="2" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E227" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="F227" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G227" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="F227" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G227" s="2" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B228" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E228" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C228" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E228" s="2" t="s">
+      <c r="F228" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G228" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G228" s="2" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>248</v>
@@ -6279,7 +6285,7 @@
         <v>9</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>249</v>
@@ -6288,12 +6294,12 @@
         <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>250</v>
@@ -6302,7 +6308,7 @@
         <v>9</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>251</v>
@@ -6311,44 +6317,44 @@
         <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B231" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B231" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="C231" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D231" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E231" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="E231" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F231" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>94</v>
@@ -6357,21 +6363,21 @@
         <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>96</v>
@@ -6380,21 +6386,21 @@
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>98</v>
@@ -6403,12 +6409,12 @@
         <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>99</v>
@@ -6417,7 +6423,7 @@
         <v>52</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>100</v>
@@ -6426,12 +6432,12 @@
         <v>10</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>101</v>
@@ -6440,7 +6446,7 @@
         <v>52</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>102</v>
@@ -6449,12 +6455,12 @@
         <v>10</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>103</v>
@@ -6463,7 +6469,7 @@
         <v>52</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>104</v>
@@ -6472,21 +6478,21 @@
         <v>10</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>106</v>
@@ -6495,12 +6501,12 @@
         <v>10</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>107</v>
@@ -6509,7 +6515,7 @@
         <v>9</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>108</v>
@@ -6518,12 +6524,12 @@
         <v>10</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>109</v>
@@ -6532,7 +6538,7 @@
         <v>9</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>110</v>
@@ -6541,12 +6547,12 @@
         <v>10</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>111</v>
@@ -6555,7 +6561,7 @@
         <v>9</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>112</v>
@@ -6564,12 +6570,12 @@
         <v>10</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>113</v>
@@ -6578,7 +6584,7 @@
         <v>9</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>114</v>
@@ -6587,21 +6593,21 @@
         <v>10</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E243" s="2" t="s">
         <v>116</v>
@@ -6610,12 +6616,12 @@
         <v>10</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>117</v>
@@ -6624,7 +6630,7 @@
         <v>52</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>118</v>
@@ -6633,21 +6639,21 @@
         <v>10</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>120</v>
@@ -6656,12 +6662,12 @@
         <v>10</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>121</v>
@@ -6670,7 +6676,7 @@
         <v>9</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>122</v>
@@ -6679,12 +6685,12 @@
         <v>10</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>123</v>
@@ -6693,7 +6699,7 @@
         <v>9</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>124</v>
@@ -6702,12 +6708,12 @@
         <v>10</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>125</v>
@@ -6716,7 +6722,7 @@
         <v>9</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>126</v>
@@ -6725,12 +6731,12 @@
         <v>10</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>127</v>
@@ -6739,7 +6745,7 @@
         <v>9</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>128</v>
@@ -6748,12 +6754,12 @@
         <v>10</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>129</v>
@@ -6762,7 +6768,7 @@
         <v>9</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>130</v>
@@ -6771,12 +6777,12 @@
         <v>10</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>131</v>
@@ -6785,7 +6791,7 @@
         <v>9</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>132</v>
@@ -6794,12 +6800,12 @@
         <v>10</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>133</v>
@@ -6808,7 +6814,7 @@
         <v>9</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E252" s="2" t="s">
         <v>134</v>
@@ -6817,12 +6823,12 @@
         <v>10</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>135</v>
@@ -6831,7 +6837,7 @@
         <v>9</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>136</v>
@@ -6840,21 +6846,21 @@
         <v>10</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E254" s="2" t="s">
         <v>138</v>
@@ -6863,12 +6869,12 @@
         <v>10</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>139</v>
@@ -6877,7 +6883,7 @@
         <v>52</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>140</v>
@@ -6886,12 +6892,12 @@
         <v>10</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>141</v>
@@ -6900,7 +6906,7 @@
         <v>52</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E256" s="2" t="s">
         <v>142</v>
@@ -6909,44 +6915,44 @@
         <v>10</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D257" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B257" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D257" s="2" t="s">
+      <c r="E257" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F257" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G257" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="E257" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F257" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G257" s="2" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E258" s="2" t="s">
         <v>94</v>
@@ -6955,21 +6961,21 @@
         <v>10</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E259" s="2" t="s">
         <v>96</v>
@@ -6978,21 +6984,21 @@
         <v>10</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E260" s="2" t="s">
         <v>98</v>
@@ -7001,12 +7007,12 @@
         <v>10</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>99</v>
@@ -7015,7 +7021,7 @@
         <v>52</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E261" s="2" t="s">
         <v>100</v>
@@ -7024,12 +7030,12 @@
         <v>10</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>101</v>
@@ -7038,7 +7044,7 @@
         <v>52</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E262" s="2" t="s">
         <v>102</v>
@@ -7047,12 +7053,12 @@
         <v>10</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>103</v>
@@ -7061,7 +7067,7 @@
         <v>52</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E263" s="2" t="s">
         <v>104</v>
@@ -7070,21 +7076,21 @@
         <v>10</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E264" s="2" t="s">
         <v>106</v>
@@ -7093,12 +7099,12 @@
         <v>10</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>107</v>
@@ -7107,7 +7113,7 @@
         <v>9</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E265" s="2" t="s">
         <v>108</v>
@@ -7116,12 +7122,12 @@
         <v>10</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>109</v>
@@ -7130,7 +7136,7 @@
         <v>9</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E266" s="2" t="s">
         <v>110</v>
@@ -7139,12 +7145,12 @@
         <v>10</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>111</v>
@@ -7153,7 +7159,7 @@
         <v>9</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E267" s="2" t="s">
         <v>112</v>
@@ -7162,12 +7168,12 @@
         <v>10</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>113</v>
@@ -7176,7 +7182,7 @@
         <v>9</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E268" s="2" t="s">
         <v>114</v>
@@ -7185,21 +7191,21 @@
         <v>10</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E269" s="2" t="s">
         <v>116</v>
@@ -7208,12 +7214,12 @@
         <v>10</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>117</v>
@@ -7222,7 +7228,7 @@
         <v>52</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E270" s="2" t="s">
         <v>118</v>
@@ -7231,21 +7237,21 @@
         <v>10</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E271" s="2" t="s">
         <v>120</v>
@@ -7254,12 +7260,12 @@
         <v>10</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>121</v>
@@ -7268,7 +7274,7 @@
         <v>9</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E272" s="2" t="s">
         <v>122</v>
@@ -7277,12 +7283,12 @@
         <v>10</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>123</v>
@@ -7291,7 +7297,7 @@
         <v>9</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E273" s="2" t="s">
         <v>124</v>
@@ -7300,12 +7306,12 @@
         <v>10</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>125</v>
@@ -7314,7 +7320,7 @@
         <v>9</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E274" s="2" t="s">
         <v>126</v>
@@ -7323,12 +7329,12 @@
         <v>10</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>127</v>
@@ -7337,7 +7343,7 @@
         <v>9</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E275" s="2" t="s">
         <v>128</v>
@@ -7346,12 +7352,12 @@
         <v>10</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>129</v>
@@ -7360,7 +7366,7 @@
         <v>9</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E276" s="2" t="s">
         <v>130</v>
@@ -7369,12 +7375,12 @@
         <v>10</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>131</v>
@@ -7383,7 +7389,7 @@
         <v>9</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E277" s="2" t="s">
         <v>132</v>
@@ -7392,12 +7398,12 @@
         <v>10</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>133</v>
@@ -7406,7 +7412,7 @@
         <v>9</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E278" s="2" t="s">
         <v>134</v>
@@ -7415,12 +7421,12 @@
         <v>10</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>135</v>
@@ -7429,7 +7435,7 @@
         <v>9</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E279" s="2" t="s">
         <v>136</v>
@@ -7438,21 +7444,21 @@
         <v>10</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E280" s="2" t="s">
         <v>138</v>
@@ -7461,12 +7467,12 @@
         <v>10</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>139</v>
@@ -7475,7 +7481,7 @@
         <v>52</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E281" s="2" t="s">
         <v>140</v>
@@ -7484,12 +7490,12 @@
         <v>10</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>141</v>
@@ -7498,7 +7504,7 @@
         <v>52</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E282" s="2" t="s">
         <v>142</v>
@@ -7507,44 +7513,44 @@
         <v>10</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D283" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B283" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D283" s="2" t="s">
+      <c r="E283" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F283" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G283" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="E283" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F283" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G283" s="2" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E284" s="2" t="s">
         <v>94</v>
@@ -7553,21 +7559,21 @@
         <v>10</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E285" s="2" t="s">
         <v>96</v>
@@ -7576,21 +7582,21 @@
         <v>10</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E286" s="2" t="s">
         <v>98</v>
@@ -7599,12 +7605,12 @@
         <v>10</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>99</v>
@@ -7613,7 +7619,7 @@
         <v>52</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E287" s="2" t="s">
         <v>100</v>
@@ -7622,12 +7628,12 @@
         <v>10</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>101</v>
@@ -7636,7 +7642,7 @@
         <v>52</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E288" s="2" t="s">
         <v>102</v>
@@ -7645,12 +7651,12 @@
         <v>10</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>103</v>
@@ -7659,7 +7665,7 @@
         <v>52</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E289" s="2" t="s">
         <v>104</v>
@@ -7668,21 +7674,21 @@
         <v>10</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E290" s="2" t="s">
         <v>106</v>
@@ -7691,12 +7697,12 @@
         <v>10</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>107</v>
@@ -7705,7 +7711,7 @@
         <v>9</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E291" s="2" t="s">
         <v>108</v>
@@ -7714,12 +7720,12 @@
         <v>10</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>109</v>
@@ -7728,7 +7734,7 @@
         <v>9</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E292" s="2" t="s">
         <v>110</v>
@@ -7737,12 +7743,12 @@
         <v>10</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>111</v>
@@ -7751,7 +7757,7 @@
         <v>9</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E293" s="2" t="s">
         <v>112</v>
@@ -7760,12 +7766,12 @@
         <v>10</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>113</v>
@@ -7774,7 +7780,7 @@
         <v>9</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E294" s="2" t="s">
         <v>114</v>
@@ -7783,21 +7789,21 @@
         <v>10</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E295" s="2" t="s">
         <v>116</v>
@@ -7806,12 +7812,12 @@
         <v>10</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>117</v>
@@ -7820,7 +7826,7 @@
         <v>52</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E296" s="2" t="s">
         <v>118</v>
@@ -7829,21 +7835,21 @@
         <v>10</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E297" s="2" t="s">
         <v>120</v>
@@ -7852,12 +7858,12 @@
         <v>10</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>121</v>
@@ -7866,7 +7872,7 @@
         <v>9</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E298" s="2" t="s">
         <v>122</v>
@@ -7875,12 +7881,12 @@
         <v>10</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>123</v>
@@ -7889,7 +7895,7 @@
         <v>9</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E299" s="2" t="s">
         <v>124</v>
@@ -7898,12 +7904,12 @@
         <v>10</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>125</v>
@@ -7912,7 +7918,7 @@
         <v>9</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E300" s="2" t="s">
         <v>126</v>
@@ -7921,12 +7927,12 @@
         <v>10</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>127</v>
@@ -7935,7 +7941,7 @@
         <v>9</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E301" s="2" t="s">
         <v>128</v>
@@ -7944,12 +7950,12 @@
         <v>10</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>129</v>
@@ -7958,7 +7964,7 @@
         <v>9</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E302" s="2" t="s">
         <v>130</v>
@@ -7967,12 +7973,12 @@
         <v>10</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>131</v>
@@ -7981,7 +7987,7 @@
         <v>9</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E303" s="2" t="s">
         <v>132</v>
@@ -7990,12 +7996,12 @@
         <v>10</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>133</v>
@@ -8004,7 +8010,7 @@
         <v>9</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E304" s="2" t="s">
         <v>134</v>
@@ -8013,12 +8019,12 @@
         <v>10</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>135</v>
@@ -8027,7 +8033,7 @@
         <v>9</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E305" s="2" t="s">
         <v>136</v>
@@ -8036,21 +8042,21 @@
         <v>10</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E306" s="2" t="s">
         <v>138</v>
@@ -8059,12 +8065,12 @@
         <v>10</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>139</v>
@@ -8073,7 +8079,7 @@
         <v>52</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E307" s="2" t="s">
         <v>140</v>
@@ -8082,12 +8088,12 @@
         <v>10</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>141</v>
@@ -8096,7 +8102,7 @@
         <v>52</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E308" s="2" t="s">
         <v>142</v>
@@ -8105,44 +8111,44 @@
         <v>10</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D309" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B309" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C309" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D309" s="2" t="s">
+      <c r="E309" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F309" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G309" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="E309" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F309" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G309" s="2" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E310" s="2" t="s">
         <v>94</v>
@@ -8151,21 +8157,21 @@
         <v>10</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E311" s="2" t="s">
         <v>96</v>
@@ -8174,21 +8180,21 @@
         <v>10</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E312" s="2" t="s">
         <v>98</v>
@@ -8197,12 +8203,12 @@
         <v>10</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>99</v>
@@ -8211,7 +8217,7 @@
         <v>52</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E313" s="2" t="s">
         <v>100</v>
@@ -8220,12 +8226,12 @@
         <v>10</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>101</v>
@@ -8234,7 +8240,7 @@
         <v>52</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E314" s="2" t="s">
         <v>102</v>
@@ -8243,12 +8249,12 @@
         <v>10</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>103</v>
@@ -8257,7 +8263,7 @@
         <v>52</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E315" s="2" t="s">
         <v>104</v>
@@ -8266,21 +8272,21 @@
         <v>10</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E316" s="2" t="s">
         <v>106</v>
@@ -8289,12 +8295,12 @@
         <v>10</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>107</v>
@@ -8303,7 +8309,7 @@
         <v>9</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E317" s="2" t="s">
         <v>108</v>
@@ -8312,12 +8318,12 @@
         <v>10</v>
       </c>
       <c r="G317" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>109</v>
@@ -8326,7 +8332,7 @@
         <v>9</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E318" s="2" t="s">
         <v>110</v>
@@ -8335,12 +8341,12 @@
         <v>10</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>111</v>
@@ -8349,7 +8355,7 @@
         <v>9</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E319" s="2" t="s">
         <v>112</v>
@@ -8358,12 +8364,12 @@
         <v>10</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>113</v>
@@ -8372,7 +8378,7 @@
         <v>9</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E320" s="2" t="s">
         <v>114</v>
@@ -8381,21 +8387,21 @@
         <v>10</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E321" s="2" t="s">
         <v>116</v>
@@ -8404,12 +8410,12 @@
         <v>10</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>117</v>
@@ -8418,7 +8424,7 @@
         <v>52</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E322" s="2" t="s">
         <v>118</v>
@@ -8427,21 +8433,21 @@
         <v>10</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E323" s="2" t="s">
         <v>120</v>
@@ -8450,12 +8456,12 @@
         <v>10</v>
       </c>
       <c r="G323" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>121</v>
@@ -8464,7 +8470,7 @@
         <v>9</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E324" s="2" t="s">
         <v>122</v>
@@ -8473,12 +8479,12 @@
         <v>10</v>
       </c>
       <c r="G324" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>123</v>
@@ -8487,7 +8493,7 @@
         <v>9</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E325" s="2" t="s">
         <v>124</v>
@@ -8496,12 +8502,12 @@
         <v>10</v>
       </c>
       <c r="G325" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>125</v>
@@ -8510,7 +8516,7 @@
         <v>9</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E326" s="2" t="s">
         <v>126</v>
@@ -8519,12 +8525,12 @@
         <v>10</v>
       </c>
       <c r="G326" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>127</v>
@@ -8533,7 +8539,7 @@
         <v>9</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E327" s="2" t="s">
         <v>128</v>
@@ -8542,12 +8548,12 @@
         <v>10</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>129</v>
@@ -8556,7 +8562,7 @@
         <v>9</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E328" s="2" t="s">
         <v>130</v>
@@ -8565,12 +8571,12 @@
         <v>10</v>
       </c>
       <c r="G328" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>131</v>
@@ -8579,7 +8585,7 @@
         <v>9</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E329" s="2" t="s">
         <v>132</v>
@@ -8588,12 +8594,12 @@
         <v>10</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>133</v>
@@ -8602,7 +8608,7 @@
         <v>9</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E330" s="2" t="s">
         <v>134</v>
@@ -8611,12 +8617,12 @@
         <v>10</v>
       </c>
       <c r="G330" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>135</v>
@@ -8625,7 +8631,7 @@
         <v>9</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E331" s="2" t="s">
         <v>136</v>
@@ -8634,21 +8640,21 @@
         <v>10</v>
       </c>
       <c r="G331" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E332" s="2" t="s">
         <v>138</v>
@@ -8657,12 +8663,12 @@
         <v>10</v>
       </c>
       <c r="G332" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>139</v>
@@ -8671,7 +8677,7 @@
         <v>52</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E333" s="2" t="s">
         <v>140</v>
@@ -8680,12 +8686,12 @@
         <v>10</v>
       </c>
       <c r="G333" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>141</v>
@@ -8694,7 +8700,7 @@
         <v>52</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E334" s="2" t="s">
         <v>142</v>
@@ -8703,44 +8709,44 @@
         <v>10</v>
       </c>
       <c r="G334" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D335" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B335" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C335" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D335" s="2" t="s">
+      <c r="E335" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F335" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G335" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="E335" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F335" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G335" s="2" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E336" s="2" t="s">
         <v>94</v>
@@ -8749,21 +8755,21 @@
         <v>10</v>
       </c>
       <c r="G336" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E337" s="2" t="s">
         <v>96</v>
@@ -8772,21 +8778,21 @@
         <v>10</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E338" s="2" t="s">
         <v>98</v>
@@ -8795,12 +8801,12 @@
         <v>10</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>99</v>
@@ -8809,7 +8815,7 @@
         <v>52</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E339" s="2" t="s">
         <v>100</v>
@@ -8818,12 +8824,12 @@
         <v>10</v>
       </c>
       <c r="G339" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>101</v>
@@ -8832,7 +8838,7 @@
         <v>52</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E340" s="2" t="s">
         <v>102</v>
@@ -8841,12 +8847,12 @@
         <v>10</v>
       </c>
       <c r="G340" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>103</v>
@@ -8855,7 +8861,7 @@
         <v>52</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E341" s="2" t="s">
         <v>104</v>
@@ -8864,21 +8870,21 @@
         <v>10</v>
       </c>
       <c r="G341" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E342" s="2" t="s">
         <v>106</v>
@@ -8887,12 +8893,12 @@
         <v>10</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>107</v>
@@ -8901,7 +8907,7 @@
         <v>9</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E343" s="2" t="s">
         <v>108</v>
@@ -8910,12 +8916,12 @@
         <v>10</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>109</v>
@@ -8924,7 +8930,7 @@
         <v>9</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E344" s="2" t="s">
         <v>110</v>
@@ -8933,12 +8939,12 @@
         <v>10</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>111</v>
@@ -8947,7 +8953,7 @@
         <v>9</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E345" s="2" t="s">
         <v>112</v>
@@ -8956,12 +8962,12 @@
         <v>10</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>113</v>
@@ -8970,7 +8976,7 @@
         <v>9</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E346" s="2" t="s">
         <v>114</v>
@@ -8979,21 +8985,21 @@
         <v>10</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E347" s="2" t="s">
         <v>116</v>
@@ -9002,12 +9008,12 @@
         <v>10</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>117</v>
@@ -9016,7 +9022,7 @@
         <v>52</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E348" s="2" t="s">
         <v>118</v>
@@ -9025,21 +9031,21 @@
         <v>10</v>
       </c>
       <c r="G348" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E349" s="2" t="s">
         <v>120</v>
@@ -9048,12 +9054,12 @@
         <v>10</v>
       </c>
       <c r="G349" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>121</v>
@@ -9062,7 +9068,7 @@
         <v>9</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E350" s="2" t="s">
         <v>122</v>
@@ -9071,12 +9077,12 @@
         <v>10</v>
       </c>
       <c r="G350" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>123</v>
@@ -9085,7 +9091,7 @@
         <v>9</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E351" s="2" t="s">
         <v>124</v>
@@ -9094,12 +9100,12 @@
         <v>10</v>
       </c>
       <c r="G351" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>125</v>
@@ -9108,7 +9114,7 @@
         <v>9</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E352" s="2" t="s">
         <v>126</v>
@@ -9117,12 +9123,12 @@
         <v>10</v>
       </c>
       <c r="G352" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>127</v>
@@ -9131,7 +9137,7 @@
         <v>9</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E353" s="2" t="s">
         <v>128</v>
@@ -9140,12 +9146,12 @@
         <v>10</v>
       </c>
       <c r="G353" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>129</v>
@@ -9154,7 +9160,7 @@
         <v>9</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E354" s="2" t="s">
         <v>130</v>
@@ -9163,12 +9169,12 @@
         <v>10</v>
       </c>
       <c r="G354" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>131</v>
@@ -9177,7 +9183,7 @@
         <v>9</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E355" s="2" t="s">
         <v>132</v>
@@ -9186,12 +9192,12 @@
         <v>10</v>
       </c>
       <c r="G355" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>133</v>
@@ -9200,7 +9206,7 @@
         <v>9</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E356" s="2" t="s">
         <v>134</v>
@@ -9209,12 +9215,12 @@
         <v>10</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>135</v>
@@ -9223,7 +9229,7 @@
         <v>9</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E357" s="2" t="s">
         <v>136</v>
@@ -9232,21 +9238,21 @@
         <v>10</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E358" s="2" t="s">
         <v>138</v>
@@ -9255,12 +9261,12 @@
         <v>10</v>
       </c>
       <c r="G358" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>139</v>
@@ -9269,7 +9275,7 @@
         <v>52</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E359" s="2" t="s">
         <v>140</v>
@@ -9278,12 +9284,12 @@
         <v>10</v>
       </c>
       <c r="G359" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>141</v>
@@ -9292,7 +9298,7 @@
         <v>52</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E360" s="2" t="s">
         <v>142</v>
@@ -9301,24 +9307,24 @@
         <v>10</v>
       </c>
       <c r="G360" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D361" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B361" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C361" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D361" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="E361" s="2" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="F361" s="2" t="s">
         <v>10</v>
@@ -9329,16 +9335,16 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D362" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="B362" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C362" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D362" s="2" t="s">
-        <v>265</v>
       </c>
       <c r="E362" s="2" t="s">
         <v>94</v>
@@ -9347,21 +9353,21 @@
         <v>10</v>
       </c>
       <c r="G362" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E363" s="2" t="s">
         <v>96</v>
@@ -9370,21 +9376,21 @@
         <v>10</v>
       </c>
       <c r="G363" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E364" s="2" t="s">
         <v>98</v>
@@ -9393,12 +9399,12 @@
         <v>10</v>
       </c>
       <c r="G364" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>99</v>
@@ -9407,7 +9413,7 @@
         <v>52</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E365" s="2" t="s">
         <v>100</v>
@@ -9416,12 +9422,12 @@
         <v>10</v>
       </c>
       <c r="G365" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>101</v>
@@ -9430,7 +9436,7 @@
         <v>52</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E366" s="2" t="s">
         <v>102</v>
@@ -9439,12 +9445,12 @@
         <v>10</v>
       </c>
       <c r="G366" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>103</v>
@@ -9453,7 +9459,7 @@
         <v>52</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E367" s="2" t="s">
         <v>104</v>
@@ -9462,21 +9468,21 @@
         <v>10</v>
       </c>
       <c r="G367" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E368" s="2" t="s">
         <v>106</v>
@@ -9485,12 +9491,12 @@
         <v>10</v>
       </c>
       <c r="G368" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>107</v>
@@ -9499,7 +9505,7 @@
         <v>9</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E369" s="2" t="s">
         <v>108</v>
@@ -9508,12 +9514,12 @@
         <v>10</v>
       </c>
       <c r="G369" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>109</v>
@@ -9522,7 +9528,7 @@
         <v>9</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E370" s="2" t="s">
         <v>110</v>
@@ -9531,12 +9537,12 @@
         <v>10</v>
       </c>
       <c r="G370" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>111</v>
@@ -9545,7 +9551,7 @@
         <v>9</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E371" s="2" t="s">
         <v>112</v>
@@ -9554,12 +9560,12 @@
         <v>10</v>
       </c>
       <c r="G371" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>113</v>
@@ -9568,7 +9574,7 @@
         <v>9</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E372" s="2" t="s">
         <v>114</v>
@@ -9577,21 +9583,21 @@
         <v>10</v>
       </c>
       <c r="G372" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E373" s="2" t="s">
         <v>116</v>
@@ -9600,12 +9606,12 @@
         <v>10</v>
       </c>
       <c r="G373" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>117</v>
@@ -9614,7 +9620,7 @@
         <v>52</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E374" s="2" t="s">
         <v>118</v>
@@ -9623,21 +9629,21 @@
         <v>10</v>
       </c>
       <c r="G374" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E375" s="2" t="s">
         <v>120</v>
@@ -9646,12 +9652,12 @@
         <v>10</v>
       </c>
       <c r="G375" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>121</v>
@@ -9660,7 +9666,7 @@
         <v>9</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E376" s="2" t="s">
         <v>122</v>
@@ -9669,12 +9675,12 @@
         <v>10</v>
       </c>
       <c r="G376" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>123</v>
@@ -9683,7 +9689,7 @@
         <v>9</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E377" s="2" t="s">
         <v>124</v>
@@ -9692,12 +9698,12 @@
         <v>10</v>
       </c>
       <c r="G377" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>125</v>
@@ -9706,7 +9712,7 @@
         <v>9</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E378" s="2" t="s">
         <v>126</v>
@@ -9715,12 +9721,12 @@
         <v>10</v>
       </c>
       <c r="G378" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>127</v>
@@ -9729,7 +9735,7 @@
         <v>9</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E379" s="2" t="s">
         <v>128</v>
@@ -9738,12 +9744,12 @@
         <v>10</v>
       </c>
       <c r="G379" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>129</v>
@@ -9752,7 +9758,7 @@
         <v>9</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E380" s="2" t="s">
         <v>130</v>
@@ -9761,12 +9767,12 @@
         <v>10</v>
       </c>
       <c r="G380" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>131</v>
@@ -9775,7 +9781,7 @@
         <v>9</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E381" s="2" t="s">
         <v>132</v>
@@ -9784,12 +9790,12 @@
         <v>10</v>
       </c>
       <c r="G381" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>133</v>
@@ -9798,7 +9804,7 @@
         <v>9</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E382" s="2" t="s">
         <v>134</v>
@@ -9807,12 +9813,12 @@
         <v>10</v>
       </c>
       <c r="G382" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>135</v>
@@ -9821,7 +9827,7 @@
         <v>9</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E383" s="2" t="s">
         <v>136</v>
@@ -9830,21 +9836,21 @@
         <v>10</v>
       </c>
       <c r="G383" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E384" s="2" t="s">
         <v>138</v>
@@ -9853,12 +9859,12 @@
         <v>10</v>
       </c>
       <c r="G384" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>139</v>
@@ -9867,7 +9873,7 @@
         <v>52</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E385" s="2" t="s">
         <v>140</v>
@@ -9876,12 +9882,12 @@
         <v>10</v>
       </c>
       <c r="G385" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>141</v>
@@ -9890,7 +9896,7 @@
         <v>52</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E386" s="2" t="s">
         <v>142</v>
@@ -9899,7 +9905,7 @@
         <v>10</v>
       </c>
       <c r="G386" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="387">
@@ -9907,50 +9913,50 @@
         <v>269</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D387" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E387" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F387" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G387" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="E387" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F387" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G387" s="2" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B388" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D388" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E388" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C388" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D388" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E388" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="F388" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G388" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>211</v>
@@ -9959,7 +9965,7 @@
         <v>52</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E389" s="2" t="s">
         <v>212</v>
@@ -9968,12 +9974,12 @@
         <v>10</v>
       </c>
       <c r="G389" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>213</v>
@@ -9982,7 +9988,7 @@
         <v>52</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E390" s="2" t="s">
         <v>214</v>
@@ -9991,12 +9997,12 @@
         <v>10</v>
       </c>
       <c r="G390" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>215</v>
@@ -10005,7 +10011,7 @@
         <v>52</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E391" s="2" t="s">
         <v>216</v>
@@ -10014,12 +10020,12 @@
         <v>10</v>
       </c>
       <c r="G391" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>217</v>
@@ -10028,7 +10034,7 @@
         <v>52</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E392" s="2" t="s">
         <v>218</v>
@@ -10037,12 +10043,12 @@
         <v>10</v>
       </c>
       <c r="G392" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>219</v>
@@ -10051,7 +10057,7 @@
         <v>52</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E393" s="2" t="s">
         <v>220</v>
@@ -10060,44 +10066,44 @@
         <v>10</v>
       </c>
       <c r="G393" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D394" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B394" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C394" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D394" s="2" t="s">
+      <c r="E394" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F394" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G394" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="E394" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F394" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G394" s="2" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E395" s="2" t="s">
         <v>94</v>
@@ -10106,21 +10112,21 @@
         <v>10</v>
       </c>
       <c r="G395" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E396" s="2" t="s">
         <v>96</v>
@@ -10129,21 +10135,21 @@
         <v>10</v>
       </c>
       <c r="G396" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E397" s="2" t="s">
         <v>98</v>
@@ -10152,12 +10158,12 @@
         <v>10</v>
       </c>
       <c r="G397" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>99</v>
@@ -10166,7 +10172,7 @@
         <v>52</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E398" s="2" t="s">
         <v>100</v>
@@ -10175,12 +10181,12 @@
         <v>10</v>
       </c>
       <c r="G398" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>101</v>
@@ -10189,7 +10195,7 @@
         <v>52</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E399" s="2" t="s">
         <v>102</v>
@@ -10198,12 +10204,12 @@
         <v>10</v>
       </c>
       <c r="G399" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>103</v>
@@ -10212,7 +10218,7 @@
         <v>52</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E400" s="2" t="s">
         <v>104</v>
@@ -10221,21 +10227,21 @@
         <v>10</v>
       </c>
       <c r="G400" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E401" s="2" t="s">
         <v>106</v>
@@ -10244,12 +10250,12 @@
         <v>10</v>
       </c>
       <c r="G401" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>107</v>
@@ -10258,7 +10264,7 @@
         <v>9</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E402" s="2" t="s">
         <v>108</v>
@@ -10267,12 +10273,12 @@
         <v>10</v>
       </c>
       <c r="G402" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>109</v>
@@ -10281,7 +10287,7 @@
         <v>9</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E403" s="2" t="s">
         <v>110</v>
@@ -10290,12 +10296,12 @@
         <v>10</v>
       </c>
       <c r="G403" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>111</v>
@@ -10304,7 +10310,7 @@
         <v>9</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E404" s="2" t="s">
         <v>112</v>
@@ -10313,12 +10319,12 @@
         <v>10</v>
       </c>
       <c r="G404" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>113</v>
@@ -10327,7 +10333,7 @@
         <v>9</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E405" s="2" t="s">
         <v>114</v>
@@ -10336,21 +10342,21 @@
         <v>10</v>
       </c>
       <c r="G405" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E406" s="2" t="s">
         <v>116</v>
@@ -10359,12 +10365,12 @@
         <v>10</v>
       </c>
       <c r="G406" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>117</v>
@@ -10373,7 +10379,7 @@
         <v>52</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E407" s="2" t="s">
         <v>118</v>
@@ -10382,21 +10388,21 @@
         <v>10</v>
       </c>
       <c r="G407" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E408" s="2" t="s">
         <v>120</v>
@@ -10405,12 +10411,12 @@
         <v>10</v>
       </c>
       <c r="G408" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>121</v>
@@ -10419,7 +10425,7 @@
         <v>9</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E409" s="2" t="s">
         <v>122</v>
@@ -10428,12 +10434,12 @@
         <v>10</v>
       </c>
       <c r="G409" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>123</v>
@@ -10442,7 +10448,7 @@
         <v>9</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E410" s="2" t="s">
         <v>124</v>
@@ -10451,12 +10457,12 @@
         <v>10</v>
       </c>
       <c r="G410" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>125</v>
@@ -10465,7 +10471,7 @@
         <v>9</v>
       </c>
       <c r="D411" s="2" 